--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A2EB36-44D3-4C72-B928-9D3790D78AC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F32869-8B2B-4FA1-BAF0-D4A6D9247AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
     <sheet name="TC401_TC500" sheetId="28" r:id="rId2"/>
+    <sheet name="UpdateRevision" sheetId="29" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="167">
   <si>
     <t>Action</t>
   </si>
@@ -331,13 +334,208 @@
   </si>
   <si>
     <t>Space,$RecurringPayment_spaceInfo_0,Payment/Charge Type,$RecurringPayment_chargeName_0</t>
+  </si>
+  <si>
+    <t>6541329</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>#CREATE</t>
+  </si>
+  <si>
+    <t>property,lease,space,recur</t>
+  </si>
+  <si>
+    <t>prequisite handles</t>
+  </si>
+  <si>
+    <t>Preq:102</t>
+  </si>
+  <si>
+    <t>#PREQ</t>
+  </si>
+  <si>
+    <t>$RecurringPayment_LeaseName_0</t>
+  </si>
+  <si>
+    <t>DBA Name,$RecurringPayment_LeaseName_0</t>
+  </si>
+  <si>
+    <t>Click Edit button</t>
+  </si>
+  <si>
+    <t>Edit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASB.FIRevisions.btnEdit </t>
+  </si>
+  <si>
+    <t>Calendar - Lessee - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>UpdateRevision</t>
+  </si>
+  <si>
+    <t>Set Prepayment</t>
+  </si>
+  <si>
+    <t>Prepayment</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.txtPrepayment</t>
+  </si>
+  <si>
+    <t>Set Initial Direct Costs</t>
+  </si>
+  <si>
+    <t>Initial Direct Costs</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.txtROU_InitialDirectCosts</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.txtROU_LandlordAllowance</t>
+  </si>
+  <si>
+    <t>Set Landlord Allowance</t>
+  </si>
+  <si>
+    <t>Landlord Allowance</t>
+  </si>
+  <si>
+    <t>Click Update button</t>
+  </si>
+  <si>
+    <t>Update button</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.btnSave</t>
+  </si>
+  <si>
+    <t>UIBase.WaitingForSuccessfullPopup</t>
+  </si>
+  <si>
+    <t>UIInput.setValue</t>
+  </si>
+  <si>
+    <t>FASB Lease classification</t>
+  </si>
+  <si>
+    <t>Select Lease classification</t>
+  </si>
+  <si>
+    <t>UIDropDown.SelectItem</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.FASBClassificationType</t>
+  </si>
+  <si>
+    <t>FASB - Financing</t>
+  </si>
+  <si>
+    <t>FASB/IASB Start Date</t>
+  </si>
+  <si>
+    <t>UIText.SetTextWithoutClear</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.level_FASB/IASBStartDate</t>
+  </si>
+  <si>
+    <t>FASB/IASB End Date</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.level_FASB/IASBEndDate</t>
+  </si>
+  <si>
+    <t>Add Note</t>
+  </si>
+  <si>
+    <t>Add New</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.btnAddNew</t>
+  </si>
+  <si>
+    <t>Set notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.txtNotes</t>
+  </si>
+  <si>
+    <t>Revision triggered?Revision not triggered</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.level_tdPeriods</t>
+  </si>
+  <si>
+    <t>Verify Lease Clasification</t>
+  </si>
+  <si>
+    <t>Lease Clasification</t>
+  </si>
+  <si>
+    <t>FASB.FIRevisions.dpLeaseClasification</t>
+  </si>
+  <si>
+    <t>Update FASB Start Date</t>
+  </si>
+  <si>
+    <t>Update FASB End Date</t>
+  </si>
+  <si>
+    <t>Lease classification verified?Wrong lease classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify FASB/IASB Start Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASB/IASB Start Date </t>
+  </si>
+  <si>
+    <t>UIInput.compareValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify FASB/IASB End Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASB/IASB End Date </t>
+  </si>
+  <si>
+    <t>$RecurringPayment_endDate_0</t>
+  </si>
+  <si>
+    <t>Start Date verified?Wrong start date</t>
+  </si>
+  <si>
+    <t>End Date verified?Wrong start date</t>
+  </si>
+  <si>
+    <t>$RecurringPayment_effDate_0</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Test unique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +571,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +626,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -485,11 +708,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,12 +804,615 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="179">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1358,6 +2185,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Controller"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Controller"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1669,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +2562,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>58</v>
@@ -1729,18 +2582,28 @@
         <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -3661,340 +4524,340 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="89" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="76" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="65" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="62" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="61" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4363,4 +5226,1971 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11" style="36" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="14" style="54" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="50.42578125" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="37">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="37">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="37">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="37">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="17">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="17">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="17">
+        <v>12</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="17">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="37">
+        <v>16</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="37">
+        <v>19</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="37">
+        <v>20</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="37">
+        <v>24</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="19">
+        <v>21</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="1"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="40"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="40"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="40"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="40"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="40"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="40"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="40"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="40"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C21:F21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H37:H51 H55 H65">
+    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H51 H55 H65">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H18">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H18">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37:H65 H10:H18" xr:uid="{9C714141-7DE7-49DA-A661-FCE85EC1A298}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{AC584969-8ED5-494A-82D1-FD30706166EE}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{8E2C6DA8-A3C1-45B3-9794-468ADF79D851}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H37:H51 H55 H65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{676A36EB-3DF3-4A9E-B344-1544F770C7A2}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{7EA5D274-53AB-4DF7-983D-63FB8F42560A}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{12A6CF38-7B92-43E2-ABD8-24703CF66017}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{4F16A991-16DF-4053-AE09-0ED47F6677AE}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{63E7DCA0-0E2A-45A7-9F8B-FA25967D4489}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{C9A447BB-BE12-4A63-9B15-39220806C8E2}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{61D4B09B-99F3-4441-A57A-09EB2E5050D6}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{5A87A78C-98C5-4648-96B9-D8362A21BB1C}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{82D9DE22-A6C3-41BA-B973-4A53362F5E92}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{0215D699-028F-4112-AF73-51E9D18905B1}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E4517FB0-F1C2-4BC3-8CED-C8584589B3B7}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{4C7ADB0E-686E-44DC-89CE-AF09146385E1}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{405BAF02-FB5D-45A8-A810-A24E6C8DC018}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H9 H19:H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A0D0E590-80F7-4052-8ECA-43A425414079}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10:H18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D95833B8-28CE-4218-9432-718E358F0DEB}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{3F180771-AB84-471A-A2DB-3FF3A8781118}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{A19297AE-E58C-4E7A-A726-423D420F3B57}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{24FAECC6-86D6-4752-A8FB-527CA2946952}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{30916333-4FD0-4DB4-8722-C19598E52425}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{60D88BE3-49B5-431F-8963-4DB0D1A6C9BA}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{2F163E15-011A-480A-926C-C4A51611ED9B}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{FDCEF14C-0760-4F83-BC4D-33428F4CA25F}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C7113A6B-D844-47A1-B1FA-F5239D87A51A}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{34468DF2-664C-493D-97F3-591E289332FB}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F32869-8B2B-4FA1-BAF0-D4A6D9247AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE2E98-E292-478C-9B37-6F50F231428B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="165">
   <si>
     <t>Action</t>
   </si>
@@ -519,16 +519,10 @@
     <t>$RecurringPayment_effDate_0</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Test unique</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Test$Unq</t>
   </si>
 </sst>
 </file>
@@ -713,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,220 +882,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="179">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
+  <dxfs count="173">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4524,340 +4482,340 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="178" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="177" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="175" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="174" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="172" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="171" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="169" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="168" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="166" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="165" priority="86" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="163" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="159" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="157" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="154" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="153" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="151" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="150" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="147" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="145" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="144" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="142" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="139" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="138" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="136" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="135" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="133" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="127" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="123" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="117" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="115" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="114" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="111" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="108" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5232,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,7 +5206,8 @@
     <col min="9" max="9" width="16.140625" style="33" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="33" customWidth="1"/>
     <col min="11" max="11" width="50.42578125" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="36"/>
+    <col min="12" max="12" width="9.140625" style="33"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,18 +5251,18 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -5331,7 +5290,6 @@
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -5416,7 +5374,7 @@
       <c r="J6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5449,7 +5407,7 @@
       <c r="J7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5483,7 +5441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>102</v>
       </c>
@@ -5566,7 +5524,7 @@
       <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5553,7 @@
       <c r="J12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5626,7 +5584,7 @@
       <c r="J13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5655,7 +5613,7 @@
       <c r="J14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5686,7 +5644,7 @@
       <c r="J15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5717,7 +5675,7 @@
       <c r="J16" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5748,7 +5706,7 @@
       <c r="J17" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5814,7 +5772,7 @@
       <c r="K19" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5843,23 +5801,23 @@
       <c r="J20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="49"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="49"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -5913,7 +5871,7 @@
       <c r="J23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +5927,7 @@
       <c r="J25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6048,7 +6006,7 @@
         <v>145</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="1" t="s">
@@ -6057,7 +6015,7 @@
       <c r="J28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6088,7 +6046,7 @@
       <c r="J29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6110,7 +6068,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="1" t="s">
@@ -6119,7 +6077,7 @@
       <c r="J30" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6141,7 +6099,7 @@
         <v>122</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="1" t="s">
@@ -6150,7 +6108,7 @@
       <c r="J31" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6179,7 +6137,7 @@
       <c r="J32" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6227,7 +6185,7 @@
       <c r="J34" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6263,7 +6221,7 @@
       <c r="K35" t="s">
         <v>153</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6660,184 +6618,184 @@
     <mergeCell ref="C21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="H37:H51 H55 H65">
-    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H51 H55 H65">
-    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H18">
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H18">
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE2E98-E292-478C-9B37-6F50F231428B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848F76D-1206-4B56-903F-7CC61E92B3FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -2480,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,7 +4831,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="257" operator="equal" id="{D768DC0D-5E4E-43D9-8F43-9348AAF4DCD8}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4844,7 +4844,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="105" operator="equal" id="{59046F10-F407-41A2-9CE7-9B17FBC784C4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4857,7 +4857,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="101" operator="equal" id="{8186ECEC-6780-423E-85FE-5247B7BD2520}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4870,7 +4870,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="97" operator="equal" id="{65CEC626-1EC1-4316-A3BD-B45DE3C07733}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4883,7 +4883,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="93" operator="equal" id="{F8C64934-A4B1-4573-B529-FD5B65808037}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4896,7 +4896,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="85" operator="equal" id="{8ED45A61-5202-4087-8C00-02C1ACB1C36F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4909,7 +4909,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="81" operator="equal" id="{5027BC61-BBD1-4DD8-AEB8-C7E91A090E6A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4922,7 +4922,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="77" operator="equal" id="{7EEADD54-0B12-4E0A-8877-04656889C5D0}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4935,7 +4935,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="73" operator="equal" id="{B17A8508-575C-4C60-B900-6F9C7CEB974D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4948,7 +4948,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="69" operator="equal" id="{06BBE756-38FF-432A-952F-BFB4CD2417E5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4961,7 +4961,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="65" operator="equal" id="{C83C975F-FC0E-4A11-B3F5-05CD28616F29}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4974,7 +4974,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="61" operator="equal" id="{C7D606E6-8433-4161-BB2F-A38D10784B78}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -4987,7 +4987,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="57" operator="equal" id="{D58722B2-FBF4-410B-B1EC-3749EB99C302}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5000,7 +5000,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="53" operator="equal" id="{424FBF56-8424-4A59-BA65-735823C2654D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5013,7 +5013,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="49" operator="equal" id="{C3685D86-C861-42BF-8404-15471ACB0FB6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5026,7 +5026,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="45" operator="equal" id="{69B2481F-DD6D-4043-9DB3-EC82BC4118A5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5039,7 +5039,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="41" operator="equal" id="{488602E9-38BF-474E-8E95-FC55FBEF86FC}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5052,7 +5052,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="37" operator="equal" id="{B42EEF85-3768-4161-BAA4-EF9E07F576C9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5065,7 +5065,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="33" operator="equal" id="{459B337A-00EA-4BFC-9382-DF290ABADE0C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5078,7 +5078,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{3807F96B-6DEF-4399-B2FA-1531C8C3F07B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5091,7 +5091,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{5D938066-60F8-4456-90C2-9B3DC8D367FD}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5104,7 +5104,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{C2B437C6-EBC2-42AE-9BD7-30247025CDBB}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5117,7 +5117,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{65CFFABE-1D3A-4D65-A257-2530AAAAC50A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5130,7 +5130,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="equal" id="{4338972E-3D97-4501-9D29-698E7BB39BBF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5143,7 +5143,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{80E723EC-393D-4B88-A222-491374873C05}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5156,7 +5156,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{AE864C57-A482-4ADD-A48D-2442D855B44A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5169,7 +5169,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{85780FD9-4633-486D-875A-C6C72F5F100E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5190,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -6811,7 +6811,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="88" operator="equal" id="{AC584969-8ED5-494A-82D1-FD30706166EE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6824,7 +6824,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="72" operator="equal" id="{8E2C6DA8-A3C1-45B3-9794-468ADF79D851}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6837,7 +6837,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="68" operator="equal" id="{676A36EB-3DF3-4A9E-B344-1544F770C7A2}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6850,7 +6850,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="64" operator="equal" id="{7EA5D274-53AB-4DF7-983D-63FB8F42560A}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6863,7 +6863,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="60" operator="equal" id="{12A6CF38-7B92-43E2-ABD8-24703CF66017}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6876,7 +6876,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="56" operator="equal" id="{4F16A991-16DF-4053-AE09-0ED47F6677AE}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6889,7 +6889,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="52" operator="equal" id="{63E7DCA0-0E2A-45A7-9F8B-FA25967D4489}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6902,7 +6902,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="48" operator="equal" id="{C9A447BB-BE12-4A63-9B15-39220806C8E2}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6915,7 +6915,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="44" operator="equal" id="{61D4B09B-99F3-4441-A57A-09EB2E5050D6}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6928,7 +6928,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="40" operator="equal" id="{5A87A78C-98C5-4648-96B9-D8362A21BB1C}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6941,7 +6941,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="36" operator="equal" id="{82D9DE22-A6C3-41BA-B973-4A53362F5E92}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6954,7 +6954,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="32" operator="equal" id="{0215D699-028F-4112-AF73-51E9D18905B1}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6967,7 +6967,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E4517FB0-F1C2-4BC3-8CED-C8584589B3B7}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6980,7 +6980,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="24" operator="equal" id="{4C7ADB0E-686E-44DC-89CE-AF09146385E1}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6993,7 +6993,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{405BAF02-FB5D-45A8-A810-A24E6C8DC018}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7006,7 +7006,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A0D0E590-80F7-4052-8ECA-43A425414079}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7019,7 +7019,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D95833B8-28CE-4218-9432-718E358F0DEB}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7032,7 +7032,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{3F180771-AB84-471A-A2DB-3FF3A8781118}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7045,7 +7045,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{A19297AE-E58C-4E7A-A726-423D420F3B57}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7058,7 +7058,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{24FAECC6-86D6-4752-A8FB-527CA2946952}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7071,7 +7071,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{30916333-4FD0-4DB4-8722-C19598E52425}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7084,7 +7084,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{60D88BE3-49B5-431F-8963-4DB0D1A6C9BA}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7097,7 +7097,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{2F163E15-011A-480A-926C-C4A51611ED9B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7110,7 +7110,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{FDCEF14C-0760-4F83-BC4D-33428F4CA25F}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7123,7 +7123,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C7113A6B-D844-47A1-B1FA-F5239D87A51A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7136,7 +7136,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{34468DF2-664C-493D-97F3-591E289332FB}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE2E98-E292-478C-9B37-6F50F231428B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77CCDF5-5764-4A73-9D22-A3CBDB1E9C85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="135">
   <si>
     <t>Action</t>
   </si>
@@ -336,33 +336,6 @@
     <t>Space,$RecurringPayment_spaceInfo_0,Payment/Charge Type,$RecurringPayment_chargeName_0</t>
   </si>
   <si>
-    <t>6541329</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>#CREATE</t>
-  </si>
-  <si>
-    <t>property,lease,space,recur</t>
-  </si>
-  <si>
-    <t>prequisite handles</t>
-  </si>
-  <si>
-    <t>Preq:102</t>
-  </si>
-  <si>
-    <t>#PREQ</t>
-  </si>
-  <si>
-    <t>$RecurringPayment_LeaseName_0</t>
-  </si>
-  <si>
-    <t>DBA Name,$RecurringPayment_LeaseName_0</t>
-  </si>
-  <si>
     <t>Click Edit button</t>
   </si>
   <si>
@@ -378,158 +351,95 @@
     <t>UpdateRevision</t>
   </si>
   <si>
-    <t>Set Prepayment</t>
-  </si>
-  <si>
-    <t>Prepayment</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.txtPrepayment</t>
-  </si>
-  <si>
-    <t>Set Initial Direct Costs</t>
-  </si>
-  <si>
-    <t>Initial Direct Costs</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.txtROU_InitialDirectCosts</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.txtROU_LandlordAllowance</t>
-  </si>
-  <si>
-    <t>Set Landlord Allowance</t>
-  </si>
-  <si>
-    <t>Landlord Allowance</t>
-  </si>
-  <si>
-    <t>Click Update button</t>
-  </si>
-  <si>
-    <t>Update button</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.btnSave</t>
-  </si>
-  <si>
-    <t>UIBase.WaitingForSuccessfullPopup</t>
-  </si>
-  <si>
-    <t>UIInput.setValue</t>
-  </si>
-  <si>
-    <t>FASB Lease classification</t>
-  </si>
-  <si>
-    <t>Select Lease classification</t>
-  </si>
-  <si>
-    <t>UIDropDown.SelectItem</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.FASBClassificationType</t>
-  </si>
-  <si>
-    <t>FASB - Financing</t>
-  </si>
-  <si>
-    <t>FASB/IASB Start Date</t>
-  </si>
-  <si>
-    <t>UIText.SetTextWithoutClear</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.level_FASB/IASBStartDate</t>
-  </si>
-  <si>
-    <t>FASB/IASB End Date</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.level_FASB/IASBEndDate</t>
-  </si>
-  <si>
-    <t>Add Note</t>
-  </si>
-  <si>
-    <t>Add New</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.btnAddNew</t>
-  </si>
-  <si>
-    <t>Set notes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.txtNotes</t>
-  </si>
-  <si>
-    <t>Revision triggered?Revision not triggered</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.level_tdPeriods</t>
-  </si>
-  <si>
-    <t>Verify Lease Clasification</t>
-  </si>
-  <si>
-    <t>Lease Clasification</t>
-  </si>
-  <si>
-    <t>FASB.FIRevisions.dpLeaseClasification</t>
-  </si>
-  <si>
-    <t>Update FASB Start Date</t>
-  </si>
-  <si>
-    <t>Update FASB End Date</t>
-  </si>
-  <si>
-    <t>Lease classification verified?Wrong lease classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify FASB/IASB Start Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASB/IASB Start Date </t>
-  </si>
-  <si>
-    <t>UIInput.compareValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify FASB/IASB End Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASB/IASB End Date </t>
-  </si>
-  <si>
-    <t>$RecurringPayment_endDate_0</t>
-  </si>
-  <si>
-    <t>Start Date verified?Wrong start date</t>
-  </si>
-  <si>
-    <t>End Date verified?Wrong start date</t>
-  </si>
-  <si>
-    <t>$RecurringPayment_effDate_0</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Test$Unq</t>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>6551767</t>
+  </si>
+  <si>
+    <t>Calendar - Lessor - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>Calendar - Lessor - STL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>Calendar - Lessor - DFL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>6541337</t>
+  </si>
+  <si>
+    <t>6541332</t>
+  </si>
+  <si>
+    <t>445 - Lessee - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>445 - Lessor - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>445 - Lessor - STL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>445 - Lessor - DFL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>13th Period</t>
+  </si>
+  <si>
+    <t>13th Period - Lessee - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>13th Period - Lessor - Operating - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>13th Period - Lessor - STL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t>13th Period - Lessor - DFL - Validate user is able to Update Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify revision trigering </t>
+  </si>
+  <si>
+    <t>CommonTC:102</t>
+  </si>
+  <si>
+    <t>#COMMON</t>
+  </si>
+  <si>
+    <t>Verify update revision</t>
+  </si>
+  <si>
+    <t>CommonTC:104</t>
+  </si>
+  <si>
+    <t>CommonTC:105</t>
+  </si>
+  <si>
+    <t>CommonTC:106</t>
+  </si>
+  <si>
+    <t>CommonTC:107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,17 +483,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -707,7 +622,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,9 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -812,22 +724,13 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -837,55 +740,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,7 +801,168 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="196">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2478,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,54 +2558,53 @@
     <col min="3" max="3" width="82.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="F1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -2545,33 +2612,248 @@
       <c r="E3" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6551796</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52">
+        <v>6551803</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="D8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="47">
+        <v>445</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="52">
+        <v>6558241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="52">
+        <v>6558243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="52">
+        <v>6558245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="52">
+        <v>6541329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="52">
+        <v>6558247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="52">
+        <v>6558248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6558250</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,41 +2876,41 @@
     <col min="3" max="3" width="69.7109375" customWidth="1"/>
     <col min="4" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="111.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" style="29" customWidth="1"/>
+    <col min="8" max="8" width="14" style="28" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2639,30 +2921,30 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L2">
@@ -2670,32 +2952,32 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="17">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L3">
@@ -2703,32 +2985,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L4">
@@ -2736,22 +3018,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -2769,20 +3051,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2800,28 +3082,28 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L7">
@@ -2829,29 +3111,29 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -2862,28 +3144,28 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L9">
@@ -2891,27 +3173,27 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2922,28 +3204,28 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L11">
@@ -2951,30 +3233,30 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>11</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="23" t="s">
+      <c r="I12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L12">
@@ -2982,27 +3264,27 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17">
-        <v>12</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -3013,30 +3295,30 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>13</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L14">
@@ -3044,27 +3326,27 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>14</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -3075,26 +3357,26 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>15</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L16">
@@ -3102,32 +3384,32 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>16</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L17">
@@ -3135,32 +3417,32 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>17</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L18">
@@ -3168,32 +3450,32 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>17</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="23" t="s">
+      <c r="I19" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L19">
@@ -3201,32 +3483,32 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="23" t="s">
+      <c r="I20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L20">
@@ -3234,32 +3516,32 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>19</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="I21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L21">
@@ -3267,32 +3549,32 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>19</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L22">
@@ -3300,32 +3582,32 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>19</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L23">
@@ -3333,32 +3615,32 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>19</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="23" t="s">
+      <c r="I24" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L24">
@@ -3366,32 +3648,32 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L25">
@@ -3399,32 +3681,32 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>19</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="23" t="s">
+      <c r="I26" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L26">
@@ -3432,32 +3714,32 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>19</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="23" t="s">
+      <c r="I27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L27">
@@ -3465,32 +3747,32 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>20</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L28">
@@ -3498,32 +3780,32 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>21</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="I29" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L29">
@@ -3531,28 +3813,28 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>22</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="23"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L30">
@@ -3560,30 +3842,30 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>1</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="1"/>
       <c r="I32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L32">
@@ -3591,32 +3873,32 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="16">
+        <v>2</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L33">
@@ -3624,32 +3906,32 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>3</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L34">
@@ -3657,22 +3939,22 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>4</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3682,7 +3964,7 @@
       <c r="I35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L35">
@@ -3690,20 +3972,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>5</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3713,7 +3995,7 @@
       <c r="I36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L36">
@@ -3721,28 +4003,28 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>6</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="1"/>
       <c r="I37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L37">
@@ -3750,29 +4032,29 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>7</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -3783,28 +4065,28 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>8</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="23" t="s">
+      <c r="I39" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L39">
@@ -3812,27 +4094,27 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>9</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -3843,28 +4125,28 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>10</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="23" t="s">
+      <c r="I41" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L41">
@@ -3872,30 +4154,30 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>11</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
         <v>64</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="23" t="s">
+      <c r="I42" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L42">
@@ -3903,27 +4185,27 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="17">
-        <v>12</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22" t="s">
+      <c r="B43" s="16">
+        <v>12</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -3934,30 +4216,30 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>13</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="23" t="s">
+      <c r="I44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L44">
@@ -3965,27 +4247,27 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>14</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -3996,26 +4278,26 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>15</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="I46" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L46">
@@ -4023,32 +4305,32 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>16</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="23" t="s">
+      <c r="I47" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L47">
@@ -4056,32 +4338,32 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>17</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="23" t="s">
+      <c r="I48" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L48">
@@ -4089,32 +4371,32 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>17</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="23" t="s">
+      <c r="I49" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L49">
@@ -4122,32 +4404,32 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>18</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="23" t="s">
+      <c r="I50" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L50">
@@ -4155,32 +4437,32 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>19</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="23" t="s">
+      <c r="I51" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L51">
@@ -4188,32 +4470,32 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>19</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="23" t="s">
+      <c r="I52" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L52">
@@ -4221,32 +4503,32 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>19</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J53" s="23" t="s">
+      <c r="I53" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L53">
@@ -4254,32 +4536,32 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>19</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="23" t="s">
+      <c r="I54" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L54">
@@ -4287,32 +4569,32 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>19</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="23" t="s">
+      <c r="I55" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L55">
@@ -4320,32 +4602,32 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>19</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="23" t="s">
+      <c r="I56" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L56">
@@ -4353,32 +4635,32 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>19</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J57" s="23" t="s">
+      <c r="I57" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L57">
@@ -4386,32 +4668,32 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>20</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="23" t="s">
+      <c r="I58" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L58">
@@ -4419,32 +4701,32 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>21</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="23" t="s">
+      <c r="I59" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L59">
@@ -4452,28 +4734,28 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>22</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="23"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="23" t="s">
+      <c r="I60" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L60">
@@ -4482,340 +4764,340 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="172" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16 H20 H30">
-    <cfRule type="cellIs" dxfId="171" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="169" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="168" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="166" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="165" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="163" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="162" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="160" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="159" priority="86" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="157" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="156" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="154" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="153" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="151" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="148" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="147" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="145" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="144" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="142" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="141" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="139" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="138" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="136" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="135" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="133" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H46 H50 H60">
-    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="130" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="127" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="126" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="124" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="123" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="121" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="117" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="115" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5190,1617 +5472,1452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11" style="36" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" style="36" customWidth="1"/>
-    <col min="4" max="5" width="50.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="14" style="54" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="50.42578125" style="36" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="33"/>
-    <col min="13" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="15.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11" style="35" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="35" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="14" style="44" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="50.42578125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="32"/>
+    <col min="13" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="64" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>6541337</v>
+      </c>
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>6541337</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>6541337</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>6551767</v>
+      </c>
+      <c r="B8" s="36">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>6551767</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>6551767</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
+        <v>6551796</v>
+      </c>
+      <c r="B13" s="36">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
+        <v>6551796</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
+        <v>6551796</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
+        <v>6551803</v>
+      </c>
+      <c r="B18" s="36">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>6551803</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="17">
+      <c r="D19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>6551803</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="57"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="36">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26"/>
+      <c r="C26" s="58"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
+        <v>6558241</v>
+      </c>
+      <c r="B28" s="36">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
+        <v>6558241</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="52">
+        <v>6558241</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="52">
+        <v>6558243</v>
+      </c>
+      <c r="B33" s="36">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
+        <v>6558243</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="37">
-        <v>2</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="D34" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52">
+        <v>6558243</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="57"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="52">
+        <v>6558245</v>
+      </c>
+      <c r="B38" s="36">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="52">
+        <v>6558245</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="37">
+      <c r="D39" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
+        <v>6558245</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="52">
+        <v>6541329</v>
+      </c>
+      <c r="B43" s="36">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
+        <v>6541329</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="37">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="D44" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="41"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>6541329</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="57"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="45"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="52">
+        <v>6558247</v>
+      </c>
+      <c r="B48" s="36">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="52">
+        <v>6558247</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="37">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="D49" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="41"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="52">
+        <v>6558247</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C51" s="57"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="52">
+        <v>6558248</v>
+      </c>
+      <c r="B53" s="36">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="52">
+        <v>6558248</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="37">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="D54" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="52">
+        <v>6558248</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="57"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="52">
+        <v>6558250</v>
+      </c>
+      <c r="B58" s="36">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="52">
+        <v>6558250</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="37">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="17">
-        <v>6</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="33">
+      <c r="D59" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="17">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="17">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="17">
-        <v>11</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="17">
-        <v>12</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="17">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="17">
-        <v>14</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="37">
-        <v>16</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="37">
-        <v>19</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="37">
-        <v>20</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="42" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="52">
+        <v>6558250</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="52" t="s">
+      <c r="D60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="37">
-        <v>24</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="19">
-        <v>21</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="1"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="1"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="1"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="1"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="40"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="40"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="40"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="40"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="40"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="40"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="40"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="40"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="25"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="24"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="5"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="25"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="24"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="5"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="40"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="25"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="38"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="24"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="5"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="25"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="38"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="24"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="5"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="40"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="40"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="38"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="40"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C17:J17"/>
   </mergeCells>
-  <conditionalFormatting sqref="H37:H51 H55 H65">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H51 H55 H65">
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H18">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H18">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37:H65 H10:H18" xr:uid="{9C714141-7DE7-49DA-A661-FCE85EC1A298}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H61:H65" xr:uid="{9C714141-7DE7-49DA-A661-FCE85EC1A298}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H26" xr:uid="{21583D82-B2AC-43C7-8403-31C697B2FBFB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6810,20 +6927,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{AC584969-8ED5-494A-82D1-FD30706166EE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{8E2C6DA8-A3C1-45B3-9794-468ADF79D851}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{8E2C6DA8-A3C1-45B3-9794-468ADF79D851}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6833,49 +6937,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H37:H51 H55 H65</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{676A36EB-3DF3-4A9E-B344-1544F770C7A2}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{7EA5D274-53AB-4DF7-983D-63FB8F42560A}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{12A6CF38-7B92-43E2-ABD8-24703CF66017}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{4F16A991-16DF-4053-AE09-0ED47F6677AE}">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{4F16A991-16DF-4053-AE09-0ED47F6677AE}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6888,7 +6953,7 @@
           <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{63E7DCA0-0E2A-45A7-9F8B-FA25967D4489}">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{63E7DCA0-0E2A-45A7-9F8B-FA25967D4489}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6901,20 +6966,7 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{C9A447BB-BE12-4A63-9B15-39220806C8E2}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{61D4B09B-99F3-4441-A57A-09EB2E5050D6}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{61D4B09B-99F3-4441-A57A-09EB2E5050D6}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6927,7 +6979,7 @@
           <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{5A87A78C-98C5-4648-96B9-D8362A21BB1C}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{5A87A78C-98C5-4648-96B9-D8362A21BB1C}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6940,7 +6992,20 @@
           <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{82D9DE22-A6C3-41BA-B973-4A53362F5E92}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D445A881-F14F-4665-B194-0492BDB35660}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1 H3:H5 H13 H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{52693A3B-C30A-40CA-8FA3-31B59C758844}">
             <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -6950,49 +7015,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{0215D699-028F-4112-AF73-51E9D18905B1}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E4517FB0-F1C2-4BC3-8CED-C8584589B3B7}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{4C7ADB0E-686E-44DC-89CE-AF09146385E1}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{405BAF02-FB5D-45A8-A810-A24E6C8DC018}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{0ED090FE-BD98-4A40-97FB-4A0C6E3F8DDE}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7002,23 +7028,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H3:H9 H19:H21</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A0D0E590-80F7-4052-8ECA-43A425414079}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H10:H18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{D95833B8-28CE-4218-9432-718E358F0DEB}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{143D570C-57FB-452E-94BA-285ABFA4390A}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7028,10 +7041,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{3F180771-AB84-471A-A2DB-3FF3A8781118}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{C532688D-36F9-48BB-857D-C44D18D3BD57}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7041,10 +7054,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
+          <xm:sqref>H18:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{A19297AE-E58C-4E7A-A726-423D420F3B57}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{950F4A56-3853-4B41-AA6E-1549B3E511D7}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7054,50 +7067,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H23:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{24FAECC6-86D6-4752-A8FB-527CA2946952}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{30916333-4FD0-4DB4-8722-C19598E52425}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{60D88BE3-49B5-431F-8963-4DB0D1A6C9BA}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{2F163E15-011A-480A-926C-C4A51611ED9B}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{9A42562F-60DB-4655-9F7D-78B7E281B809}">
+            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7109,7 +7083,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{FDCEF14C-0760-4F83-BC4D-33428F4CA25F}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{623E8DD3-6C40-40E7-A895-BB7C52523637}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7119,10 +7093,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
+          <xm:sqref>H28:H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C7113A6B-D844-47A1-B1FA-F5239D87A51A}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1D5F748A-AAEB-470F-8C81-AD41E63F4163}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7132,10 +7106,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{34468DF2-664C-493D-97F3-591E289332FB}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{9FF493EF-03F6-45E7-B4F9-C4C7351FF103}">
             <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -7145,7 +7119,98 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
+          <xm:sqref>H33:H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{90312379-85DB-4EB4-AFE0-B2A5E75CA7BA}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CB109C39-9CAE-45D4-B40E-B23B3C520A65}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{FB218164-422C-4DBD-AB22-DBA16F342B6E}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H38:H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{CB54755F-52DA-495B-A1E9-50133557D6CD}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H43:H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{1A5B2B88-19B8-4A30-8D97-5F67DC9EC1BD}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H48:H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{91D2F340-5B63-459B-9E10-A732C28F532A}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H53:H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{B1D34037-1807-4DD3-BDD6-77923E284CF8}">
+            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H58:H60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0651E7A0-FD71-4F41-94C3-EF338B080182}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FBD0D0-26C6-4348-BE7E-FC9F1BE440D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="132">
   <si>
     <t>Action</t>
   </si>
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,9 +903,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4042,7 +4039,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,6 +4102,9 @@
       <c r="E3" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="S3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4123,6 +4123,9 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4142,6 +4145,9 @@
       <c r="E5" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4154,9 +4160,12 @@
         <v>104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4171,9 +4180,12 @@
         <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4188,9 +4200,12 @@
         <v>119</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4205,9 +4220,12 @@
         <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4222,9 +4240,12 @@
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4239,9 +4260,12 @@
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4255,10 +4279,13 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>11</v>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4272,7 +4299,7 @@
       <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="87">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="59">
@@ -4281,12 +4308,18 @@
       <c r="C16" t="s">
         <v>96</v>
       </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="87">
+      <c r="F16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
       <c r="B17" s="59">
@@ -4295,58 +4328,99 @@
       <c r="C17" t="s">
         <v>98</v>
       </c>
+      <c r="D17" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="F17" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
       <c r="B18" s="59">
         <v>6530927</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
       </c>
+      <c r="D18" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
       <c r="B19" s="3">
         <v>6530966</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
       </c>
+      <c r="D19" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
       <c r="B20" s="3">
         <v>6530960</v>
       </c>
       <c r="C20" t="s">
         <v>130</v>
       </c>
+      <c r="D20" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
       <c r="B21" s="3">
         <v>6530959</v>
       </c>
       <c r="C21" t="s">
         <v>131</v>
       </c>
+      <c r="D21" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>42</v>
@@ -4360,10 +4434,13 @@
       <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" s="49">
         <v>6558241</v>
@@ -4377,10 +4454,13 @@
       <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B24" s="49">
         <v>6558243</v>
@@ -4394,10 +4474,13 @@
       <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" s="49">
         <v>6558245</v>
@@ -4411,8 +4494,11 @@
       <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
@@ -4421,8 +4507,8 @@
       <c r="D29" s="44"/>
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="87">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>1</v>
       </c>
       <c r="B30" s="59">
@@ -4431,12 +4517,18 @@
       <c r="C30" t="s">
         <v>99</v>
       </c>
+      <c r="D30" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="87">
+      <c r="F30" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>2</v>
       </c>
       <c r="B31" s="59">
@@ -4445,12 +4537,18 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
+      <c r="D31" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E31" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87">
+      <c r="F31" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -4459,55 +4557,79 @@
       <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="85"/>
+      <c r="D32" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
+      <c r="F32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="87" t="s">
         <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="85"/>
+      <c r="D33" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88" t="s">
+      <c r="F33" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" s="87" t="s">
         <v>128</v>
       </c>
       <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="85"/>
+      <c r="D34" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E34" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88" t="s">
+      <c r="F34" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>6</v>
+      </c>
+      <c r="B35" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="85"/>
+      <c r="D35" s="50" t="s">
+        <v>11</v>
+      </c>
       <c r="E35" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="87">
-        <v>5</v>
+      <c r="F35" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>7</v>
       </c>
       <c r="B36" s="49">
         <v>6541329</v>
@@ -4521,10 +4643,13 @@
       <c r="E36" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="87">
-        <v>6</v>
+      <c r="F36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>8</v>
       </c>
       <c r="B37" s="49">
         <v>6558247</v>
@@ -4538,10 +4663,13 @@
       <c r="E37" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="87">
-        <v>7</v>
+      <c r="F37" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>9</v>
       </c>
       <c r="B38" s="49">
         <v>6558248</v>
@@ -4555,10 +4683,13 @@
       <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="87">
-        <v>8</v>
+      <c r="F38" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
+        <v>10</v>
       </c>
       <c r="B39" s="3">
         <v>6558250</v>
@@ -4570,6 +4701,9 @@
         <v>11</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4583,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEFDB9-89D3-4BD7-BCAC-3A5ECC5CDE8F}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,12 +4774,12 @@
     </row>
     <row r="2" spans="1:12" s="80" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="84"/>
       <c r="G2" s="83"/>
       <c r="H2" s="82"/>
@@ -4709,13 +4843,13 @@
       <c r="D5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F5" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="60" t="s">
@@ -4774,12 +4908,12 @@
     </row>
     <row r="8" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
       <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4955,13 +5089,13 @@
       <c r="D15" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I15" s="60" t="s">
@@ -5020,12 +5154,12 @@
     </row>
     <row r="18" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
       <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5085,13 +5219,13 @@
       <c r="D21" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I21" s="60" t="s">
@@ -5150,12 +5284,12 @@
     </row>
     <row r="24" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="78"/>
       <c r="G24" s="77"/>
       <c r="H24" s="76"/>
@@ -5335,13 +5469,13 @@
       <c r="D31" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I31" s="60" t="s">
@@ -5400,12 +5534,12 @@
     </row>
     <row r="34" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74"/>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5465,13 +5599,13 @@
       <c r="D37" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="91" t="s">
+      <c r="G37" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I37" s="60" t="s">
@@ -5530,12 +5664,12 @@
     </row>
     <row r="40" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74"/>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5711,13 +5845,13 @@
       <c r="D47" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="91" t="s">
+      <c r="E47" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F47" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="90" t="s">
         <v>116</v>
       </c>
       <c r="I47" s="60" t="s">
@@ -5775,13 +5909,13 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="96" t="s">
+      <c r="A50" s="88"/>
+      <c r="B50" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
       <c r="H50" s="68"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5989,7 +6123,7 @@
       <c r="D58" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="91" t="s">
+      <c r="E58" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F58" s="69" t="s">
@@ -6057,13 +6191,13 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="96" t="s">
+      <c r="A61" s="89"/>
+      <c r="B61" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
       <c r="H61" s="68"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6271,7 +6405,7 @@
       <c r="D69" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="91" t="s">
+      <c r="E69" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="69" t="s">
@@ -6338,14 +6472,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
-      <c r="B72" s="95" t="s">
+    <row r="72" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="91"/>
+      <c r="B72" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="H72" s="94"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -6552,7 +6686,7 @@
       <c r="D80" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="91" t="s">
+      <c r="E80" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F80" s="69" t="s">
@@ -6619,14 +6753,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="92"/>
-      <c r="B83" s="95" t="s">
+    <row r="83" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="91"/>
+      <c r="B83" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
-      <c r="H83" s="94"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
+      <c r="H83" s="93"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
@@ -6833,7 +6967,7 @@
       <c r="D91" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E91" s="91" t="s">
+      <c r="E91" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F91" s="69" t="s">
@@ -6900,14 +7034,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="92"/>
-      <c r="B94" s="95" t="s">
+    <row r="94" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="91"/>
+      <c r="B94" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="95"/>
-      <c r="D94" s="95"/>
-      <c r="H94" s="94"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="102"/>
+      <c r="H94" s="93"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -7114,7 +7248,7 @@
       <c r="D102" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E102" s="91" t="s">
+      <c r="E102" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F102" s="69" t="s">
@@ -7181,14 +7315,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
-      <c r="B105" s="95" t="s">
+    <row r="105" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="91"/>
+      <c r="B105" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="95"/>
-      <c r="D105" s="95"/>
-      <c r="H105" s="94"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="H105" s="93"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -7395,7 +7529,7 @@
       <c r="D113" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="91" t="s">
+      <c r="E113" s="90" t="s">
         <v>120</v>
       </c>
       <c r="F113" s="69" t="s">
@@ -7464,6 +7598,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B2:E2"/>
@@ -7471,11 +7610,6 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="384" priority="314" operator="equal">
@@ -9401,11 +9535,11 @@
   <sheetData>
     <row r="1" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,11 +9630,11 @@
     </row>
     <row r="6" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
       <c r="H6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9559,11 +9693,11 @@
     </row>
     <row r="10" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9654,11 +9788,11 @@
     </row>
     <row r="15" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9749,11 +9883,11 @@
     </row>
     <row r="20" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
       <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,11 +9978,11 @@
     </row>
     <row r="25" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10619,8 +10753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,16 +10814,16 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
       <c r="K2" s="32"/>
       <c r="L2" s="43"/>
     </row>
@@ -10789,16 +10923,16 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
       <c r="K7" s="32"/>
       <c r="L7" s="43"/>
     </row>
@@ -10889,16 +11023,16 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="32"/>
       <c r="L12" s="43"/>
     </row>
@@ -10989,16 +11123,16 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="32"/>
       <c r="L17" s="43"/>
     </row>
@@ -11089,16 +11223,16 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
       <c r="K22" s="32"/>
       <c r="L22" s="43"/>
     </row>
@@ -11200,16 +11334,16 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="32"/>
       <c r="L27" s="43"/>
     </row>
@@ -11300,16 +11434,16 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
       <c r="K32" s="32"/>
       <c r="L32" s="43"/>
     </row>
@@ -11400,16 +11534,16 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
       <c r="K37" s="32"/>
       <c r="L37" s="43"/>
     </row>
@@ -11500,16 +11634,16 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
       <c r="K42" s="32"/>
       <c r="L42" s="43"/>
     </row>
@@ -11600,16 +11734,16 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
       <c r="K47" s="32"/>
       <c r="L47" s="43"/>
     </row>
@@ -11700,16 +11834,16 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="32"/>
-      <c r="C52" s="106" t="s">
+      <c r="C52" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
       <c r="K52" s="32"/>
       <c r="L52" s="43"/>
     </row>
@@ -11800,16 +11934,16 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
       <c r="K57" s="32"/>
       <c r="L57" s="43"/>
     </row>
@@ -11956,6 +12090,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C47:J47"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="C22:J22"/>
@@ -11963,11 +12102,6 @@
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C47:J47"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="42" priority="98" operator="equal">

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D1782-D0A2-492A-BC5D-B69EB4E5EDCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B53032-F351-4E6E-8CCC-731AB678EB37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -1034,9 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5473,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEFDB9-89D3-4BD7-BCAC-3A5ECC5CDE8F}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,12 +5530,12 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="83"/>
       <c r="G2" s="82"/>
       <c r="H2" s="81"/>
@@ -5757,12 +5757,12 @@
     </row>
     <row r="11" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
       <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6063,12 +6063,12 @@
     </row>
     <row r="23" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6286,12 +6286,12 @@
     </row>
     <row r="32" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
       <c r="F32" s="77"/>
       <c r="G32" s="76"/>
       <c r="H32" s="75"/>
@@ -6596,12 +6596,12 @@
     </row>
     <row r="44" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="73"/>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
       <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -6819,12 +6819,12 @@
     </row>
     <row r="53" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="73"/>
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
       <c r="H53" s="67"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -7125,12 +7125,12 @@
     </row>
     <row r="65" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="87"/>
-      <c r="B65" s="101" t="s">
+      <c r="B65" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
       <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -7467,12 +7467,12 @@
     </row>
     <row r="78" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="88"/>
-      <c r="B78" s="101" t="s">
+      <c r="B78" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="101"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
       <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -7809,11 +7809,11 @@
     </row>
     <row r="91" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
-      <c r="B91" s="100" t="s">
+      <c r="B91" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
       <c r="H91" s="92"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -8150,11 +8150,11 @@
     </row>
     <row r="104" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
-      <c r="B104" s="100" t="s">
+      <c r="B104" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="100"/>
-      <c r="D104" s="100"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
       <c r="H104" s="92"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -8491,11 +8491,11 @@
     </row>
     <row r="117" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
-      <c r="B117" s="100" t="s">
+      <c r="B117" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
       <c r="H117" s="92"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -8832,11 +8832,11 @@
     </row>
     <row r="130" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="90"/>
-      <c r="B130" s="100" t="s">
+      <c r="B130" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="100"/>
-      <c r="D130" s="100"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="108"/>
       <c r="H130" s="92"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -9173,6 +9173,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B2:E2"/>
@@ -9180,11 +9185,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B78:E78"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="488" priority="326" operator="equal">
@@ -10173,7 +10173,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="327" operator="equal" id="{A4F100E0-76E8-4EDA-8FFD-69F943F76290}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10186,7 +10186,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="323" operator="equal" id="{5F971825-5C7F-44F5-A21D-5865A32CFFBE}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10199,7 +10199,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="319" operator="equal" id="{FF074EE5-AB0B-48D9-93D7-8DAC135EACB3}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10212,7 +10212,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="315" operator="equal" id="{37D08A0E-8048-4F10-9AB4-7BDD15648540}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10225,7 +10225,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="311" operator="equal" id="{1BE73E69-9ED2-4663-9005-F02D5A6293E2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10238,7 +10238,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="307" operator="equal" id="{59A46334-09C4-431C-82A5-0290E95EE336}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10251,7 +10251,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="303" operator="equal" id="{3026C799-FCA2-49F1-A33F-45831A30A4DF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10264,7 +10264,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="299" operator="equal" id="{69319252-D511-408C-9176-FE53B27AC73C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10277,7 +10277,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="295" operator="equal" id="{46835BCE-02C9-4297-B804-53105A5397D0}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10290,7 +10290,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="291" operator="equal" id="{9E2C0507-0558-415C-8CB5-A84263CA143B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10303,7 +10303,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="287" operator="equal" id="{31B5A109-6B7D-4D12-82B9-C8416F1A238C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10316,7 +10316,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="283" operator="equal" id="{D53D3633-BC4E-4198-AD06-FF97CD61CE2F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10329,7 +10329,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="279" operator="equal" id="{45D122AD-935D-43ED-95BE-E52266E805B8}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10342,7 +10342,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="275" operator="equal" id="{F620F20C-4422-4C65-9B48-36E13AE2D032}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10355,7 +10355,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="271" operator="equal" id="{609737E0-5B6A-4761-AE1F-EF526564C62F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10368,7 +10368,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="267" operator="equal" id="{5868AC77-7B93-488D-AF19-F8BF2E3E83AF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10381,7 +10381,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="263" operator="equal" id="{7232B607-3353-4BF8-A759-649D1CDB45D2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10394,7 +10394,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="259" operator="equal" id="{E7A1EC25-EA4E-4EB3-8363-E775CA74ECB4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10407,7 +10407,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="255" operator="equal" id="{2A0F204F-07D5-48BC-A943-618A3127A448}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10420,7 +10420,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="251" operator="equal" id="{76F7DE05-529C-45D3-B71C-A29A30DB1A96}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10433,7 +10433,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="247" operator="equal" id="{F54CC0E3-38DA-46E5-8423-DFAA4077034B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10446,7 +10446,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="243" operator="equal" id="{36BE545E-CD64-4BDD-ACA5-CBB948B9C224}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10459,7 +10459,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="239" operator="equal" id="{D3DD25E2-3F0B-4D97-9FD0-58685DA6A74F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10472,7 +10472,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="235" operator="equal" id="{9A074044-3C81-4914-B18D-8FF7FD39341C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10485,7 +10485,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="231" operator="equal" id="{F92F77FE-2D6D-4DF0-AF26-8407FE85E5A9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10498,7 +10498,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="227" operator="equal" id="{26A0FC2C-A63A-462C-BE29-EAB1AC2C745B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10511,7 +10511,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="223" operator="equal" id="{74F3525B-BBB7-425A-AB83-94E6040A397C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10524,7 +10524,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="219" operator="equal" id="{E51966C2-F679-43E8-9618-605160B14F78}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10537,7 +10537,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="215" operator="equal" id="{9AE28CDC-D4CC-4FB3-B3C5-2740F517EA93}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10550,7 +10550,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="211" operator="equal" id="{EC2CB116-E516-4E39-8914-A95729CF6067}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10563,7 +10563,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="207" operator="equal" id="{3E9D2EB5-C836-41C8-9CA3-F4B23BC0C6F8}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10576,7 +10576,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="203" operator="equal" id="{E5983E01-B7F6-4ABB-892D-88DD26EAF05B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10589,7 +10589,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="199" operator="equal" id="{5BAC46C6-00F2-409D-BA55-D5B884E80315}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10602,7 +10602,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="195" operator="equal" id="{889394ED-AB8C-4C92-BB3C-E57530857209}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10615,7 +10615,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="183" operator="equal" id="{31FAD8B7-186F-406F-B8B2-5A63B04F58F3}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10628,7 +10628,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="179" operator="equal" id="{68D3AD32-F5C9-4DE5-91A8-2F11C329C7A8}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10641,7 +10641,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="175" operator="equal" id="{D9670A1C-AD2D-4DC0-B5D5-16DC43EF8F27}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10654,7 +10654,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="165" operator="equal" id="{E7DE1E19-D731-435C-BCA4-04A27443DC25}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10667,7 +10667,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="161" operator="equal" id="{A7808922-2E88-44C6-BBB5-94EBF69F0633}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10680,7 +10680,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="157" operator="equal" id="{4A3D78C9-2076-4404-A9BE-080C04B1B498}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10693,7 +10693,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="145" operator="equal" id="{E7615DBF-1D28-4E2C-9526-49DD30F817B1}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10706,7 +10706,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="141" operator="equal" id="{34A3D601-A31C-4BC8-AF1D-4721B9E4B81F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10719,7 +10719,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="137" operator="equal" id="{27D2A4F8-86D6-494B-83AD-D3D8D064794C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10732,7 +10732,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="129" operator="equal" id="{79B396ED-4986-4130-B398-0E2432DDB237}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10745,7 +10745,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="125" operator="equal" id="{4E4053A3-B45D-48C2-AF74-D6CE32738981}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10758,7 +10758,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="121" operator="equal" id="{D4172356-752C-408A-AC12-3B8E642106B2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10771,7 +10771,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="117" operator="equal" id="{BE7FE656-4922-47FF-9AD7-E87472333161}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10784,7 +10784,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="113" operator="equal" id="{4F4EAEA9-C80E-4FD0-B316-44185F3AD3DC}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10797,7 +10797,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="109" operator="equal" id="{CD0B0C53-C234-4165-A967-50BFA520FFCE}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10810,7 +10810,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="105" operator="equal" id="{FC2C39D9-96B7-4CD0-9664-E8D78AE4D51D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10823,7 +10823,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="101" operator="equal" id="{A05724BD-62EF-410B-9F8C-8CC7EFEC2F00}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10836,7 +10836,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="97" operator="equal" id="{4ABBF8A7-7B22-47A6-8AFD-2735E438A9BA}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10849,7 +10849,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="93" operator="equal" id="{8BFFEC7C-EC5B-4F60-96C1-06E3238236D5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10862,7 +10862,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="89" operator="equal" id="{15F07D0B-0552-4C34-BB77-655DB0D785B5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10875,7 +10875,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="85" operator="equal" id="{24EE800D-512F-4D13-BA82-E37B2D506889}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10888,7 +10888,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="81" operator="equal" id="{BFBA2C27-48B5-4D17-A4F0-0E3D3DA08D23}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10901,7 +10901,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="77" operator="equal" id="{CF5EDACB-8656-4FCC-91E3-4D57D231AA1C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10914,7 +10914,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="73" operator="equal" id="{6AB68FAD-A2A8-4D9C-9BF8-FEC3BDF64612}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10927,7 +10927,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="69" operator="equal" id="{B694071B-A5BF-4DCD-8FB5-2397DD936A36}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10940,7 +10940,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="65" operator="equal" id="{30DBDBAE-153A-4289-AF94-CBDD213ACA53}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10953,7 +10953,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="61" operator="equal" id="{10A13F02-6980-481B-B43D-AAE4F0629AF9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10966,7 +10966,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="57" operator="equal" id="{E50B57B7-FC1C-4631-A62E-9E46FC53DB28}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10979,7 +10979,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="53" operator="equal" id="{88D63FF0-D6BD-424D-8178-CE2C3CD14108}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -10992,7 +10992,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="49" operator="equal" id="{9E3C5D00-5DEB-40B0-9D33-B2BCC3A5295D}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11005,7 +11005,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="45" operator="equal" id="{F0E6DF9A-AD2A-4ECB-921C-DBC9E16282B6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11018,7 +11018,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="41" operator="equal" id="{BA6A10C1-D9FD-4589-8C5A-826BA663E2E2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11031,7 +11031,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="37" operator="equal" id="{015B3BD8-BBD8-46E7-9F0D-67447F7EEBCF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11044,7 +11044,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="33" operator="equal" id="{5C5EAD5D-8C0D-48FF-946F-1968FF4915F5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11057,7 +11057,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{A518F064-D5AD-488C-90BC-7EFB800108B9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11070,7 +11070,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{74B6FF51-D5CD-4F64-AC0D-E6DABCAD4A48}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11083,7 +11083,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{4C9AA717-3735-4BCB-BB16-64F19ABEF634}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11096,7 +11096,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{DC3196B3-C57C-44A3-9285-EBD21B47F67F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11109,7 +11109,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="equal" id="{32F055D6-6CB1-4DEB-9FEC-9D6B3B823114}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11122,7 +11122,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{863A36CA-CCBF-463B-99F1-39C4F619F4ED}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11135,7 +11135,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{997F35A6-BACF-46B9-AC5C-1661B8428D7A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -11148,7 +11148,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{D8B1E21A-32FA-47CD-BD7D-839E950427A6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12691,7 +12691,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="173" operator="equal" id="{EEAA23C4-A9AE-401B-9D38-0E38CEE132AA}">
-            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12740,7 +12740,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="169" operator="equal" id="{01A9C67B-9FDD-4EBD-988B-D0978657B971}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12789,7 +12789,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="165" operator="equal" id="{CE24894A-92F9-4D3E-9FEA-B38378732FA2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12838,7 +12838,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="161" operator="equal" id="{73FE1734-4E8B-4FAA-B68D-C142415C4BDE}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12887,7 +12887,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="157" operator="equal" id="{CB7153C9-BC9A-4CBC-B404-C23AE6C04529}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12936,7 +12936,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="152" operator="equal" id="{26FF7A47-A629-45D1-BE2E-3713D7D65B32}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12985,7 +12985,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="148" operator="equal" id="{D1B15CEA-0279-472E-91D5-563F7B8C38F4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13034,7 +13034,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="143" operator="equal" id="{447949D9-49A5-4D4B-9BC1-E7ABF4AEE63C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13083,7 +13083,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="139" operator="equal" id="{12A18DC5-41D5-4787-98C4-6DF2299A9AB2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13132,7 +13132,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="134" operator="equal" id="{FE260179-5890-4517-8750-DFB7771E8424}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13181,7 +13181,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="130" operator="equal" id="{8D1DEFAC-BCA7-40B4-B369-209C9D38A0EF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13230,7 +13230,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="125" operator="equal" id="{F30DED35-52A7-4384-BE37-671368C6136B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13279,7 +13279,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="121" operator="equal" id="{4B889E03-B56B-4CEF-A5CA-511DD1D1D6CB}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13292,7 +13292,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="117" operator="equal" id="{584172E7-570E-42F1-A9E6-35638CF4D854}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13305,7 +13305,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="113" operator="equal" id="{4904B721-86C8-4A7D-AE0C-669A245EBEBA}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13318,7 +13318,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="109" operator="equal" id="{7F538AEB-78E1-4C23-A483-CF0533795434}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13331,7 +13331,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="105" operator="equal" id="{C6A5BD92-B256-4ACA-8386-131AC3D0C97F}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13344,7 +13344,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="101" operator="equal" id="{B8F3369D-8ECB-4BCA-8465-D66B4B47388B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13357,7 +13357,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="97" operator="equal" id="{87C75FA3-9BDB-4A75-87DC-90AF3CFB8BEF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13370,7 +13370,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="93" operator="equal" id="{E51FBA16-06E7-461C-AF37-4483530707B3}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13383,7 +13383,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="89" operator="equal" id="{A9B243B1-1F0D-4EAE-B770-6C7330329EAC}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13396,7 +13396,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="85" operator="equal" id="{44BAC1BB-2BB8-4561-8E8B-EDF8951C749A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13409,7 +13409,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="81" operator="equal" id="{2DBEBB47-331E-436A-A919-29D6F95FF704}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13422,7 +13422,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="77" operator="equal" id="{B97D71D7-DEAE-449A-9987-39B9C73FED05}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13435,7 +13435,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="73" operator="equal" id="{8DDE8102-6EC7-400B-A082-6D68CE7B297C}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13448,7 +13448,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="45" operator="equal" id="{599E6FDB-7E28-4B0E-9418-9DD3A9CFF628}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13461,7 +13461,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="41" operator="equal" id="{56D661F0-6420-472B-AA5A-55B077D7E6AB}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13474,7 +13474,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="37" operator="equal" id="{78D9BA23-DABE-4256-B6B8-B27365723167}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13487,7 +13487,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="33" operator="equal" id="{0098A795-1255-429B-BEE1-5505CEAA1A7E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13500,7 +13500,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{012D02CB-5E79-49C3-BBF7-4260652EC4EE}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13513,7 +13513,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{33A5BC2F-36A0-4860-8C99-00D62FAC067E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13526,7 +13526,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{12F26A95-5D83-4CD0-8972-1594F910E171}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13539,7 +13539,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{54A7FC52-B1AB-4AB0-AC2A-5D920741D791}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13552,7 +13552,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="equal" id="{095B2425-D6E1-4B27-9687-085B5951CEE5}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13565,7 +13565,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{17E3381E-388F-4FD0-B8D5-F6B10560C9CA}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13578,7 +13578,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{24BE1B21-4DF1-4578-A7F3-5F8265F98799}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13591,7 +13591,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{43AA4A6D-702F-4087-8EED-3A59B678F337}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13612,8 +13612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE87BF7-3C91-45AC-BD7A-97ED35B7B19B}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E115" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14949,6 +14949,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C47:J47"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="C22:J22"/>
@@ -14956,11 +14961,6 @@
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C47:J47"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="42" priority="98" operator="equal">
@@ -15065,7 +15065,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="95" operator="equal" id="{8E2C6DA8-A3C1-45B3-9794-468ADF79D851}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15078,7 +15078,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="79" operator="equal" id="{4F16A991-16DF-4053-AE09-0ED47F6677AE}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15091,7 +15091,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="75" operator="equal" id="{63E7DCA0-0E2A-45A7-9F8B-FA25967D4489}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15104,7 +15104,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="67" operator="equal" id="{61D4B09B-99F3-4441-A57A-09EB2E5050D6}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15117,7 +15117,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="63" operator="equal" id="{5A87A78C-98C5-4648-96B9-D8362A21BB1C}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15130,7 +15130,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D445A881-F14F-4665-B194-0492BDB35660}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15143,7 +15143,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{52693A3B-C30A-40CA-8FA3-31B59C758844}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15156,7 +15156,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{0ED090FE-BD98-4A40-97FB-4A0C6E3F8DDE}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15169,7 +15169,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="17" operator="equal" id="{143D570C-57FB-452E-94BA-285ABFA4390A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15182,7 +15182,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="16" operator="equal" id="{C532688D-36F9-48BB-857D-C44D18D3BD57}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15195,7 +15195,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="15" operator="equal" id="{950F4A56-3853-4B41-AA6E-1549B3E511D7}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15208,7 +15208,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{9A42562F-60DB-4655-9F7D-78B7E281B809}">
-            <xm:f>'\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15221,7 +15221,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{623E8DD3-6C40-40E7-A895-BB7C52523637}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15234,7 +15234,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1D5F748A-AAEB-470F-8C81-AD41E63F4163}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15247,7 +15247,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{9FF493EF-03F6-45E7-B4F9-C4C7351FF103}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15260,7 +15260,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{90312379-85DB-4EB4-AFE0-B2A5E75CA7BA}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15273,7 +15273,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CB109C39-9CAE-45D4-B40E-B23B3C520A65}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15286,7 +15286,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{FB218164-422C-4DBD-AB22-DBA16F342B6E}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15299,7 +15299,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{CB54755F-52DA-495B-A1E9-50133557D6CD}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15312,7 +15312,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{1A5B2B88-19B8-4A30-8D97-5F67DC9EC1BD}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15325,7 +15325,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{91D2F340-5B63-459B-9E10-A732C28F532A}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15338,7 +15338,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{B1D34037-1807-4DD3-BDD6-77923E284CF8}">
-            <xm:f>'\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="213">
   <si>
     <t>TC_ID</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>RevisionTrigger</t>
-  </si>
-  <si>
-    <t>sample101,sample102</t>
   </si>
   <si>
     <t>#COMMON</t>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>AddRevision</t>
+  </si>
+  <si>
+    <t>$revision,0,$revisionNumber</t>
   </si>
 </sst>
 </file>
@@ -1442,19 +1442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1464,8 +1455,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4494,8 +4494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4598,7 +4598,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>27</v>
@@ -4607,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
@@ -4615,19 +4615,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>27</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>26</v>
@@ -4638,19 +4641,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4658,19 +4664,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4681,16 +4690,19 @@
         <v>6530957</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4701,16 +4713,16 @@
         <v>6530958</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4718,22 +4730,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4741,19 +4753,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4764,16 +4776,16 @@
         <v>6551796</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4784,16 +4796,16 @@
         <v>6551803</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="87" customFormat="1">
@@ -4801,22 +4813,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>212</v>
-      </c>
       <c r="F13" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4857,7 +4869,7 @@
         <v>6555587</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>27</v>
@@ -4874,7 +4886,7 @@
         <v>6555588</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>27</v>
@@ -4891,13 +4903,13 @@
         <v>6530927</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -4908,13 +4920,13 @@
         <v>6530966</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -4925,13 +4937,13 @@
         <v>6530960</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
@@ -4942,13 +4954,13 @@
         <v>6530959</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
@@ -4956,16 +4968,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
@@ -4976,13 +4988,13 @@
         <v>6558241</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
@@ -4993,13 +5005,13 @@
         <v>6558243</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -5010,13 +5022,13 @@
         <v>6558245</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
@@ -5026,7 +5038,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="18"/>
@@ -5060,7 +5072,7 @@
         <v>6555589</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>27</v>
@@ -5077,7 +5089,7 @@
         <v>6555590</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>27</v>
@@ -5091,16 +5103,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
       <c r="E32" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
@@ -5128,16 +5140,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
@@ -5165,16 +5177,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
         <v>108</v>
       </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
       <c r="E34" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
@@ -5202,16 +5214,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
@@ -5242,13 +5254,13 @@
         <v>6541329</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
@@ -5259,13 +5271,13 @@
         <v>6558247</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
@@ -5276,13 +5288,13 @@
         <v>6558248</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
@@ -5293,13 +5305,13 @@
         <v>6558250</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
@@ -6343,12 +6355,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="124" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="131"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="22"/>
       <c r="G2" s="27"/>
       <c r="H2" s="12"/>
@@ -6373,7 +6385,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19"/>
@@ -6381,7 +6393,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="21"/>
@@ -6390,20 +6402,20 @@
         <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="19"/>
       <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="21"/>
@@ -6412,25 +6424,25 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -6438,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="45"/>
       <c r="L5" s="45">
@@ -6461,30 +6473,30 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="45"/>
       <c r="L6" s="45">
@@ -6507,32 +6519,32 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8">
         <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -6540,32 +6552,32 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>19</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="E8" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -6573,15 +6585,15 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="21"/>
@@ -6590,20 +6602,20 @@
         <v>26</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="19"/>
       <c r="D10" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
@@ -6612,17 +6624,17 @@
         <v>26</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="13"/>
-      <c r="B11" s="132" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="B11" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
@@ -6653,26 +6665,26 @@
         <v>2</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="G12" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -6684,26 +6696,26 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="G13" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6712,26 +6724,26 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="49" t="s">
+      <c r="G14" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -6742,13 +6754,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="9"/>
@@ -6757,7 +6769,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6773,7 +6785,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="21"/>
@@ -6782,7 +6794,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -6792,10 +6804,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="19"/>
       <c r="D17" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="21"/>
@@ -6804,7 +6816,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6813,16 +6825,16 @@
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="F18" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -6830,7 +6842,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="45">
@@ -6857,26 +6869,26 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="45"/>
       <c r="L19" s="45">
@@ -6905,26 +6917,26 @@
         <v>21</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E20" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -6937,10 +6949,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
@@ -6949,7 +6961,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
@@ -6959,10 +6971,10 @@
       <c r="B22" s="2"/>
       <c r="C22" s="19"/>
       <c r="D22" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
@@ -6971,17 +6983,17 @@
         <v>26</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
+      <c r="B23" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -7006,7 +7018,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="19"/>
@@ -7014,7 +7026,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
@@ -7023,20 +7035,20 @@
         <v>26</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="19"/>
       <c r="D25" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
@@ -7045,25 +7057,25 @@
         <v>26</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
@@ -7071,7 +7083,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" s="45"/>
       <c r="L26" s="45">
@@ -7094,30 +7106,30 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" s="45"/>
       <c r="L27" s="45">
@@ -7140,32 +7152,32 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="8">
         <v>21</v>
       </c>
       <c r="C28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -7173,32 +7185,32 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2">
         <v>19</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="E29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -7206,15 +7218,15 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="19"/>
       <c r="D30" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
@@ -7223,20 +7235,20 @@
         <v>26</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
       <c r="D31" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
@@ -7245,17 +7257,17 @@
         <v>26</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="136" t="s">
-        <v>135</v>
+      <c r="B32" s="133" t="s">
+        <v>134</v>
       </c>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
+      <c r="E32" s="134"/>
       <c r="F32" s="55"/>
       <c r="G32" s="56"/>
       <c r="H32" s="29"/>
@@ -7286,26 +7298,26 @@
         <v>2</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="G33" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -7317,26 +7329,26 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="E34" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="G34" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
@@ -7345,26 +7357,26 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="E35" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="49" t="s">
+      <c r="G35" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H35" s="35"/>
       <c r="I35" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
@@ -7375,13 +7387,13 @@
         <v>13</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="9"/>
@@ -7390,7 +7402,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -7406,7 +7418,7 @@
         <v>23</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="21"/>
@@ -7415,7 +7427,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
@@ -7425,10 +7437,10 @@
       <c r="B38" s="2"/>
       <c r="C38" s="19"/>
       <c r="D38" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21"/>
@@ -7437,7 +7449,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
@@ -7446,16 +7458,16 @@
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="F39" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
@@ -7463,7 +7475,7 @@
         <v>26</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K39" s="45"/>
       <c r="L39" s="45">
@@ -7490,26 +7502,26 @@
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="F40" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40" s="45"/>
       <c r="L40" s="45">
@@ -7538,26 +7550,26 @@
         <v>21</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E41" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -7570,10 +7582,10 @@
       <c r="B42" s="2"/>
       <c r="C42" s="19"/>
       <c r="D42" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="21"/>
@@ -7582,7 +7594,7 @@
         <v>26</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
@@ -7592,10 +7604,10 @@
       <c r="B43" s="2"/>
       <c r="C43" s="19"/>
       <c r="D43" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="21"/>
@@ -7604,17 +7616,17 @@
         <v>26</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
+      <c r="B44" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="132"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
@@ -7639,7 +7651,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="19"/>
@@ -7647,7 +7659,7 @@
         <v>23</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="21"/>
@@ -7656,20 +7668,20 @@
         <v>26</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="19"/>
       <c r="D46" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="21"/>
@@ -7678,25 +7690,25 @@
         <v>26</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="F47" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -7704,7 +7716,7 @@
         <v>26</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K47" s="45"/>
       <c r="L47" s="45">
@@ -7727,30 +7739,30 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="F48" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" s="45"/>
       <c r="L48" s="45">
@@ -7773,32 +7785,32 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="8">
         <v>21</v>
       </c>
       <c r="C49" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E49" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -7806,22 +7818,22 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2">
         <v>19</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="E50" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -7831,7 +7843,7 @@
         <v>26</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -7839,15 +7851,15 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="19"/>
       <c r="D51" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="21"/>
@@ -7856,20 +7868,20 @@
         <v>26</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="19"/>
       <c r="D52" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="21"/>
@@ -7878,17 +7890,17 @@
         <v>26</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="129"/>
+      <c r="B53" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -7919,26 +7931,26 @@
         <v>1</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="G54" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -7950,26 +7962,26 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="E55" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="F55" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="G55" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
@@ -7978,26 +7990,26 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="E56" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="49" t="s">
+      <c r="G56" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
@@ -8008,13 +8020,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="9"/>
@@ -8023,7 +8035,7 @@
         <v>26</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8039,7 +8051,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="21"/>
@@ -8048,7 +8060,7 @@
         <v>26</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
@@ -8058,10 +8070,10 @@
       <c r="B59" s="2"/>
       <c r="C59" s="19"/>
       <c r="D59" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="21"/>
@@ -8070,7 +8082,7 @@
         <v>26</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
@@ -8079,16 +8091,16 @@
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
@@ -8096,7 +8108,7 @@
         <v>26</v>
       </c>
       <c r="J60" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K60" s="45"/>
       <c r="L60" s="45">
@@ -8123,26 +8135,26 @@
       </c>
       <c r="B61" s="34"/>
       <c r="C61" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="F61" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J61" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K61" s="45"/>
       <c r="L61" s="45">
@@ -8171,26 +8183,26 @@
         <v>21</v>
       </c>
       <c r="C62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E62" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -8203,10 +8215,10 @@
       <c r="B63" s="2"/>
       <c r="C63" s="19"/>
       <c r="D63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="21"/>
@@ -8215,7 +8227,7 @@
         <v>26</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
@@ -8225,10 +8237,10 @@
       <c r="B64" s="2"/>
       <c r="C64" s="19"/>
       <c r="D64" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="21"/>
@@ -8237,17 +8249,17 @@
         <v>26</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="129"/>
+      <c r="B65" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="132"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -8278,26 +8290,26 @@
         <v>1</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="G66" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -8311,26 +8323,26 @@
         <v>2</v>
       </c>
       <c r="C67" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="E67" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="F67" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="G67" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
@@ -8341,26 +8353,26 @@
         <v>3</v>
       </c>
       <c r="C68" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="E68" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="49" t="s">
+      <c r="G68" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
@@ -8371,13 +8383,13 @@
         <v>4</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="9"/>
@@ -8386,7 +8398,7 @@
         <v>26</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -8404,7 +8416,7 @@
         <v>23</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="21"/>
@@ -8413,7 +8425,7 @@
         <v>26</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
@@ -8425,10 +8437,10 @@
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="21"/>
@@ -8437,7 +8449,7 @@
         <v>26</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
@@ -8449,10 +8461,10 @@
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="21"/>
@@ -8461,7 +8473,7 @@
         <v>26</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
@@ -8470,16 +8482,16 @@
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="F73" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -8487,7 +8499,7 @@
         <v>26</v>
       </c>
       <c r="J73" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K73" s="45"/>
       <c r="L73" s="45">
@@ -8514,26 +8526,26 @@
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="F74" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H74" s="34"/>
       <c r="I74" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K74" s="45"/>
       <c r="L74" s="45">
@@ -8562,26 +8574,26 @@
         <v>21</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E75" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H75" s="35"/>
       <c r="I75" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -8596,10 +8608,10 @@
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="21"/>
@@ -8608,7 +8620,7 @@
         <v>26</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
@@ -8620,10 +8632,10 @@
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="21"/>
@@ -8632,17 +8644,17 @@
         <v>26</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="129"/>
+      <c r="B78" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="131"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="132"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
@@ -8673,26 +8685,26 @@
         <v>1</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="F79" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="52" t="s">
+      <c r="G79" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -8706,26 +8718,26 @@
         <v>2</v>
       </c>
       <c r="C80" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="E80" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="F80" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="G80" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
@@ -8736,26 +8748,26 @@
         <v>3</v>
       </c>
       <c r="C81" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="E81" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="49" t="s">
+      <c r="G81" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
@@ -8766,13 +8778,13 @@
         <v>4</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="9"/>
@@ -8781,7 +8793,7 @@
         <v>26</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -8799,7 +8811,7 @@
         <v>23</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="21"/>
@@ -8808,7 +8820,7 @@
         <v>26</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
@@ -8820,10 +8832,10 @@
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="21"/>
@@ -8832,7 +8844,7 @@
         <v>26</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
@@ -8844,10 +8856,10 @@
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="21"/>
@@ -8856,7 +8868,7 @@
         <v>26</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
@@ -8865,16 +8877,16 @@
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="F86" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
@@ -8882,7 +8894,7 @@
         <v>26</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K86" s="45"/>
       <c r="L86" s="45">
@@ -8909,26 +8921,26 @@
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="F87" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K87" s="45"/>
       <c r="L87" s="45">
@@ -8957,26 +8969,26 @@
         <v>21</v>
       </c>
       <c r="C88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E88" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H88" s="35"/>
       <c r="I88" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -8991,10 +9003,10 @@
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="21"/>
@@ -9003,7 +9015,7 @@
         <v>26</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
@@ -9015,10 +9027,10 @@
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="21"/>
@@ -9027,16 +9039,16 @@
         <v>26</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="71"/>
-      <c r="B91" s="124" t="s">
-        <v>154</v>
+      <c r="B91" s="135" t="s">
+        <v>153</v>
       </c>
       <c r="C91" s="125"/>
-      <c r="D91" s="126"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="72"/>
       <c r="F91" s="72"/>
       <c r="G91" s="72"/>
@@ -9068,26 +9080,26 @@
         <v>1</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="F92" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="G92" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -9101,26 +9113,26 @@
         <v>2</v>
       </c>
       <c r="C93" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="E93" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="F93" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F93" s="49" t="s">
+      <c r="G93" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
@@ -9131,26 +9143,26 @@
         <v>3</v>
       </c>
       <c r="C94" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="E94" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="49" t="s">
+      <c r="G94" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H94" s="35"/>
       <c r="I94" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
@@ -9161,13 +9173,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F95" s="30"/>
       <c r="G95" s="9"/>
@@ -9176,7 +9188,7 @@
         <v>26</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -9194,7 +9206,7 @@
         <v>23</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="21"/>
@@ -9203,7 +9215,7 @@
         <v>26</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
@@ -9215,10 +9227,10 @@
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="21"/>
@@ -9227,7 +9239,7 @@
         <v>26</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
@@ -9239,10 +9251,10 @@
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="21"/>
@@ -9251,7 +9263,7 @@
         <v>26</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
@@ -9260,16 +9272,16 @@
       </c>
       <c r="B99" s="34"/>
       <c r="C99" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="F99" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
@@ -9277,7 +9289,7 @@
         <v>26</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K99" s="45"/>
       <c r="L99" s="45">
@@ -9304,26 +9316,26 @@
       </c>
       <c r="B100" s="34"/>
       <c r="C100" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="F100" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F100" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H100" s="34"/>
       <c r="I100" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J100" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K100" s="45"/>
       <c r="L100" s="45">
@@ -9352,26 +9364,26 @@
         <v>21</v>
       </c>
       <c r="C101" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E101" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H101" s="35"/>
       <c r="I101" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -9386,10 +9398,10 @@
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="21"/>
@@ -9398,7 +9410,7 @@
         <v>26</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
@@ -9410,10 +9422,10 @@
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="21"/>
@@ -9422,16 +9434,16 @@
         <v>26</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="71"/>
-      <c r="B104" s="124" t="s">
-        <v>156</v>
+      <c r="B104" s="135" t="s">
+        <v>155</v>
       </c>
       <c r="C104" s="125"/>
-      <c r="D104" s="126"/>
+      <c r="D104" s="134"/>
       <c r="E104" s="72"/>
       <c r="F104" s="72"/>
       <c r="G104" s="72"/>
@@ -9463,26 +9475,26 @@
         <v>1</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="F105" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F105" s="52" t="s">
+      <c r="G105" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -9496,26 +9508,26 @@
         <v>2</v>
       </c>
       <c r="C106" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D106" s="46" t="s">
+      <c r="E106" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="F106" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="G106" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H106" s="35"/>
       <c r="I106" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
@@ -9526,26 +9538,26 @@
         <v>3</v>
       </c>
       <c r="C107" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="E107" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="49" t="s">
+      <c r="G107" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H107" s="35"/>
       <c r="I107" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
@@ -9556,13 +9568,13 @@
         <v>4</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="9"/>
@@ -9571,7 +9583,7 @@
         <v>26</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -9589,7 +9601,7 @@
         <v>23</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="21"/>
@@ -9598,7 +9610,7 @@
         <v>26</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
@@ -9610,10 +9622,10 @@
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="21"/>
@@ -9622,7 +9634,7 @@
         <v>26</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
@@ -9634,10 +9646,10 @@
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="21"/>
@@ -9646,7 +9658,7 @@
         <v>26</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
@@ -9655,16 +9667,16 @@
       </c>
       <c r="B112" s="34"/>
       <c r="C112" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D112" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="F112" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="34"/>
@@ -9672,7 +9684,7 @@
         <v>26</v>
       </c>
       <c r="J112" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K112" s="45"/>
       <c r="L112" s="45">
@@ -9699,26 +9711,26 @@
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D113" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="F113" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F113" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G113" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H113" s="34"/>
       <c r="I113" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J113" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K113" s="45"/>
       <c r="L113" s="45">
@@ -9747,26 +9759,26 @@
         <v>21</v>
       </c>
       <c r="C114" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D114" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E114" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F114" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H114" s="35"/>
       <c r="I114" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -9781,10 +9793,10 @@
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="21"/>
@@ -9793,7 +9805,7 @@
         <v>26</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
@@ -9805,10 +9817,10 @@
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="21"/>
@@ -9817,16 +9829,16 @@
         <v>26</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="71"/>
-      <c r="B117" s="124" t="s">
-        <v>157</v>
+      <c r="B117" s="135" t="s">
+        <v>156</v>
       </c>
       <c r="C117" s="125"/>
-      <c r="D117" s="126"/>
+      <c r="D117" s="134"/>
       <c r="E117" s="72"/>
       <c r="F117" s="72"/>
       <c r="G117" s="72"/>
@@ -9858,26 +9870,26 @@
         <v>1</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="F118" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F118" s="52" t="s">
+      <c r="G118" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G118" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H118" s="26"/>
       <c r="I118" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -9891,26 +9903,26 @@
         <v>2</v>
       </c>
       <c r="C119" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="46" t="s">
+      <c r="E119" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="F119" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="G119" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H119" s="35"/>
       <c r="I119" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
@@ -9921,26 +9933,26 @@
         <v>3</v>
       </c>
       <c r="C120" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="46" t="s">
+      <c r="E120" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F120" s="49" t="s">
+      <c r="G120" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H120" s="35"/>
       <c r="I120" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
@@ -9951,13 +9963,13 @@
         <v>4</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="30"/>
       <c r="G121" s="9"/>
@@ -9966,7 +9978,7 @@
         <v>26</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -9984,7 +9996,7 @@
         <v>23</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="21"/>
@@ -9993,7 +10005,7 @@
         <v>26</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
@@ -10005,10 +10017,10 @@
       </c>
       <c r="C123" s="19"/>
       <c r="D123" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F123" s="19"/>
       <c r="G123" s="21"/>
@@ -10017,7 +10029,7 @@
         <v>26</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
@@ -10029,10 +10041,10 @@
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="21"/>
@@ -10041,7 +10053,7 @@
         <v>26</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
@@ -10050,16 +10062,16 @@
       </c>
       <c r="B125" s="34"/>
       <c r="C125" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E125" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E125" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="F125" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G125" s="34"/>
       <c r="H125" s="34"/>
@@ -10067,7 +10079,7 @@
         <v>26</v>
       </c>
       <c r="J125" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K125" s="45"/>
       <c r="L125" s="45">
@@ -10094,26 +10106,26 @@
       </c>
       <c r="B126" s="34"/>
       <c r="C126" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D126" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E126" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="F126" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G126" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F126" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H126" s="34"/>
       <c r="I126" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J126" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K126" s="45"/>
       <c r="L126" s="45">
@@ -10142,26 +10154,26 @@
         <v>21</v>
       </c>
       <c r="C127" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E127" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F127" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H127" s="35"/>
       <c r="I127" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -10176,10 +10188,10 @@
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="21"/>
@@ -10188,7 +10200,7 @@
         <v>26</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
@@ -10200,10 +10212,10 @@
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="21"/>
@@ -10212,16 +10224,16 @@
         <v>26</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="71"/>
-      <c r="B130" s="124" t="s">
-        <v>158</v>
+      <c r="B130" s="135" t="s">
+        <v>157</v>
       </c>
       <c r="C130" s="125"/>
-      <c r="D130" s="126"/>
+      <c r="D130" s="134"/>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
       <c r="G130" s="72"/>
@@ -10253,26 +10265,26 @@
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D131" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="F131" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="52" t="s">
+      <c r="G131" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G131" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -10286,26 +10298,26 @@
         <v>2</v>
       </c>
       <c r="C132" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="E132" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="F132" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F132" s="49" t="s">
+      <c r="G132" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H132" s="35"/>
       <c r="I132" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
@@ -10316,26 +10328,26 @@
         <v>3</v>
       </c>
       <c r="C133" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="46" t="s">
+      <c r="E133" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F133" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E133" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F133" s="49" t="s">
+      <c r="G133" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
@@ -10346,13 +10358,13 @@
         <v>4</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="9"/>
@@ -10361,7 +10373,7 @@
         <v>26</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -10379,7 +10391,7 @@
         <v>23</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F135" s="19"/>
       <c r="G135" s="21"/>
@@ -10388,7 +10400,7 @@
         <v>26</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
@@ -10400,10 +10412,10 @@
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F136" s="19"/>
       <c r="G136" s="21"/>
@@ -10412,7 +10424,7 @@
         <v>26</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
@@ -10424,10 +10436,10 @@
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F137" s="19"/>
       <c r="G137" s="21"/>
@@ -10436,7 +10448,7 @@
         <v>26</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
@@ -10445,16 +10457,16 @@
       </c>
       <c r="B138" s="34"/>
       <c r="C138" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D138" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E138" s="34" t="s">
+      <c r="F138" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="F138" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="34"/>
@@ -10462,7 +10474,7 @@
         <v>26</v>
       </c>
       <c r="J138" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K138" s="45"/>
       <c r="L138" s="45">
@@ -10489,26 +10501,26 @@
       </c>
       <c r="B139" s="34"/>
       <c r="C139" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D139" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="F139" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="F139" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="H139" s="34"/>
       <c r="I139" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J139" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K139" s="45"/>
       <c r="L139" s="45">
@@ -10537,26 +10549,26 @@
         <v>21</v>
       </c>
       <c r="C140" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E140" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H140" s="35"/>
       <c r="I140" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -10571,10 +10583,10 @@
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141" s="19"/>
       <c r="G141" s="21"/>
@@ -10583,7 +10595,7 @@
         <v>26</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
@@ -10595,10 +10607,10 @@
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F142" s="19"/>
       <c r="G142" s="21"/>
@@ -10607,7 +10619,7 @@
         <v>26</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
@@ -14044,11 +14056,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -14056,6 +14063,11 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="340" priority="1" operator="equal">
@@ -15306,7 +15318,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="21"/>
@@ -15315,7 +15327,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -15330,10 +15342,10 @@
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="21"/>
@@ -15342,7 +15354,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -15356,26 +15368,26 @@
         <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -15389,26 +15401,26 @@
         <v>11</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -15422,26 +15434,26 @@
         <v>12</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -15455,13 +15467,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="9"/>
@@ -15470,7 +15482,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -15483,7 +15495,7 @@
     <row r="10" spans="1:26">
       <c r="A10" s="13"/>
       <c r="B10" s="137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="138"/>
       <c r="D10" s="139"/>
@@ -15512,7 +15524,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -15522,7 +15534,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="21"/>
@@ -15531,7 +15543,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -15539,17 +15551,17 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="21"/>
@@ -15558,7 +15570,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -15566,32 +15578,32 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -15599,32 +15611,32 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -15632,32 +15644,32 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -15665,19 +15677,19 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="9"/>
@@ -15686,7 +15698,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -15699,7 +15711,7 @@
     <row r="18" spans="1:26">
       <c r="A18" s="13"/>
       <c r="B18" s="137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="138"/>
       <c r="D18" s="139"/>
@@ -15738,7 +15750,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21"/>
@@ -15747,7 +15759,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -15762,10 +15774,10 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
@@ -15774,7 +15786,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -15788,26 +15800,26 @@
         <v>8</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="G21" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -15821,26 +15833,26 @@
         <v>11</v>
       </c>
       <c r="C22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -15854,26 +15866,26 @@
         <v>12</v>
       </c>
       <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -15887,13 +15899,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="9"/>
@@ -15902,7 +15914,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -15915,7 +15927,7 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="139"/>
@@ -15954,7 +15966,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
@@ -15963,7 +15975,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -15978,10 +15990,10 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="21"/>
@@ -15990,7 +16002,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -16004,26 +16016,26 @@
         <v>8</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="G29" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -16037,26 +16049,26 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -16070,26 +16082,26 @@
         <v>12</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -16103,13 +16115,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="9"/>
@@ -16118,7 +16130,7 @@
         <v>26</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -16131,7 +16143,7 @@
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="138"/>
       <c r="D34" s="139"/>
@@ -16170,7 +16182,7 @@
         <v>23</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="21"/>
@@ -16179,7 +16191,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
@@ -16191,10 +16203,10 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="21"/>
@@ -16203,7 +16215,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
@@ -16214,26 +16226,26 @@
         <v>8</v>
       </c>
       <c r="C37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="E37" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -16247,26 +16259,26 @@
         <v>11</v>
       </c>
       <c r="C38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -16280,26 +16292,26 @@
         <v>12</v>
       </c>
       <c r="C39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -16313,13 +16325,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="9"/>
@@ -16328,7 +16340,7 @@
         <v>26</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -16341,7 +16353,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="138"/>
       <c r="D42" s="139"/>
@@ -16380,7 +16392,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="21"/>
@@ -16389,7 +16401,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
@@ -16401,10 +16413,10 @@
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="21"/>
@@ -16413,7 +16425,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
@@ -16424,26 +16436,26 @@
         <v>8</v>
       </c>
       <c r="C45" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="E45" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -16457,26 +16469,26 @@
         <v>11</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -16490,26 +16502,26 @@
         <v>12</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -16523,13 +16535,13 @@
         <v>13</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="9"/>
@@ -16538,7 +16550,7 @@
         <v>26</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -20807,7 +20819,7 @@
       <c r="A2" s="60"/>
       <c r="B2" s="61"/>
       <c r="C2" s="140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -20815,7 +20827,7 @@
       <c r="G2" s="125"/>
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
-      <c r="J2" s="131"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="61"/>
       <c r="L2" s="62"/>
       <c r="M2" s="63"/>
@@ -20841,13 +20853,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="65"/>
@@ -20856,7 +20868,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="63"/>
       <c r="L3" s="59"/>
@@ -20881,16 +20893,16 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="1"/>
@@ -20925,13 +20937,13 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -20940,7 +20952,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -20991,7 +21003,7 @@
       <c r="A7" s="60"/>
       <c r="B7" s="61"/>
       <c r="C7" s="140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="125"/>
@@ -20999,7 +21011,7 @@
       <c r="G7" s="125"/>
       <c r="H7" s="125"/>
       <c r="I7" s="125"/>
-      <c r="J7" s="131"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="61"/>
       <c r="L7" s="62"/>
       <c r="M7" s="63"/>
@@ -21025,13 +21037,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="65"/>
@@ -21040,7 +21052,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="59"/>
@@ -21065,16 +21077,16 @@
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="E9" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G9" s="67"/>
       <c r="H9" s="1"/>
@@ -21109,13 +21121,13 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -21124,7 +21136,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -21175,7 +21187,7 @@
       <c r="A12" s="60"/>
       <c r="B12" s="61"/>
       <c r="C12" s="140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
@@ -21183,7 +21195,7 @@
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
       <c r="I12" s="125"/>
-      <c r="J12" s="131"/>
+      <c r="J12" s="126"/>
       <c r="K12" s="61"/>
       <c r="L12" s="62"/>
       <c r="M12" s="63"/>
@@ -21209,13 +21221,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="65"/>
@@ -21224,7 +21236,7 @@
         <v>26</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="63"/>
       <c r="L13" s="59"/>
@@ -21249,16 +21261,16 @@
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="E14" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G14" s="67"/>
       <c r="H14" s="1"/>
@@ -21293,13 +21305,13 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -21308,7 +21320,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -21359,7 +21371,7 @@
       <c r="A17" s="60"/>
       <c r="B17" s="61"/>
       <c r="C17" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
@@ -21367,7 +21379,7 @@
       <c r="G17" s="125"/>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="131"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="61"/>
       <c r="L17" s="62"/>
       <c r="M17" s="63"/>
@@ -21393,13 +21405,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="65"/>
@@ -21408,7 +21420,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="63"/>
       <c r="L18" s="59"/>
@@ -21433,16 +21445,16 @@
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="E19" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="1"/>
@@ -21477,13 +21489,13 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -21492,7 +21504,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -21543,7 +21555,7 @@
       <c r="A22" s="60"/>
       <c r="B22" s="61"/>
       <c r="C22" s="140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
@@ -21551,7 +21563,7 @@
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
       <c r="I22" s="125"/>
-      <c r="J22" s="131"/>
+      <c r="J22" s="126"/>
       <c r="K22" s="61"/>
       <c r="L22" s="62"/>
       <c r="M22" s="63"/>
@@ -21571,19 +21583,19 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="64">
         <v>2</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="65"/>
@@ -21592,7 +21604,7 @@
         <v>26</v>
       </c>
       <c r="J23" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="63"/>
       <c r="L23" s="59"/>
@@ -21613,20 +21625,20 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="E24" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="F24" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G24" s="67"/>
       <c r="H24" s="1"/>
@@ -21657,17 +21669,17 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -21676,7 +21688,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -21717,7 +21729,7 @@
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
@@ -21725,7 +21737,7 @@
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="I27" s="125"/>
-      <c r="J27" s="131"/>
+      <c r="J27" s="126"/>
       <c r="K27" s="61"/>
       <c r="L27" s="62"/>
       <c r="M27" s="63"/>
@@ -21751,13 +21763,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="65"/>
@@ -21766,7 +21778,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="63"/>
       <c r="L28" s="59"/>
@@ -21791,16 +21803,16 @@
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="E29" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="1"/>
@@ -21835,13 +21847,13 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -21850,7 +21862,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -21901,7 +21913,7 @@
       <c r="A32" s="60"/>
       <c r="B32" s="61"/>
       <c r="C32" s="140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
@@ -21909,7 +21921,7 @@
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
       <c r="I32" s="125"/>
-      <c r="J32" s="131"/>
+      <c r="J32" s="126"/>
       <c r="K32" s="61"/>
       <c r="L32" s="62"/>
       <c r="M32" s="63"/>
@@ -21935,13 +21947,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="52"/>
       <c r="G33" s="65"/>
@@ -21950,7 +21962,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="63"/>
       <c r="L33" s="59"/>
@@ -21975,16 +21987,16 @@
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="E34" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="1"/>
@@ -22019,13 +22031,13 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -22034,7 +22046,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -22085,7 +22097,7 @@
       <c r="A37" s="60"/>
       <c r="B37" s="61"/>
       <c r="C37" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
@@ -22093,7 +22105,7 @@
       <c r="G37" s="125"/>
       <c r="H37" s="125"/>
       <c r="I37" s="125"/>
-      <c r="J37" s="131"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="61"/>
       <c r="L37" s="62"/>
       <c r="M37" s="63"/>
@@ -22119,13 +22131,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38" s="65"/>
@@ -22134,7 +22146,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K38" s="63"/>
       <c r="L38" s="59"/>
@@ -22159,16 +22171,16 @@
       </c>
       <c r="B39" s="64"/>
       <c r="C39" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="E39" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="F39" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="1"/>
@@ -22203,13 +22215,13 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -22218,7 +22230,7 @@
         <v>26</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -22269,7 +22281,7 @@
       <c r="A42" s="60"/>
       <c r="B42" s="61"/>
       <c r="C42" s="140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
@@ -22277,7 +22289,7 @@
       <c r="G42" s="125"/>
       <c r="H42" s="125"/>
       <c r="I42" s="125"/>
-      <c r="J42" s="131"/>
+      <c r="J42" s="126"/>
       <c r="K42" s="61"/>
       <c r="L42" s="62"/>
       <c r="M42" s="63"/>
@@ -22303,13 +22315,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="52"/>
       <c r="G43" s="65"/>
@@ -22318,7 +22330,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" s="63"/>
       <c r="L43" s="59"/>
@@ -22343,16 +22355,16 @@
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="E44" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="F44" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="1"/>
@@ -22387,13 +22399,13 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="E45" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -22402,7 +22414,7 @@
         <v>26</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -22453,7 +22465,7 @@
       <c r="A47" s="60"/>
       <c r="B47" s="61"/>
       <c r="C47" s="140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
@@ -22461,7 +22473,7 @@
       <c r="G47" s="125"/>
       <c r="H47" s="125"/>
       <c r="I47" s="125"/>
-      <c r="J47" s="131"/>
+      <c r="J47" s="126"/>
       <c r="K47" s="61"/>
       <c r="L47" s="62"/>
       <c r="M47" s="63"/>
@@ -22487,13 +22499,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="65"/>
@@ -22502,7 +22514,7 @@
         <v>26</v>
       </c>
       <c r="J48" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" s="63"/>
       <c r="L48" s="59"/>
@@ -22527,16 +22539,16 @@
       </c>
       <c r="B49" s="64"/>
       <c r="C49" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="E49" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="F49" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="1"/>
@@ -22571,13 +22583,13 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -22586,7 +22598,7 @@
         <v>26</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -22637,7 +22649,7 @@
       <c r="A52" s="60"/>
       <c r="B52" s="61"/>
       <c r="C52" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
@@ -22645,7 +22657,7 @@
       <c r="G52" s="125"/>
       <c r="H52" s="125"/>
       <c r="I52" s="125"/>
-      <c r="J52" s="131"/>
+      <c r="J52" s="126"/>
       <c r="K52" s="61"/>
       <c r="L52" s="62"/>
       <c r="M52" s="63"/>
@@ -22671,13 +22683,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="52"/>
       <c r="G53" s="65"/>
@@ -22686,7 +22698,7 @@
         <v>26</v>
       </c>
       <c r="J53" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K53" s="63"/>
       <c r="L53" s="59"/>
@@ -22711,16 +22723,16 @@
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="E54" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="F54" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="1"/>
@@ -22755,13 +22767,13 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -22770,7 +22782,7 @@
         <v>26</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -22821,7 +22833,7 @@
       <c r="A57" s="60"/>
       <c r="B57" s="61"/>
       <c r="C57" s="140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
@@ -22829,7 +22841,7 @@
       <c r="G57" s="125"/>
       <c r="H57" s="125"/>
       <c r="I57" s="125"/>
-      <c r="J57" s="131"/>
+      <c r="J57" s="126"/>
       <c r="K57" s="61"/>
       <c r="L57" s="62"/>
       <c r="M57" s="63"/>
@@ -22855,13 +22867,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="65"/>
@@ -22870,7 +22882,7 @@
         <v>26</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K58" s="63"/>
       <c r="L58" s="59"/>
@@ -22895,16 +22907,16 @@
       </c>
       <c r="B59" s="64"/>
       <c r="C59" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="E59" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="F59" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="1"/>
@@ -22939,13 +22951,13 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -22954,7 +22966,7 @@
         <v>26</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -49295,11 +49307,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -49307,6 +49314,11 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
@@ -49427,8 +49439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -49485,7 +49497,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="81"/>
@@ -49493,7 +49505,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="84"/>
       <c r="G2" s="85"/>
@@ -49504,54 +49516,54 @@
         <v>26</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="81"/>
       <c r="D3" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="F3" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="85" t="s">
         <v>161</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>162</v>
       </c>
       <c r="H3" s="77"/>
       <c r="I3" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="F4" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="85" t="s">
         <v>165</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>166</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>26</v>
@@ -49560,23 +49572,23 @@
         <v>26</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="81"/>
       <c r="D5" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="85"/>
@@ -49585,37 +49597,37 @@
         <v>26</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="94" customFormat="1">
       <c r="A6" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="E6" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="G6" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>84</v>
-      </c>
       <c r="H6" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="94">
         <v>0</v>
@@ -49623,32 +49635,32 @@
     </row>
     <row r="7" spans="1:12" s="100" customFormat="1">
       <c r="A7" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="97" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>174</v>
       </c>
       <c r="G7" s="98">
         <v>0</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="100">
         <v>0</v>
@@ -49656,32 +49668,32 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="E8" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="101" t="s">
+      <c r="G8" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="102" t="s">
-        <v>178</v>
-      </c>
       <c r="H8" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="87">
         <v>0</v>
@@ -49689,32 +49701,32 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="75">
         <v>19</v>
       </c>
       <c r="C9" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>101</v>
-      </c>
       <c r="E9" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="101" t="s">
-        <v>104</v>
-      </c>
       <c r="G9" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="87">
         <v>0</v>
@@ -49722,15 +49734,15 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="81"/>
       <c r="D10" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="85"/>
@@ -49739,20 +49751,20 @@
         <v>26</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="81"/>
       <c r="D11" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="85"/>
@@ -49761,37 +49773,37 @@
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="100" customFormat="1">
       <c r="A12" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="F12" s="97" t="s">
         <v>173</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>174</v>
       </c>
       <c r="G12" s="98">
         <v>0</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="100">
         <v>0</v>
@@ -49799,32 +49811,32 @@
     </row>
     <row r="13" spans="1:12" s="100" customFormat="1">
       <c r="A13" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="E13" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>183</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>184</v>
       </c>
       <c r="G13" s="98">
         <v>0</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="100">
         <v>0</v>
@@ -49832,25 +49844,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="75">
         <v>17</v>
       </c>
       <c r="C14" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="F14" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="G14" s="85" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="86" t="s">
@@ -49865,30 +49877,30 @@
     </row>
     <row r="15" spans="1:12" s="30" customFormat="1">
       <c r="A15" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="105" t="s">
+      <c r="F15" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="82" t="s">
         <v>189</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="30">
         <v>1</v>
@@ -49896,15 +49908,15 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="81"/>
       <c r="D16" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -49913,7 +49925,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="87">
         <v>1</v>
@@ -49921,32 +49933,32 @@
     </row>
     <row r="17" spans="1:12" s="94" customFormat="1">
       <c r="A17" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="E17" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>171</v>
-      </c>
       <c r="G17" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="94">
         <v>0</v>
@@ -49954,30 +49966,30 @@
     </row>
     <row r="18" spans="1:12" s="100" customFormat="1">
       <c r="A18" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="95" t="s">
-        <v>173</v>
-      </c>
       <c r="E18" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="97"/>
       <c r="G18" s="98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="100">
         <v>0</v>
@@ -49985,32 +49997,32 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="E19" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>177</v>
-      </c>
       <c r="G19" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="87">
         <v>0</v>
@@ -50018,32 +50030,32 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="75">
         <v>19</v>
       </c>
       <c r="C20" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>101</v>
-      </c>
       <c r="E20" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="101" t="s">
-        <v>104</v>
-      </c>
       <c r="G20" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="77"/>
       <c r="I20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="87">
         <v>0</v>
@@ -50051,15 +50063,15 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="81"/>
       <c r="D21" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -50068,20 +50080,20 @@
         <v>26</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="81"/>
       <c r="D22" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -50090,37 +50102,37 @@
         <v>26</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="94" customFormat="1">
       <c r="A23" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>195</v>
-      </c>
       <c r="H23" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="87">
         <v>0</v>
@@ -50128,30 +50140,30 @@
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
       <c r="A24" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="107"/>
       <c r="C24" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="109" t="s">
         <v>196</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>197</v>
       </c>
       <c r="F24" s="110"/>
       <c r="G24" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="114">
         <v>0</v>
@@ -50159,27 +50171,27 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="75">
         <v>17</v>
       </c>
       <c r="C25" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="101" t="s">
         <v>199</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="101" t="s">
-        <v>200</v>
       </c>
       <c r="G25" s="85"/>
       <c r="H25" s="77"/>
       <c r="I25" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>26</v>
@@ -50190,28 +50202,28 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="75">
         <v>17</v>
       </c>
       <c r="C26" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="E26" s="103" t="s">
         <v>202</v>
-      </c>
-      <c r="E26" s="103" t="s">
-        <v>203</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="85"/>
       <c r="H26" s="77"/>
       <c r="I26" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="87">
         <v>0</v>
@@ -50219,32 +50231,32 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="75">
         <v>17</v>
       </c>
       <c r="C27" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="E27" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="F27" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="85" t="s">
         <v>206</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>207</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="87">
         <v>0</v>
@@ -50252,32 +50264,32 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="75">
         <v>17</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="85" t="s">
         <v>208</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="85" t="s">
-        <v>209</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" s="116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="87">
         <v>-1</v>
@@ -50285,56 +50297,56 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="81"/>
       <c r="D29" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="F29" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="85" t="s">
         <v>161</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>162</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="100" customFormat="1">
       <c r="A30" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="95"/>
       <c r="C30" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="95" t="s">
-        <v>173</v>
-      </c>
       <c r="E30" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="97"/>
       <c r="G30" s="98" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H30" s="91" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J30" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="100">
         <v>0</v>
@@ -50342,24 +50354,24 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="81"/>
       <c r="D31" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="84"/>
       <c r="G31" s="85"/>
       <c r="H31" s="77"/>
       <c r="I31" s="86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:10">

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="213">
   <si>
     <t>TC_ID</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>UpdateRevision</t>
-  </si>
-  <si>
-    <t>sample101</t>
   </si>
   <si>
     <t>6551767</t>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>$revision,0,$revisionNumber</t>
+  </si>
+  <si>
+    <t>TCEnv101</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1442,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1455,17 +1464,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4495,7 +4495,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4607,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
@@ -4630,7 +4630,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>26</v>
@@ -4656,7 +4656,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4679,7 +4679,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4702,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4724,6 +4724,9 @@
       <c r="F8" s="21" t="s">
         <v>55</v>
       </c>
+      <c r="I8" s="25" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="21">
@@ -4745,7 +4748,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4753,10 +4756,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -4766,6 +4769,9 @@
       </c>
       <c r="F10" s="21" t="s">
         <v>62</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4776,7 +4782,7 @@
         <v>6551796</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -4786,6 +4792,9 @@
       </c>
       <c r="F11" s="21" t="s">
         <v>62</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4796,7 +4805,7 @@
         <v>6551803</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -4806,6 +4815,9 @@
       </c>
       <c r="F12" s="21" t="s">
         <v>62</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="87" customFormat="1">
@@ -4813,22 +4825,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="87" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4869,7 +4881,7 @@
         <v>6555587</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>27</v>
@@ -4886,7 +4898,7 @@
         <v>6555588</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>27</v>
@@ -4903,7 +4915,7 @@
         <v>6530927</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>55</v>
@@ -4920,7 +4932,7 @@
         <v>6530966</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>55</v>
@@ -4937,7 +4949,7 @@
         <v>6530960</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>55</v>
@@ -4954,7 +4966,7 @@
         <v>6530959</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>55</v>
@@ -4968,10 +4980,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>62</v>
@@ -4988,7 +5000,7 @@
         <v>6558241</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>62</v>
@@ -5005,7 +5017,7 @@
         <v>6558243</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>62</v>
@@ -5022,7 +5034,7 @@
         <v>6558245</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>62</v>
@@ -5038,7 +5050,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="18"/>
@@ -5072,7 +5084,7 @@
         <v>6555589</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>27</v>
@@ -5089,7 +5101,7 @@
         <v>6555590</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>27</v>
@@ -5103,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>55</v>
@@ -5140,10 +5152,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>55</v>
@@ -5177,10 +5189,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>55</v>
@@ -5214,10 +5226,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>55</v>
@@ -5254,7 +5266,7 @@
         <v>6541329</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>62</v>
@@ -5271,7 +5283,7 @@
         <v>6558247</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>62</v>
@@ -5288,7 +5300,7 @@
         <v>6558248</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>62</v>
@@ -5305,7 +5317,7 @@
         <v>6558250</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>62</v>
@@ -6355,12 +6367,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="130" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="22"/>
       <c r="G2" s="27"/>
       <c r="H2" s="12"/>
@@ -6477,19 +6489,19 @@
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="42" t="s">
@@ -6525,19 +6537,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="28" t="s">
@@ -6558,19 +6570,19 @@
         <v>19</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="E8" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="28" t="s">
@@ -6590,7 +6602,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>28</v>
@@ -6612,7 +6624,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="19"/>
       <c r="D10" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>28</v>
@@ -6629,12 +6641,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="13"/>
-      <c r="B11" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
+      <c r="B11" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
@@ -6665,19 +6677,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="G12" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="9" t="s">
@@ -6696,19 +6708,19 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="G13" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="28" t="s">
@@ -6724,19 +6736,19 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="49" t="s">
+      <c r="G14" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="28" t="s">
@@ -6869,19 +6881,19 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="42" t="s">
@@ -6917,19 +6929,19 @@
         <v>21</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E20" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="28" t="s">
@@ -6949,7 +6961,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>28</v>
@@ -6971,7 +6983,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="19"/>
       <c r="D22" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>28</v>
@@ -6988,12 +7000,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
+      <c r="B23" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -7018,7 +7030,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="19"/>
@@ -7040,7 +7052,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="19"/>
@@ -7062,7 +7074,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="36" t="s">
@@ -7075,7 +7087,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
@@ -7106,23 +7118,23 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="42" t="s">
@@ -7152,25 +7164,25 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="8">
         <v>21</v>
       </c>
       <c r="C28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="28" t="s">
@@ -7185,25 +7197,25 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2">
         <v>19</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="E29" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="28" t="s">
@@ -7218,12 +7230,12 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="19"/>
       <c r="D30" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>28</v>
@@ -7240,12 +7252,12 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
       <c r="D31" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>28</v>
@@ -7262,12 +7274,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="133" t="s">
-        <v>134</v>
+      <c r="B32" s="136" t="s">
+        <v>133</v>
       </c>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
-      <c r="E32" s="134"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="55"/>
       <c r="G32" s="56"/>
       <c r="H32" s="29"/>
@@ -7298,19 +7310,19 @@
         <v>2</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="G33" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="9" t="s">
@@ -7329,19 +7341,19 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="E34" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="G34" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="28" t="s">
@@ -7357,19 +7369,19 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="E35" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="49" t="s">
+      <c r="G35" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H35" s="35"/>
       <c r="I35" s="28" t="s">
@@ -7467,7 +7479,7 @@
         <v>51</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
@@ -7502,19 +7514,19 @@
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="F40" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="42" t="s">
@@ -7550,19 +7562,19 @@
         <v>21</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E41" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="28" t="s">
@@ -7582,7 +7594,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="19"/>
       <c r="D42" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>28</v>
@@ -7604,7 +7616,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="19"/>
       <c r="D43" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>28</v>
@@ -7621,12 +7633,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132"/>
+      <c r="B44" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
@@ -7651,7 +7663,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="19"/>
@@ -7673,7 +7685,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="19"/>
@@ -7695,7 +7707,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="36" t="s">
@@ -7739,23 +7751,23 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="42" t="s">
@@ -7785,25 +7797,25 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="8">
         <v>21</v>
       </c>
       <c r="C49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E49" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="28" t="s">
@@ -7818,22 +7830,22 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="2">
         <v>19</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="E50" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -7851,12 +7863,12 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="19"/>
       <c r="D51" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>28</v>
@@ -7873,12 +7885,12 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="19"/>
       <c r="D52" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>28</v>
@@ -7895,12 +7907,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="132"/>
+      <c r="B53" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="129"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -7931,19 +7943,19 @@
         <v>1</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="G54" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="9" t="s">
@@ -7962,19 +7974,19 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="E55" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="F55" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="G55" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="28" t="s">
@@ -7990,19 +8002,19 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="E56" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="49" t="s">
+      <c r="G56" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="28" t="s">
@@ -8135,19 +8147,19 @@
       </c>
       <c r="B61" s="34"/>
       <c r="C61" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="42" t="s">
@@ -8183,19 +8195,19 @@
         <v>21</v>
       </c>
       <c r="C62" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E62" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="28" t="s">
@@ -8215,7 +8227,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="19"/>
       <c r="D63" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>28</v>
@@ -8237,7 +8249,7 @@
       <c r="B64" s="2"/>
       <c r="C64" s="19"/>
       <c r="D64" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>28</v>
@@ -8254,12 +8266,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="136" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="132"/>
+      <c r="B65" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="128"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="129"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -8290,19 +8302,19 @@
         <v>1</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="G66" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="9" t="s">
@@ -8323,19 +8335,19 @@
         <v>2</v>
       </c>
       <c r="C67" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="E67" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="F67" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="G67" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="28" t="s">
@@ -8353,19 +8365,19 @@
         <v>3</v>
       </c>
       <c r="C68" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="E68" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="49" t="s">
+      <c r="G68" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="28" t="s">
@@ -8437,7 +8449,7 @@
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>28</v>
@@ -8526,19 +8538,19 @@
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F74" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H74" s="34"/>
       <c r="I74" s="42" t="s">
@@ -8574,19 +8586,19 @@
         <v>21</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E75" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H75" s="35"/>
       <c r="I75" s="28" t="s">
@@ -8608,7 +8620,7 @@
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>28</v>
@@ -8632,7 +8644,7 @@
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>28</v>
@@ -8649,12 +8661,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="132"/>
+      <c r="B78" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="129"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
@@ -8685,19 +8697,19 @@
         <v>1</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="F79" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="52" t="s">
+      <c r="G79" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="9" t="s">
@@ -8718,19 +8730,19 @@
         <v>2</v>
       </c>
       <c r="C80" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="E80" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="F80" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="G80" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="28" t="s">
@@ -8748,19 +8760,19 @@
         <v>3</v>
       </c>
       <c r="C81" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="E81" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F81" s="49" t="s">
+      <c r="G81" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="28" t="s">
@@ -8832,7 +8844,7 @@
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>28</v>
@@ -8921,19 +8933,19 @@
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F87" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="42" t="s">
@@ -8969,19 +8981,19 @@
         <v>21</v>
       </c>
       <c r="C88" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E88" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H88" s="35"/>
       <c r="I88" s="28" t="s">
@@ -9003,7 +9015,7 @@
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>28</v>
@@ -9027,7 +9039,7 @@
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>28</v>
@@ -9044,11 +9056,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="71"/>
-      <c r="B91" s="135" t="s">
-        <v>153</v>
+      <c r="B91" s="124" t="s">
+        <v>152</v>
       </c>
       <c r="C91" s="125"/>
-      <c r="D91" s="134"/>
+      <c r="D91" s="126"/>
       <c r="E91" s="72"/>
       <c r="F91" s="72"/>
       <c r="G91" s="72"/>
@@ -9080,19 +9092,19 @@
         <v>1</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D92" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="F92" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="G92" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="9" t="s">
@@ -9113,19 +9125,19 @@
         <v>2</v>
       </c>
       <c r="C93" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="E93" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="F93" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F93" s="49" t="s">
+      <c r="G93" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="28" t="s">
@@ -9143,19 +9155,19 @@
         <v>3</v>
       </c>
       <c r="C94" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="E94" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E94" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="49" t="s">
+      <c r="G94" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H94" s="35"/>
       <c r="I94" s="28" t="s">
@@ -9227,7 +9239,7 @@
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>28</v>
@@ -9281,7 +9293,7 @@
         <v>51</v>
       </c>
       <c r="F99" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
@@ -9316,19 +9328,19 @@
       </c>
       <c r="B100" s="34"/>
       <c r="C100" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="F100" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="F100" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G100" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="H100" s="34"/>
       <c r="I100" s="42" t="s">
@@ -9364,19 +9376,19 @@
         <v>21</v>
       </c>
       <c r="C101" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E101" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F101" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H101" s="35"/>
       <c r="I101" s="28" t="s">
@@ -9398,7 +9410,7 @@
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>28</v>
@@ -9422,7 +9434,7 @@
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" s="26" t="s">
         <v>28</v>
@@ -9439,11 +9451,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="71"/>
-      <c r="B104" s="135" t="s">
-        <v>155</v>
+      <c r="B104" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="C104" s="125"/>
-      <c r="D104" s="134"/>
+      <c r="D104" s="126"/>
       <c r="E104" s="72"/>
       <c r="F104" s="72"/>
       <c r="G104" s="72"/>
@@ -9475,19 +9487,19 @@
         <v>1</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="F105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F105" s="52" t="s">
+      <c r="G105" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="9" t="s">
@@ -9508,19 +9520,19 @@
         <v>2</v>
       </c>
       <c r="C106" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="46" t="s">
+      <c r="E106" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="F106" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="G106" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H106" s="35"/>
       <c r="I106" s="28" t="s">
@@ -9538,19 +9550,19 @@
         <v>3</v>
       </c>
       <c r="C107" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="E107" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E107" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F107" s="49" t="s">
+      <c r="G107" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H107" s="35"/>
       <c r="I107" s="28" t="s">
@@ -9622,7 +9634,7 @@
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>28</v>
@@ -9711,19 +9723,19 @@
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D113" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F113" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H113" s="34"/>
       <c r="I113" s="42" t="s">
@@ -9759,19 +9771,19 @@
         <v>21</v>
       </c>
       <c r="C114" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D114" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E114" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F114" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H114" s="35"/>
       <c r="I114" s="28" t="s">
@@ -9793,7 +9805,7 @@
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>28</v>
@@ -9817,7 +9829,7 @@
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>28</v>
@@ -9834,11 +9846,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="71"/>
-      <c r="B117" s="135" t="s">
-        <v>156</v>
+      <c r="B117" s="124" t="s">
+        <v>155</v>
       </c>
       <c r="C117" s="125"/>
-      <c r="D117" s="134"/>
+      <c r="D117" s="126"/>
       <c r="E117" s="72"/>
       <c r="F117" s="72"/>
       <c r="G117" s="72"/>
@@ -9870,19 +9882,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="F118" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F118" s="52" t="s">
+      <c r="G118" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G118" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H118" s="26"/>
       <c r="I118" s="9" t="s">
@@ -9903,19 +9915,19 @@
         <v>2</v>
       </c>
       <c r="C119" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="46" t="s">
+      <c r="E119" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="F119" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="G119" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H119" s="35"/>
       <c r="I119" s="28" t="s">
@@ -9933,19 +9945,19 @@
         <v>3</v>
       </c>
       <c r="C120" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="46" t="s">
+      <c r="E120" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E120" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F120" s="49" t="s">
+      <c r="G120" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H120" s="35"/>
       <c r="I120" s="28" t="s">
@@ -10017,7 +10029,7 @@
       </c>
       <c r="C123" s="19"/>
       <c r="D123" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>28</v>
@@ -10071,7 +10083,7 @@
         <v>51</v>
       </c>
       <c r="F125" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G125" s="34"/>
       <c r="H125" s="34"/>
@@ -10106,19 +10118,19 @@
       </c>
       <c r="B126" s="34"/>
       <c r="C126" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D126" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="F126" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G126" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="F126" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="H126" s="34"/>
       <c r="I126" s="42" t="s">
@@ -10154,19 +10166,19 @@
         <v>21</v>
       </c>
       <c r="C127" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D127" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E127" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F127" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H127" s="35"/>
       <c r="I127" s="28" t="s">
@@ -10188,7 +10200,7 @@
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>28</v>
@@ -10212,7 +10224,7 @@
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>28</v>
@@ -10229,11 +10241,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="71"/>
-      <c r="B130" s="135" t="s">
-        <v>157</v>
+      <c r="B130" s="124" t="s">
+        <v>156</v>
       </c>
       <c r="C130" s="125"/>
-      <c r="D130" s="134"/>
+      <c r="D130" s="126"/>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
       <c r="G130" s="72"/>
@@ -10265,19 +10277,19 @@
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D131" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="F131" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F131" s="52" t="s">
+      <c r="G131" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G131" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="9" t="s">
@@ -10298,19 +10310,19 @@
         <v>2</v>
       </c>
       <c r="C132" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="E132" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="F132" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F132" s="49" t="s">
+      <c r="G132" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H132" s="35"/>
       <c r="I132" s="28" t="s">
@@ -10328,19 +10340,19 @@
         <v>3</v>
       </c>
       <c r="C133" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D133" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D133" s="46" t="s">
+      <c r="E133" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E133" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F133" s="49" t="s">
+      <c r="G133" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="28" t="s">
@@ -10412,7 +10424,7 @@
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>28</v>
@@ -10501,19 +10513,19 @@
       </c>
       <c r="B139" s="34"/>
       <c r="C139" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D139" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E139" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F139" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" s="34"/>
       <c r="I139" s="42" t="s">
@@ -10549,19 +10561,19 @@
         <v>21</v>
       </c>
       <c r="C140" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D140" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D140" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="E140" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H140" s="35"/>
       <c r="I140" s="28" t="s">
@@ -10583,7 +10595,7 @@
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>28</v>
@@ -10607,7 +10619,7 @@
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" s="26" t="s">
         <v>28</v>
@@ -14056,6 +14068,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -14063,11 +14080,6 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="340" priority="1" operator="equal">
@@ -15711,7 +15723,7 @@
     <row r="18" spans="1:26">
       <c r="A18" s="13"/>
       <c r="B18" s="137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="138"/>
       <c r="D18" s="139"/>
@@ -15833,7 +15845,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>33</v>
@@ -15845,7 +15857,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="28" t="s">
@@ -15927,7 +15939,7 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="139"/>
@@ -16049,7 +16061,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>33</v>
@@ -16061,7 +16073,7 @@
         <v>35</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="28" t="s">
@@ -16143,7 +16155,7 @@
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="137" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="138"/>
       <c r="D34" s="139"/>
@@ -16232,7 +16244,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>35</v>
@@ -16259,7 +16271,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>33</v>
@@ -16271,7 +16283,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="28" t="s">
@@ -16353,7 +16365,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="138"/>
       <c r="D42" s="139"/>
@@ -16442,7 +16454,7 @@
         <v>33</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>35</v>
@@ -16469,7 +16481,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>33</v>
@@ -16481,7 +16493,7 @@
         <v>35</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="28" t="s">
@@ -20827,7 +20839,7 @@
       <c r="G2" s="125"/>
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="61"/>
       <c r="L2" s="62"/>
       <c r="M2" s="63"/>
@@ -20853,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>23</v>
@@ -20893,16 +20905,16 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E4" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="1"/>
@@ -20937,10 +20949,10 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>28</v>
@@ -21003,7 +21015,7 @@
       <c r="A7" s="60"/>
       <c r="B7" s="61"/>
       <c r="C7" s="140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="125"/>
@@ -21011,7 +21023,7 @@
       <c r="G7" s="125"/>
       <c r="H7" s="125"/>
       <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
+      <c r="J7" s="131"/>
       <c r="K7" s="61"/>
       <c r="L7" s="62"/>
       <c r="M7" s="63"/>
@@ -21037,7 +21049,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>23</v>
@@ -21077,16 +21089,16 @@
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="E9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G9" s="67"/>
       <c r="H9" s="1"/>
@@ -21121,10 +21133,10 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>28</v>
@@ -21187,7 +21199,7 @@
       <c r="A12" s="60"/>
       <c r="B12" s="61"/>
       <c r="C12" s="140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
@@ -21195,7 +21207,7 @@
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
       <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
+      <c r="J12" s="131"/>
       <c r="K12" s="61"/>
       <c r="L12" s="62"/>
       <c r="M12" s="63"/>
@@ -21221,7 +21233,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>23</v>
@@ -21261,16 +21273,16 @@
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="E14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G14" s="67"/>
       <c r="H14" s="1"/>
@@ -21305,10 +21317,10 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>28</v>
@@ -21371,7 +21383,7 @@
       <c r="A17" s="60"/>
       <c r="B17" s="61"/>
       <c r="C17" s="140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
@@ -21379,7 +21391,7 @@
       <c r="G17" s="125"/>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="126"/>
+      <c r="J17" s="131"/>
       <c r="K17" s="61"/>
       <c r="L17" s="62"/>
       <c r="M17" s="63"/>
@@ -21405,7 +21417,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>23</v>
@@ -21445,16 +21457,16 @@
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="E19" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="1"/>
@@ -21489,10 +21501,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>28</v>
@@ -21555,7 +21567,7 @@
       <c r="A22" s="60"/>
       <c r="B22" s="61"/>
       <c r="C22" s="140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
@@ -21563,7 +21575,7 @@
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
       <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
+      <c r="J22" s="131"/>
       <c r="K22" s="61"/>
       <c r="L22" s="62"/>
       <c r="M22" s="63"/>
@@ -21583,13 +21595,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="64">
         <v>2</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>23</v>
@@ -21625,20 +21637,20 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="E24" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="F24" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G24" s="67"/>
       <c r="H24" s="1"/>
@@ -21669,14 +21681,14 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>28</v>
@@ -21729,7 +21741,7 @@
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
@@ -21737,7 +21749,7 @@
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
+      <c r="J27" s="131"/>
       <c r="K27" s="61"/>
       <c r="L27" s="62"/>
       <c r="M27" s="63"/>
@@ -21763,7 +21775,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>23</v>
@@ -21803,16 +21815,16 @@
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="E29" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="1"/>
@@ -21847,10 +21859,10 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>28</v>
@@ -21913,7 +21925,7 @@
       <c r="A32" s="60"/>
       <c r="B32" s="61"/>
       <c r="C32" s="140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
@@ -21921,7 +21933,7 @@
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
       <c r="I32" s="125"/>
-      <c r="J32" s="126"/>
+      <c r="J32" s="131"/>
       <c r="K32" s="61"/>
       <c r="L32" s="62"/>
       <c r="M32" s="63"/>
@@ -21947,7 +21959,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>23</v>
@@ -21987,16 +21999,16 @@
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="E34" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="1"/>
@@ -22031,10 +22043,10 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>28</v>
@@ -22097,7 +22109,7 @@
       <c r="A37" s="60"/>
       <c r="B37" s="61"/>
       <c r="C37" s="140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
@@ -22105,7 +22117,7 @@
       <c r="G37" s="125"/>
       <c r="H37" s="125"/>
       <c r="I37" s="125"/>
-      <c r="J37" s="126"/>
+      <c r="J37" s="131"/>
       <c r="K37" s="61"/>
       <c r="L37" s="62"/>
       <c r="M37" s="63"/>
@@ -22131,7 +22143,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>23</v>
@@ -22171,16 +22183,16 @@
       </c>
       <c r="B39" s="64"/>
       <c r="C39" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="E39" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="F39" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="1"/>
@@ -22215,10 +22227,10 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>28</v>
@@ -22281,7 +22293,7 @@
       <c r="A42" s="60"/>
       <c r="B42" s="61"/>
       <c r="C42" s="140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
@@ -22289,7 +22301,7 @@
       <c r="G42" s="125"/>
       <c r="H42" s="125"/>
       <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
+      <c r="J42" s="131"/>
       <c r="K42" s="61"/>
       <c r="L42" s="62"/>
       <c r="M42" s="63"/>
@@ -22315,7 +22327,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>23</v>
@@ -22355,16 +22367,16 @@
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="E44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="F44" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="1"/>
@@ -22399,10 +22411,10 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>28</v>
@@ -22465,7 +22477,7 @@
       <c r="A47" s="60"/>
       <c r="B47" s="61"/>
       <c r="C47" s="140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
@@ -22473,7 +22485,7 @@
       <c r="G47" s="125"/>
       <c r="H47" s="125"/>
       <c r="I47" s="125"/>
-      <c r="J47" s="126"/>
+      <c r="J47" s="131"/>
       <c r="K47" s="61"/>
       <c r="L47" s="62"/>
       <c r="M47" s="63"/>
@@ -22499,7 +22511,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>23</v>
@@ -22539,16 +22551,16 @@
       </c>
       <c r="B49" s="64"/>
       <c r="C49" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="E49" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="F49" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="1"/>
@@ -22583,10 +22595,10 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>28</v>
@@ -22649,7 +22661,7 @@
       <c r="A52" s="60"/>
       <c r="B52" s="61"/>
       <c r="C52" s="140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
@@ -22657,7 +22669,7 @@
       <c r="G52" s="125"/>
       <c r="H52" s="125"/>
       <c r="I52" s="125"/>
-      <c r="J52" s="126"/>
+      <c r="J52" s="131"/>
       <c r="K52" s="61"/>
       <c r="L52" s="62"/>
       <c r="M52" s="63"/>
@@ -22683,7 +22695,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>23</v>
@@ -22723,16 +22735,16 @@
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="E54" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="F54" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="1"/>
@@ -22767,10 +22779,10 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>28</v>
@@ -22833,7 +22845,7 @@
       <c r="A57" s="60"/>
       <c r="B57" s="61"/>
       <c r="C57" s="140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
@@ -22841,7 +22853,7 @@
       <c r="G57" s="125"/>
       <c r="H57" s="125"/>
       <c r="I57" s="125"/>
-      <c r="J57" s="126"/>
+      <c r="J57" s="131"/>
       <c r="K57" s="61"/>
       <c r="L57" s="62"/>
       <c r="M57" s="63"/>
@@ -22867,7 +22879,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>23</v>
@@ -22907,16 +22919,16 @@
       </c>
       <c r="B59" s="64"/>
       <c r="C59" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="E59" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="F59" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="1"/>
@@ -22951,10 +22963,10 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>28</v>
@@ -49307,6 +49319,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -49314,11 +49331,6 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
@@ -49497,7 +49509,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="81"/>
@@ -49521,21 +49533,21 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="81"/>
       <c r="D3" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>160</v>
       </c>
       <c r="F3" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="77"/>
       <c r="I3" s="86" t="s">
@@ -49547,23 +49559,23 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>26</v>
@@ -49575,17 +49587,17 @@
         <v>30</v>
       </c>
       <c r="K4" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="81"/>
       <c r="D5" s="82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="83" t="s">
         <v>28</v>
@@ -49602,23 +49614,23 @@
     </row>
     <row r="6" spans="1:12" s="94" customFormat="1">
       <c r="A6" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="E6" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="G6" s="79" t="s">
         <v>82</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>83</v>
       </c>
       <c r="H6" s="91" t="s">
         <v>30</v>
@@ -49635,20 +49647,20 @@
     </row>
     <row r="7" spans="1:12" s="100" customFormat="1">
       <c r="A7" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="97" t="s">
         <v>172</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>173</v>
       </c>
       <c r="G7" s="98">
         <v>0</v>
@@ -49668,23 +49680,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="E8" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="101" t="s">
+      <c r="G8" s="102" t="s">
         <v>176</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>177</v>
       </c>
       <c r="H8" s="91" t="s">
         <v>30</v>
@@ -49701,25 +49713,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="75">
         <v>19</v>
       </c>
       <c r="C9" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>100</v>
-      </c>
       <c r="E9" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="101" t="s">
-        <v>103</v>
-      </c>
       <c r="G9" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="86" t="s">
@@ -49734,12 +49746,12 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="81"/>
       <c r="D10" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="83" t="s">
         <v>28</v>
@@ -49756,12 +49768,12 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="81"/>
       <c r="D11" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="83" t="s">
         <v>28</v>
@@ -49778,20 +49790,20 @@
     </row>
     <row r="12" spans="1:12" s="100" customFormat="1">
       <c r="A12" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="F12" s="97" t="s">
         <v>172</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>173</v>
       </c>
       <c r="G12" s="98">
         <v>0</v>
@@ -49811,20 +49823,20 @@
     </row>
     <row r="13" spans="1:12" s="100" customFormat="1">
       <c r="A13" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="E13" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>182</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>183</v>
       </c>
       <c r="G13" s="98">
         <v>0</v>
@@ -49844,25 +49856,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="75">
         <v>17</v>
       </c>
       <c r="C14" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="F14" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="G14" s="85" t="s">
         <v>185</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="86" t="s">
@@ -49877,23 +49889,23 @@
     </row>
     <row r="15" spans="1:12" s="30" customFormat="1">
       <c r="A15" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="86" t="s">
@@ -49908,12 +49920,12 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="81"/>
       <c r="D16" s="82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>28</v>
@@ -49933,23 +49945,23 @@
     </row>
     <row r="17" spans="1:12" s="94" customFormat="1">
       <c r="A17" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="E17" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>170</v>
-      </c>
       <c r="G17" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="91" t="s">
         <v>30</v>
@@ -49966,21 +49978,21 @@
     </row>
     <row r="18" spans="1:12" s="100" customFormat="1">
       <c r="A18" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="95" t="s">
-        <v>172</v>
-      </c>
       <c r="E18" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="97"/>
       <c r="G18" s="98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="91" t="s">
         <v>30</v>
@@ -49997,23 +50009,23 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="E19" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>176</v>
-      </c>
       <c r="G19" s="102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="91" t="s">
         <v>30</v>
@@ -50030,25 +50042,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="75">
         <v>19</v>
       </c>
       <c r="C20" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>100</v>
-      </c>
       <c r="E20" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="101" t="s">
-        <v>103</v>
-      </c>
       <c r="G20" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="77"/>
       <c r="I20" s="86" t="s">
@@ -50063,12 +50075,12 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="81"/>
       <c r="D21" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="83" t="s">
         <v>28</v>
@@ -50085,12 +50097,12 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="81"/>
       <c r="D22" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="83" t="s">
         <v>28</v>
@@ -50107,23 +50119,23 @@
     </row>
     <row r="23" spans="1:12" s="94" customFormat="1">
       <c r="A23" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="106" t="s">
         <v>193</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>194</v>
       </c>
       <c r="H23" s="91" t="s">
         <v>30</v>
@@ -50140,21 +50152,21 @@
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
       <c r="A24" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="107"/>
       <c r="C24" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="109" t="s">
         <v>195</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>196</v>
       </c>
       <c r="F24" s="110"/>
       <c r="G24" s="109" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="111" t="s">
         <v>30</v>
@@ -50171,22 +50183,22 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="75">
         <v>17</v>
       </c>
       <c r="C25" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="101" t="s">
         <v>198</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="101" t="s">
-        <v>199</v>
       </c>
       <c r="G25" s="85"/>
       <c r="H25" s="77"/>
@@ -50202,19 +50214,19 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="75">
         <v>17</v>
       </c>
       <c r="C26" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="E26" s="103" t="s">
         <v>201</v>
-      </c>
-      <c r="E26" s="103" t="s">
-        <v>202</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="85"/>
@@ -50231,25 +50243,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="75">
         <v>17</v>
       </c>
       <c r="C27" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="E27" s="103" t="s">
         <v>204</v>
-      </c>
-      <c r="E27" s="103" t="s">
-        <v>205</v>
       </c>
       <c r="F27" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G27" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="86" t="s">
@@ -50264,25 +50276,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="75">
         <v>17</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="115" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F28" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="86" t="s">
@@ -50297,21 +50309,21 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="81"/>
       <c r="D29" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="83" t="s">
         <v>159</v>
-      </c>
-      <c r="E29" s="83" t="s">
-        <v>160</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="86" t="s">
@@ -50323,21 +50335,21 @@
     </row>
     <row r="30" spans="1:12" s="100" customFormat="1">
       <c r="A30" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="95"/>
       <c r="C30" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="95" t="s">
-        <v>172</v>
-      </c>
       <c r="E30" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="97"/>
       <c r="G30" s="98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H30" s="91" t="s">
         <v>26</v>
@@ -50354,12 +50366,12 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="81"/>
       <c r="D31" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" s="83" t="s">
         <v>28</v>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="213">
   <si>
     <t>TC_ID</t>
   </si>
@@ -1100,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,19 +1426,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1480,7 +1467,49 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="341">
+  <dxfs count="347">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4494,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4647,7 +4676,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>55</v>
@@ -4827,11 +4856,11 @@
       <c r="B13" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="118" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="87" t="s">
         <v>210</v>
@@ -6367,12 +6396,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="131"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="22"/>
       <c r="G2" s="27"/>
       <c r="H2" s="12"/>
@@ -6641,12 +6670,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="13"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
@@ -7000,12 +7029,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -7274,12 +7303,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="55"/>
       <c r="G32" s="56"/>
       <c r="H32" s="29"/>
@@ -7633,12 +7662,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
@@ -7907,12 +7936,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="129"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="124"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -8266,12 +8295,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="129"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -8661,12 +8690,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="127" t="s">
+      <c r="B78" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="129"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
@@ -9056,11 +9085,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="71"/>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="125"/>
-      <c r="D91" s="126"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="121"/>
       <c r="E91" s="72"/>
       <c r="F91" s="72"/>
       <c r="G91" s="72"/>
@@ -9451,11 +9480,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="71"/>
-      <c r="B104" s="124" t="s">
+      <c r="B104" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="125"/>
-      <c r="D104" s="126"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="121"/>
       <c r="E104" s="72"/>
       <c r="F104" s="72"/>
       <c r="G104" s="72"/>
@@ -9846,11 +9875,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="71"/>
-      <c r="B117" s="124" t="s">
+      <c r="B117" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="125"/>
-      <c r="D117" s="126"/>
+      <c r="C117" s="120"/>
+      <c r="D117" s="121"/>
       <c r="E117" s="72"/>
       <c r="F117" s="72"/>
       <c r="G117" s="72"/>
@@ -10241,11 +10270,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="71"/>
-      <c r="B130" s="124" t="s">
+      <c r="B130" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="125"/>
-      <c r="D130" s="126"/>
+      <c r="C130" s="120"/>
+      <c r="D130" s="121"/>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
       <c r="G130" s="72"/>
@@ -14082,1127 +14111,1127 @@
     <mergeCell ref="B53:E53"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="340" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="339" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="338" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="337" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="336" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="335" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="334" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="333" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="332" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="331" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="330" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="329" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="328" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="327" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="326" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="325" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="324" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="323" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="322" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="321" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="320" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="319" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="318" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="317" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="316" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="315" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="314" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="313" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="312" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="311" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="310" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="309" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="308" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="307" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="306" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="305" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="304" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="303" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="302" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="301" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="300" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="299" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="298" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="297" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="296" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="295" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="294" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="293" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="292" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="291" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="290" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="289" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="288" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="287" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="286" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="285" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="284" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="283" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="282" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="281" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="280" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="279" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="278" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="277" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="276" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="275" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="274" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="273" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="272" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="271" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="270" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="269" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="268" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="267" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="266" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="265" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="264" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="263" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="262" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="261" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="260" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="259" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="258" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="257" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="256" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="255" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="254" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="253" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="252" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="251" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="250" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="249" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="248" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="247" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="246" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="245" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="244" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="243" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="242" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="241" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="240" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="239" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="238" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="237" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="236" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="235" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="234" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="233" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="232" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="231" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="230" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="229" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="228" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="227" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="226" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="225" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="224" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="223" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="222" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="221" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="220" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="219" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="218" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="217" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="216" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="215" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="214" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="213" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="212" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="211" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="210" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="209" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="208" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="207" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="206" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="205" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="204" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="203" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="202" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="201" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="140" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="200" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="199" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="198" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="197" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="196" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="195" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="194" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="193" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="148" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="192" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="191" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="190" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="189" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="188" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="187" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="186" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="185" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="184" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="183" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="158" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="182" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="181" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="180" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="179" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="162" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="178" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="177" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="176" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="175" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="166" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="174" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="173" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="172" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="169" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="168" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="166" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="165" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="164" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="163" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="178" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="162" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="161" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="160" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="159" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="158" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="183" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="157" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="156" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="155" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="154" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="153" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="152" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="151" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="150" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="149" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="148" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="147" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="146" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="145" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="144" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="143" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="142" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="141" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="140" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="139" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="138" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="137" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="136" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="135" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="134" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="133" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="132" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="131" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="130" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="129" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="128" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="127" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="126" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="125" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="124" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="123" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="122" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="121" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="120" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="119" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="118" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="117" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="116" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15290,11 +15319,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="13"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -15506,11 +15535,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="13"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -15722,11 +15751,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="13"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15938,11 +15967,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="13"/>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -16154,11 +16183,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -16364,11 +16393,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="139"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -20386,362 +20415,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="100" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="99" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="98" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="97" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="94" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="93" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="92" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="91" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="90" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="89" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="88" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="82" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="79" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="77" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="70" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="47" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="45" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20759,7 +20788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -20830,16 +20861,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="60"/>
       <c r="B2" s="61"/>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="61"/>
       <c r="L2" s="62"/>
       <c r="M2" s="63"/>
@@ -21014,16 +21045,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="60"/>
       <c r="B7" s="61"/>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="131"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="61"/>
       <c r="L7" s="62"/>
       <c r="M7" s="63"/>
@@ -21198,16 +21229,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="60"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="131"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="126"/>
       <c r="K12" s="61"/>
       <c r="L12" s="62"/>
       <c r="M12" s="63"/>
@@ -21382,16 +21413,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="60"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="131"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="61"/>
       <c r="L17" s="62"/>
       <c r="M17" s="63"/>
@@ -21566,16 +21597,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="60"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="131"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="126"/>
       <c r="K22" s="61"/>
       <c r="L22" s="62"/>
       <c r="M22" s="63"/>
@@ -21740,16 +21771,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="131"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="126"/>
       <c r="K27" s="61"/>
       <c r="L27" s="62"/>
       <c r="M27" s="63"/>
@@ -21924,16 +21955,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="60"/>
       <c r="B32" s="61"/>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="131"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="126"/>
       <c r="K32" s="61"/>
       <c r="L32" s="62"/>
       <c r="M32" s="63"/>
@@ -22108,16 +22139,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="60"/>
       <c r="B37" s="61"/>
-      <c r="C37" s="140" t="s">
+      <c r="C37" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="131"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="61"/>
       <c r="L37" s="62"/>
       <c r="M37" s="63"/>
@@ -22292,16 +22323,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="60"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="131"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="126"/>
       <c r="K42" s="61"/>
       <c r="L42" s="62"/>
       <c r="M42" s="63"/>
@@ -22476,16 +22507,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="60"/>
       <c r="B47" s="61"/>
-      <c r="C47" s="140" t="s">
+      <c r="C47" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="131"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="126"/>
       <c r="K47" s="61"/>
       <c r="L47" s="62"/>
       <c r="M47" s="63"/>
@@ -22660,16 +22691,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="61"/>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="131"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="126"/>
       <c r="K52" s="61"/>
       <c r="L52" s="62"/>
       <c r="M52" s="63"/>
@@ -22844,16 +22875,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="60"/>
       <c r="B57" s="61"/>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="131"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="126"/>
       <c r="K57" s="61"/>
       <c r="L57" s="62"/>
       <c r="M57" s="63"/>
@@ -49333,107 +49364,107 @@
     <mergeCell ref="C17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49449,10 +49480,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -49469,7 +49500,7 @@
     <col min="12" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="79" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:26" s="79" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -49507,49 +49538,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    <row r="2" spans="1:26" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="80" t="s">
         <v>157</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="81"/>
       <c r="D3" s="82" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="77"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="77" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="86" t="s">
         <v>26</v>
       </c>
@@ -49557,113 +49592,106 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:26">
       <c r="A4" s="80" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="75"/>
-      <c r="C4" s="81" t="s">
-        <v>161</v>
-      </c>
+      <c r="C4" s="81"/>
       <c r="D4" s="82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>26</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H4" s="77"/>
       <c r="I4" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="80" t="s">
         <v>157</v>
       </c>
       <c r="B5" s="75"/>
-      <c r="C5" s="81"/>
+      <c r="C5" s="81" t="s">
+        <v>161</v>
+      </c>
       <c r="D5" s="82" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="77"/>
+        <v>163</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="94" customFormat="1">
+      <c r="K5" s="87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>168</v>
+      <c r="B6" s="75"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82" t="s">
+        <v>166</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="100" customFormat="1">
+    </row>
+    <row r="7" spans="1:26" s="94" customFormat="1">
       <c r="A7" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>171</v>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>168</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0</v>
+      <c r="F7" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="H7" s="91" t="s">
         <v>30</v>
@@ -49671,32 +49699,32 @@
       <c r="I7" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="100">
+      <c r="L7" s="94">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:26" s="100" customFormat="1">
       <c r="A8" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>174</v>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>171</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>176</v>
+        <v>81</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="98">
+        <v>0</v>
       </c>
       <c r="H8" s="91" t="s">
         <v>30</v>
@@ -49704,37 +49732,37 @@
       <c r="I8" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="100">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:26">
       <c r="A9" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="75">
-        <v>19</v>
-      </c>
+      <c r="B9" s="75"/>
       <c r="C9" s="81" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -49744,20 +49772,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:26">
       <c r="A10" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="75">
+        <v>19</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" s="82" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+        <v>101</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" s="77"/>
       <c r="I10" s="86" t="s">
         <v>26</v>
@@ -49765,15 +49801,18 @@
       <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="80" t="s">
         <v>157</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="81"/>
       <c r="D11" s="82" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="E11" s="83" t="s">
         <v>28</v>
@@ -49788,55 +49827,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="100" customFormat="1">
+    <row r="12" spans="1:26">
       <c r="A12" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>171</v>
+      <c r="B12" s="75"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82" t="s">
+        <v>177</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="98">
-        <v>0</v>
-      </c>
-      <c r="H12" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="100" customFormat="1">
+    </row>
+    <row r="13" spans="1:26" s="100" customFormat="1">
       <c r="A13" s="80" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="95"/>
-      <c r="C13" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>181</v>
+      <c r="C13" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>171</v>
       </c>
       <c r="E13" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="90" t="s">
-        <v>182</v>
+      <c r="F13" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="G13" s="98">
         <v>0</v>
@@ -49854,84 +49882,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:26" s="100" customFormat="1">
       <c r="A14" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="75">
-        <v>17</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="86" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="98">
+        <v>0</v>
+      </c>
+      <c r="H14" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="87">
+      <c r="J14" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="100">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1">
+    <row r="15" spans="1:26">
       <c r="A15" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="101" t="s">
-        <v>186</v>
+      <c r="B15" s="75">
+        <v>17</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>183</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>184</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>185</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="L15" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="30" customFormat="1">
       <c r="A16" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="101" t="s">
+        <v>186</v>
+      </c>
       <c r="D16" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>188</v>
+      </c>
       <c r="H16" s="77"/>
       <c r="I16" s="86" t="s">
         <v>26</v>
@@ -49939,60 +49975,54 @@
       <c r="J16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="87">
+      <c r="L16" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="94" customFormat="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>168</v>
+      <c r="B17" s="75"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82" t="s">
+        <v>166</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="100" customFormat="1">
+      <c r="L17" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="94" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>171</v>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>168</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="H18" s="91" t="s">
         <v>30</v>
@@ -50000,32 +50030,30 @@
       <c r="I18" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="100">
+      <c r="L18" s="94">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" s="100" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>174</v>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>171</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="H19" s="91" t="s">
         <v>30</v>
@@ -50033,10 +50061,10 @@
       <c r="I19" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="100">
         <v>0</v>
       </c>
     </row>
@@ -50044,26 +50072,26 @@
       <c r="A20" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="75">
-        <v>19</v>
-      </c>
+      <c r="B20" s="75"/>
       <c r="C20" s="81" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -50077,16 +50105,24 @@
       <c r="A21" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="75">
+        <v>19</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>98</v>
+      </c>
       <c r="D21" s="82" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
+        <v>101</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>82</v>
+      </c>
       <c r="H21" s="77"/>
       <c r="I21" s="86" t="s">
         <v>26</v>
@@ -50094,6 +50130,9 @@
       <c r="J21" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="L21" s="87">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="80" t="s">
@@ -50102,7 +50141,7 @@
       <c r="B22" s="75"/>
       <c r="C22" s="81"/>
       <c r="D22" s="82" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="E22" s="83" t="s">
         <v>28</v>
@@ -50117,98 +50156,89 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="94" customFormat="1">
+    <row r="23" spans="1:12">
       <c r="A23" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="91" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="113" customFormat="1">
+    </row>
+    <row r="24" spans="1:12" s="94" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="107" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="110"/>
-      <c r="G24" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="111" t="s">
+      <c r="E24" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="114">
+      <c r="L24" s="87">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" s="113" customFormat="1">
       <c r="A25" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="75">
-        <v>17</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="85"/>
-      <c r="H25" s="77"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>30</v>
+      </c>
       <c r="I25" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="87">
+      <c r="J25" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="114">
         <v>0</v>
       </c>
     </row>
@@ -50220,22 +50250,24 @@
         <v>17</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="101"/>
+        <v>141</v>
+      </c>
+      <c r="F26" s="101" t="s">
+        <v>198</v>
+      </c>
       <c r="G26" s="85"/>
       <c r="H26" s="77"/>
       <c r="I26" s="86" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L26" s="87">
         <v>0</v>
@@ -50249,20 +50281,16 @@
         <v>17</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>205</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F27" s="101"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="77"/>
       <c r="I27" s="86" t="s">
         <v>26</v>
@@ -50282,319 +50310,1060 @@
         <v>17</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="83" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>204</v>
       </c>
       <c r="F28" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="116" t="s">
-        <v>30</v>
-      </c>
       <c r="L28" s="87">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82" t="s">
-        <v>158</v>
+      <c r="B29" s="75">
+        <v>17</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="85" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="100" customFormat="1">
+      <c r="J29" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>171</v>
+      <c r="B30" s="75"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82" t="s">
+        <v>158</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>26</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="77"/>
       <c r="I30" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:12" s="100" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82" t="s">
-        <v>208</v>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>171</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="77"/>
+        <v>190</v>
+      </c>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="91" t="s">
+        <v>26</v>
+      </c>
       <c r="I31" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="99" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="80"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="80"/>
-      <c r="B35" s="78"/>
+      <c r="L31" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="75"/>
       <c r="C35" s="81"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="80"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="80"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="80"/>
-      <c r="B38" s="78"/>
+      <c r="D35" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="77"/>
+      <c r="I36" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="75"/>
       <c r="C38" s="81"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="80"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="80"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="80"/>
+      <c r="D38" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="98">
+        <v>0</v>
+      </c>
+      <c r="H40" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="80" t="s">
+        <v>157</v>
+      </c>
       <c r="B41" s="75"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="80"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="80"/>
+      <c r="C41" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="75">
+        <v>19</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="80" t="s">
+        <v>157</v>
+      </c>
       <c r="B43" s="75"/>
       <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="101"/>
+      <c r="D43" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="84"/>
       <c r="G43" s="85"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="80"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="80" t="s">
+        <v>157</v>
+      </c>
       <c r="B44" s="75"/>
       <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="101"/>
+      <c r="D44" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="84"/>
       <c r="G44" s="85"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="80"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="11"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="98">
+        <v>0</v>
+      </c>
+      <c r="H45" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="95"/>
+      <c r="C46" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="98">
+        <v>0</v>
+      </c>
+      <c r="H46" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="A47" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="75">
+        <v>17</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="77"/>
+      <c r="I47" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="A48" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="104"/>
+      <c r="C48" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="77"/>
+      <c r="I48" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="A49" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="75"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="A50" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="A51" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="97"/>
+      <c r="G51" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="A52" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="75"/>
+      <c r="C52" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="A53" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="75">
+        <v>19</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="77"/>
+      <c r="I53" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="A54" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="A55" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="75"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="A56" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="94"/>
+      <c r="L56" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="A57" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="110"/>
+      <c r="G57" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="113"/>
+      <c r="L57" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="A58" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="75">
+        <v>17</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="85"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="A59" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="75">
+        <v>17</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="101"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="A60" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="75">
+        <v>17</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" s="77"/>
+      <c r="I60" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="A61" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="75">
+        <v>17</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" s="77"/>
+      <c r="I61" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="A62" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="75"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" s="77"/>
+      <c r="I62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="A63" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="C63" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="97"/>
+      <c r="G63" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="A64" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H39:H45">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="2">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C34:J34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D46FBA1E-8E3A-4ED8-858F-5D970A67EB1D}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{D46FBA1E-8E3A-4ED8-858F-5D970A67EB1D}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50607,7 +51376,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{6DFDDB72-0C77-4025-9495-0F0F48C98528}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{6DFDDB72-0C77-4025-9495-0F0F48C98528}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50617,62 +51386,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:H5 H9:H11 H25:H28 H14:H15 H31</xm:sqref>
+          <xm:sqref>H3:H6 H10:H12 H26:H29 H15:H16 H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EFB16BB0-6E90-4760-917B-288A92F98489}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{A4C0277D-0790-4395-B5D4-9CA88A57BF58}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H39:H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{3553C581-DB88-4CE5-AF6D-1D15EBF8CDD4}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{756A9619-22C1-422B-BBCA-153537FD2D0B}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{4DB40BE1-5CA7-49A7-AE61-59B6011E5C79}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{4DB40BE1-5CA7-49A7-AE61-59B6011E5C79}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50682,23 +51399,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{7EC42280-CCC3-4AEB-8BD8-D0DC0D983F70}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{4E01E53A-AEC9-40F1-A5F6-15B53083C697}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{7EC42280-CCC3-4AEB-8BD8-D0DC0D983F70}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50711,7 +51415,7 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{62ACD147-406B-484D-B12E-E6AD7FD98CB9}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{4E01E53A-AEC9-40F1-A5F6-15B53083C697}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50724,7 +51428,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{17C0E99C-5208-4595-B4EC-02C0CEDD8553}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{62ACD147-406B-484D-B12E-E6AD7FD98CB9}">
             <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -50734,7 +51438,98 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{17C0E99C-5208-4595-B4EC-02C0CEDD8553}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E029B797-872C-4FEC-BA70-E7C1D03DFCEC}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H35:H38 H42:H44 H58:H61 H47:H48 H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{05495005-1C53-4AEF-8CA5-F81E80ADA2D0}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{E32AC7A6-F33D-4EC9-93D6-E568F2EA2CAF}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{56994369-06E2-4692-A68A-F350848F345D}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{63A36A30-E020-464B-9871-5B5412C49F6D}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{8B99D7FB-9F57-40D1-951F-83DB2D358DC8}">
+            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="239">
   <si>
     <t>TC_ID</t>
   </si>
@@ -732,12 +732,24 @@
   <si>
     <t>4 4 5 - Lessor - DFL - Validate user is able to Add Revision</t>
   </si>
+  <si>
+    <t>TCEnv102</t>
+  </si>
+  <si>
+    <t>445 - Lessor - STL - Validate user is able to Add Revision</t>
+  </si>
+  <si>
+    <t>445 - Lessor - DFL - Validate user is able to Add Revision</t>
+  </si>
+  <si>
+    <t>13th Period - Lessor - Operating - Validate user is able to Add Revision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -846,6 +858,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1160,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1492,7 +1511,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,10 +1524,26 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,17 +1553,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,18 +1564,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1558,56 +1581,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="407">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="399">
     <dxf>
       <fill>
         <patternFill>
@@ -4719,13 +4693,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5019,10 +4986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5126,7 +5093,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>27</v>
@@ -5313,7 +5280,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="62" t="s">
         <v>62</v>
@@ -5381,7 +5348,7 @@
       <c r="C14" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="99" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="93" t="s">
@@ -5394,62 +5361,98 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="113">
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="A15" s="63">
+        <v>13</v>
+      </c>
+      <c r="B15" s="152">
+        <v>6579744</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
+      <c r="A16" s="63">
+        <v>13</v>
+      </c>
+      <c r="B16" s="152">
+        <v>6579785</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="113">
         <v>445</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="115"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="62">
-        <v>1</v>
-      </c>
-      <c r="B18" s="78">
-        <v>6555587</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>27</v>
-      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="78">
-        <v>6555588</v>
+        <v>6555587</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>27</v>
@@ -5460,30 +5463,36 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="78">
-        <v>6530927</v>
+        <v>6555588</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="78">
-        <v>6530966</v>
+        <v>6530927</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>55</v>
@@ -5494,13 +5503,16 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="78">
-        <v>6530960</v>
+        <v>6530966</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>55</v>
@@ -5509,15 +5521,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26">
       <c r="A23" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="78">
-        <v>6530959</v>
+        <v>6530960</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>55</v>
@@ -5528,30 +5543,36 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="62">
-        <v>7</v>
-      </c>
-      <c r="B24" s="121" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="78">
+        <v>6530959</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="62">
-        <v>8</v>
-      </c>
-      <c r="B25" s="123">
-        <v>6558241</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="121" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>62</v>
@@ -5562,13 +5583,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="123">
-        <v>6558243</v>
+        <v>6558241</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>62</v>
@@ -5579,13 +5603,16 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="123">
-        <v>6558245</v>
+        <v>6558243</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>62</v>
@@ -5594,229 +5621,197 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="79" customFormat="1">
-      <c r="A28" s="63">
-        <v>11</v>
-      </c>
-      <c r="B28" s="125">
-        <v>6591988</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="I28" s="126"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="62">
+        <v>10</v>
+      </c>
+      <c r="B28" s="123">
+        <v>6558245</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:26" s="79" customFormat="1">
       <c r="A29" s="63">
-        <v>12</v>
-      </c>
-      <c r="B29" s="125">
-        <v>6591989</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="124">
+        <v>6591988</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="99" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="93" t="s">
         <v>210</v>
       </c>
       <c r="F29" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="126"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="113" t="s">
+      <c r="I29" s="125"/>
+    </row>
+    <row r="30" spans="1:26" s="79" customFormat="1">
+      <c r="A30" s="63">
+        <v>12</v>
+      </c>
+      <c r="B30" s="124">
+        <v>6591989</v>
+      </c>
+      <c r="C30" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="125"/>
+    </row>
+    <row r="31" spans="1:26" s="79" customFormat="1">
+      <c r="A31" s="63">
+        <v>13</v>
+      </c>
+      <c r="B31" s="124">
+        <v>6591990</v>
+      </c>
+      <c r="C31" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="125"/>
+    </row>
+    <row r="32" spans="1:26" s="79" customFormat="1">
+      <c r="A32" s="63">
+        <v>14</v>
+      </c>
+      <c r="B32" s="124">
+        <v>6591991</v>
+      </c>
+      <c r="C32" s="152" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="125"/>
+    </row>
+    <row r="33" spans="1:26" s="153" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="115"/>
-      <c r="Z31" s="115"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="62">
-        <v>1</v>
-      </c>
-      <c r="B32" s="78">
-        <v>6555589</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="62">
-        <v>2</v>
-      </c>
-      <c r="B33" s="78">
-        <v>6555590</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="62">
-        <v>3</v>
-      </c>
-      <c r="B34" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="62">
-        <v>4</v>
-      </c>
-      <c r="B35" s="119" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="B35" s="78">
+        <v>6555589</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="62">
-        <v>5</v>
-      </c>
-      <c r="B36" s="119" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="B36" s="78">
+        <v>6555590</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="D37" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>55</v>
@@ -5824,87 +5819,159 @@
       <c r="F37" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="126"/>
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="126"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="62">
-        <v>7</v>
-      </c>
-      <c r="B38" s="123">
-        <v>6541329</v>
+        <v>4</v>
+      </c>
+      <c r="B38" s="119" t="s">
+        <v>96</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F38" s="62" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="126"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
+      <c r="V38" s="126"/>
+      <c r="W38" s="126"/>
+      <c r="X38" s="126"/>
+      <c r="Y38" s="126"/>
+      <c r="Z38" s="126"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="62">
-        <v>8</v>
-      </c>
-      <c r="B39" s="123">
-        <v>6558247</v>
+        <v>5</v>
+      </c>
+      <c r="B39" s="119" t="s">
+        <v>106</v>
       </c>
       <c r="C39" s="99" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D39" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="126"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="126"/>
+      <c r="T39" s="126"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="126"/>
+      <c r="W39" s="126"/>
+      <c r="X39" s="126"/>
+      <c r="Y39" s="126"/>
+      <c r="Z39" s="126"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="62">
-        <v>9</v>
-      </c>
-      <c r="B40" s="123">
-        <v>6558248</v>
+        <v>6</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>109</v>
       </c>
       <c r="C40" s="99" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="126"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="126"/>
+      <c r="T40" s="126"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="126"/>
+      <c r="W40" s="126"/>
+      <c r="X40" s="126"/>
+      <c r="Y40" s="126"/>
+      <c r="Z40" s="126"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="62">
-        <v>10</v>
-      </c>
-      <c r="B41" s="78">
-        <v>6558250</v>
+        <v>7</v>
+      </c>
+      <c r="B41" s="123">
+        <v>6541329</v>
       </c>
       <c r="C41" s="99" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="62" t="s">
         <v>62</v>
@@ -5913,49 +5980,150 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="79" customFormat="1">
-      <c r="A42" s="63">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="62">
+        <v>8</v>
+      </c>
+      <c r="B42" s="123">
+        <v>6558247</v>
+      </c>
+      <c r="C42" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="62">
+        <v>9</v>
+      </c>
+      <c r="B43" s="123">
+        <v>6558248</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="62">
+        <v>10</v>
+      </c>
+      <c r="B44" s="78">
+        <v>6558250</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" s="79" customFormat="1">
+      <c r="A45" s="63">
         <v>11</v>
       </c>
-      <c r="B42" s="128">
+      <c r="B45" s="127">
         <v>6591992</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C45" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="93" t="s">
+      <c r="D45" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F45" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I42" s="126"/>
-    </row>
-    <row r="43" spans="1:26" s="79" customFormat="1">
-      <c r="A43" s="63">
+      <c r="I45" s="125"/>
+    </row>
+    <row r="46" spans="1:26" s="79" customFormat="1">
+      <c r="A46" s="63">
         <v>12</v>
       </c>
-      <c r="B43" s="125">
+      <c r="B46" s="124">
         <v>6591993</v>
       </c>
-      <c r="C43" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="124"/>
-      <c r="E43" s="93" t="s">
+      <c r="C46" s="152" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="93" t="s">
+      <c r="F46" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I43" s="126"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1"/>
+      <c r="I46" s="125"/>
+    </row>
+    <row r="47" spans="1:26" s="79" customFormat="1">
+      <c r="A47" s="63">
+        <v>13</v>
+      </c>
+      <c r="B47" s="127">
+        <v>6591994</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="125"/>
+    </row>
+    <row r="48" spans="1:26" s="79" customFormat="1">
+      <c r="A48" s="63">
+        <v>14</v>
+      </c>
+      <c r="B48" s="124">
+        <v>6591995</v>
+      </c>
+      <c r="C48" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="125"/>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -6910,6 +7078,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6990,12 +7161,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7264,12 +7435,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -7623,12 +7794,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -7897,12 +8068,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="140"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="134"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8256,12 +8427,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="138"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="137"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8530,12 +8701,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="138"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="137"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -8889,12 +9060,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="138"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="137"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9284,12 +9455,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="142" t="s">
+      <c r="B78" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="138"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="137"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -9679,11 +9850,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="141" t="s">
+      <c r="B91" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="131"/>
-      <c r="D91" s="140"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -10074,11 +10245,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="141" t="s">
+      <c r="B104" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="131"/>
-      <c r="D104" s="140"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="134"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -10469,11 +10640,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="141" t="s">
+      <c r="B117" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="131"/>
-      <c r="D117" s="140"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="134"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -10864,11 +11035,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="141" t="s">
+      <c r="B130" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="131"/>
-      <c r="D130" s="140"/>
+      <c r="C130" s="133"/>
+      <c r="D130" s="134"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -14691,6 +14862,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -14698,1134 +14874,1129 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="405" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="404" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="403" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="402" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="401" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="400" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="399" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="398" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="397" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="396" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="395" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="394" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="393" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="392" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="391" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="390" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="389" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="388" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="387" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="386" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="385" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="384" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="383" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="382" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="381" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="380" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="379" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="378" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="377" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="376" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="375" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="374" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="373" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="372" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="371" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="370" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="369" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="368" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="367" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="366" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="365" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="364" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="363" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="362" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="361" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="360" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="359" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="358" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="357" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="356" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="355" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="354" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="353" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="352" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="351" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="350" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="349" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="348" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="347" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="346" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="345" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="344" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="343" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="342" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="341" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="340" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="339" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="338" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="337" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="336" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="335" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="334" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="333" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="332" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="331" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="330" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="329" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="328" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="327" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="326" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="325" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="324" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="323" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="322" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="321" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="320" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="319" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="318" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="317" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="316" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="315" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="314" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="313" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="312" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="311" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="310" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="309" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="308" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="307" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="306" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="305" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="304" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="303" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="302" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="301" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="300" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="299" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="298" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="297" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="296" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="295" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="294" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="293" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="292" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="291" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="290" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="289" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="288" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="287" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="286" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="285" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="284" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="283" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="282" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="281" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="280" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="279" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="278" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="277" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="276" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="275" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="274" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="273" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="272" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="271" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="270" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="269" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="268" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="267" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="266" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="140" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="265" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="264" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="263" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="262" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="261" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="260" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="259" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="258" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="148" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="257" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="256" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="255" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="254" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="253" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="252" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="251" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="250" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="249" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="248" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="158" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="247" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="246" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="245" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="244" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="162" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="243" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="242" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="241" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="240" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="166" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="239" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="238" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="237" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="236" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="235" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="234" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="233" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="232" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="174" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="231" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="230" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="229" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="228" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="178" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="227" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="226" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="225" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="224" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="223" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="183" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="222" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="221" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="220" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="219" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="218" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="217" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="216" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="215" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="214" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="213" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="212" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="211" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="210" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="209" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="208" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="207" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="206" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="205" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="204" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="203" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="202" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="201" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="200" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="199" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="198" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="197" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="196" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="195" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="194" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="193" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="192" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="191" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="190" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="189" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="188" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="187" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="186" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="185" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="184" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="183" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="182" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="181" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15843,7 +16014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -15913,11 +16086,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -16129,11 +16302,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -16345,11 +16518,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -16561,11 +16734,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -16777,11 +16950,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -16987,11 +17160,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -21009,362 +21182,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="179" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="178" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="177" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="176" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="175" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="174" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="171" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="170" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="169" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="168" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="167" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="166" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="165" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="164" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="163" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="162" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="161" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="160" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="159" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="158" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="157" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="156" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="155" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="154" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="153" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="152" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="151" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="150" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="149" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="148" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="147" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="146" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="145" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="144" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="143" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="142" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="141" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="140" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="139" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="138" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="137" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="136" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="135" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="134" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="133" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="132" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="131" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="130" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="129" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="128" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="127" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="126" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="125" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="124" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="123" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="122" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="121" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="120" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="119" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="118" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="117" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="116" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="115" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="114" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="113" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="112" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="111" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="110" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="109" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21455,16 +21628,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -21639,16 +21812,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -21823,16 +21996,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="139"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22007,16 +22180,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="139"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22191,16 +22364,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="139"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -22365,16 +22538,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="139"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -22549,16 +22722,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="139"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -22733,16 +22906,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="139"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -22917,16 +23090,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="139"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23101,16 +23274,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="132"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="139"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -23285,16 +23458,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="146" t="s">
+      <c r="C52" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="139"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -23469,16 +23642,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="146" t="s">
+      <c r="C57" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="132"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="139"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -49944,6 +50117,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -49951,114 +50129,109 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="99" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="96" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="95" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="94" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="93" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="92" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="90" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="89" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="88" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50076,8 +50249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250:J250"/>
+    <sheetView topLeftCell="A174" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -50139,13 +50312,13 @@
       <c r="C2" s="149" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -51129,13 +51302,13 @@
       <c r="C36" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
@@ -52109,7 +52282,7 @@
         <v>214</v>
       </c>
       <c r="B68" s="59"/>
-      <c r="C68" s="150"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="84" t="s">
         <v>208</v>
       </c>
@@ -52146,13 +52319,13 @@
       <c r="C70" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
@@ -52952,7 +53125,7 @@
         <v>227</v>
       </c>
       <c r="B97" s="70"/>
-      <c r="C97" s="151" t="s">
+      <c r="C97" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D97" s="70" t="s">
@@ -53197,13 +53370,13 @@
       <c r="C106" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="148"/>
-      <c r="E106" s="148"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="148"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="150"/>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
@@ -54003,7 +54176,7 @@
         <v>227</v>
       </c>
       <c r="B133" s="70"/>
-      <c r="C133" s="151" t="s">
+      <c r="C133" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D133" s="70" t="s">
@@ -54245,21 +54418,21 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="147" t="s">
+      <c r="C142" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="148"/>
-      <c r="E142" s="148"/>
-      <c r="F142" s="148"/>
-      <c r="G142" s="148"/>
-      <c r="H142" s="148"/>
-      <c r="I142" s="148"/>
-      <c r="J142" s="148"/>
+      <c r="D142" s="150"/>
+      <c r="E142" s="150"/>
+      <c r="F142" s="150"/>
+      <c r="G142" s="150"/>
+      <c r="H142" s="150"/>
+      <c r="I142" s="150"/>
+      <c r="J142" s="150"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
     <row r="143" spans="1:12" ht="15" customHeight="1">
-      <c r="A143" s="125">
+      <c r="A143" s="124">
         <v>6591988</v>
       </c>
       <c r="B143" s="59"/>
@@ -54283,7 +54456,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="15" customHeight="1">
-      <c r="A144" s="125">
+      <c r="A144" s="124">
         <v>6591988</v>
       </c>
       <c r="B144" s="59"/>
@@ -54309,7 +54482,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="15" customHeight="1">
-      <c r="A145" s="125">
+      <c r="A145" s="124">
         <v>6591988</v>
       </c>
       <c r="B145" s="59"/>
@@ -54342,7 +54515,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="15" customHeight="1">
-      <c r="A146" s="125">
+      <c r="A146" s="124">
         <v>6591988</v>
       </c>
       <c r="B146" s="59"/>
@@ -54364,7 +54537,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="15" customHeight="1">
-      <c r="A147" s="125">
+      <c r="A147" s="124">
         <v>6591988</v>
       </c>
       <c r="B147" s="59"/>
@@ -54397,7 +54570,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="15" customHeight="1">
-      <c r="A148" s="125">
+      <c r="A148" s="124">
         <v>6591988</v>
       </c>
       <c r="B148" s="64"/>
@@ -54431,7 +54604,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1">
-      <c r="A149" s="125">
+      <c r="A149" s="124">
         <v>6591988</v>
       </c>
       <c r="B149" s="66"/>
@@ -54465,7 +54638,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1">
-      <c r="A150" s="125">
+      <c r="A150" s="124">
         <v>6591988</v>
       </c>
       <c r="B150" s="59"/>
@@ -54498,7 +54671,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1">
-      <c r="A151" s="125">
+      <c r="A151" s="124">
         <v>6591988</v>
       </c>
       <c r="B151" s="59">
@@ -54531,7 +54704,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1">
-      <c r="A152" s="125">
+      <c r="A152" s="124">
         <v>6591988</v>
       </c>
       <c r="B152" s="59"/>
@@ -54553,7 +54726,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1">
-      <c r="A153" s="125">
+      <c r="A153" s="124">
         <v>6591988</v>
       </c>
       <c r="B153" s="59"/>
@@ -54575,7 +54748,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="15" customHeight="1">
-      <c r="A154" s="125">
+      <c r="A154" s="124">
         <v>6591988</v>
       </c>
       <c r="B154" s="66"/>
@@ -54609,7 +54782,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="15" customHeight="1">
-      <c r="A155" s="125">
+      <c r="A155" s="124">
         <v>6591988</v>
       </c>
       <c r="B155" s="66"/>
@@ -54643,7 +54816,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="15" customHeight="1">
-      <c r="A156" s="125">
+      <c r="A156" s="124">
         <v>6591988</v>
       </c>
       <c r="B156" s="59">
@@ -54676,7 +54849,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="15" customHeight="1">
-      <c r="A157" s="125">
+      <c r="A157" s="124">
         <v>6591988</v>
       </c>
       <c r="B157" s="69"/>
@@ -54708,7 +54881,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="15" customHeight="1">
-      <c r="A158" s="125">
+      <c r="A158" s="124">
         <v>6591988</v>
       </c>
       <c r="B158" s="59"/>
@@ -54733,7 +54906,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="15" customHeight="1">
-      <c r="A159" s="125">
+      <c r="A159" s="124">
         <v>6591988</v>
       </c>
       <c r="B159" s="59"/>
@@ -54766,7 +54939,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="15" customHeight="1">
-      <c r="A160" s="125">
+      <c r="A160" s="124">
         <v>6591988</v>
       </c>
       <c r="B160" s="64"/>
@@ -54800,7 +54973,7 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="15" customHeight="1">
-      <c r="A161" s="125">
+      <c r="A161" s="124">
         <v>6591988</v>
       </c>
       <c r="B161" s="66"/>
@@ -54832,7 +55005,7 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" customHeight="1">
-      <c r="A162" s="125">
+      <c r="A162" s="124">
         <v>6591988</v>
       </c>
       <c r="B162" s="59"/>
@@ -54865,7 +55038,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="15" customHeight="1">
-      <c r="A163" s="125">
+      <c r="A163" s="124">
         <v>6591988</v>
       </c>
       <c r="B163" s="59">
@@ -54898,7 +55071,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="15" customHeight="1">
-      <c r="A164" s="125">
+      <c r="A164" s="124">
         <v>6591988</v>
       </c>
       <c r="B164" s="59"/>
@@ -54920,7 +55093,7 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="15" customHeight="1">
-      <c r="A165" s="125">
+      <c r="A165" s="124">
         <v>6591988</v>
       </c>
       <c r="B165" s="59"/>
@@ -54942,7 +55115,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1">
-      <c r="A166" s="125">
+      <c r="A166" s="124">
         <v>6591988</v>
       </c>
       <c r="B166" s="64"/>
@@ -54976,7 +55149,7 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="15" customHeight="1">
-      <c r="A167" s="125">
+      <c r="A167" s="124">
         <v>6591988</v>
       </c>
       <c r="B167" s="70"/>
@@ -55008,7 +55181,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1">
-      <c r="A168" s="125">
+      <c r="A168" s="124">
         <v>6591988</v>
       </c>
       <c r="B168" s="59">
@@ -55039,7 +55212,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1">
-      <c r="A169" s="125">
+      <c r="A169" s="124">
         <v>6591988</v>
       </c>
       <c r="B169" s="59">
@@ -55068,7 +55241,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="15" customHeight="1">
-      <c r="A170" s="125">
+      <c r="A170" s="124">
         <v>6591988</v>
       </c>
       <c r="B170" s="59">
@@ -55101,7 +55274,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="15" customHeight="1">
-      <c r="A171" s="125">
+      <c r="A171" s="124">
         <v>6591988</v>
       </c>
       <c r="B171" s="59">
@@ -55134,7 +55307,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="15" customHeight="1">
-      <c r="A172" s="125">
+      <c r="A172" s="124">
         <v>6591988</v>
       </c>
       <c r="B172" s="59"/>
@@ -55160,7 +55333,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="15" customHeight="1">
-      <c r="A173" s="125">
+      <c r="A173" s="124">
         <v>6591988</v>
       </c>
       <c r="B173" s="66"/>
@@ -55192,7 +55365,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="15" customHeight="1">
-      <c r="A174" s="125">
+      <c r="A174" s="124">
         <v>6591988</v>
       </c>
       <c r="B174" s="59"/>
@@ -55219,21 +55392,21 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="147" t="s">
+      <c r="C177" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="148"/>
-      <c r="E177" s="148"/>
-      <c r="F177" s="148"/>
-      <c r="G177" s="148"/>
-      <c r="H177" s="148"/>
-      <c r="I177" s="148"/>
-      <c r="J177" s="148"/>
+      <c r="D177" s="150"/>
+      <c r="E177" s="150"/>
+      <c r="F177" s="150"/>
+      <c r="G177" s="150"/>
+      <c r="H177" s="150"/>
+      <c r="I177" s="150"/>
+      <c r="J177" s="150"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1">
-      <c r="A179" s="125">
+      <c r="A179" s="124">
         <v>6591989</v>
       </c>
       <c r="B179" s="59"/>
@@ -55257,7 +55430,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1">
-      <c r="A180" s="125">
+      <c r="A180" s="124">
         <v>6591989</v>
       </c>
       <c r="B180" s="59"/>
@@ -55283,7 +55456,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1">
-      <c r="A181" s="125">
+      <c r="A181" s="124">
         <v>6591989</v>
       </c>
       <c r="B181" s="59"/>
@@ -55316,7 +55489,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1">
-      <c r="A182" s="125">
+      <c r="A182" s="124">
         <v>6591989</v>
       </c>
       <c r="B182" s="59"/>
@@ -55338,7 +55511,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1">
-      <c r="A183" s="125">
+      <c r="A183" s="124">
         <v>6591989</v>
       </c>
       <c r="B183" s="59"/>
@@ -55371,7 +55544,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1">
-      <c r="A184" s="125">
+      <c r="A184" s="124">
         <v>6591989</v>
       </c>
       <c r="B184" s="64"/>
@@ -55405,7 +55578,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1">
-      <c r="A185" s="125">
+      <c r="A185" s="124">
         <v>6591989</v>
       </c>
       <c r="B185" s="66"/>
@@ -55439,7 +55612,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1">
-      <c r="A186" s="125">
+      <c r="A186" s="124">
         <v>6591989</v>
       </c>
       <c r="B186" s="59"/>
@@ -55472,7 +55645,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1">
-      <c r="A187" s="125">
+      <c r="A187" s="124">
         <v>6591989</v>
       </c>
       <c r="B187" s="59">
@@ -55505,7 +55678,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="15" customHeight="1">
-      <c r="A188" s="125">
+      <c r="A188" s="124">
         <v>6591989</v>
       </c>
       <c r="B188" s="59"/>
@@ -55527,7 +55700,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1">
-      <c r="A189" s="125">
+      <c r="A189" s="124">
         <v>6591989</v>
       </c>
       <c r="B189" s="59"/>
@@ -55549,7 +55722,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1">
-      <c r="A190" s="125">
+      <c r="A190" s="124">
         <v>6591989</v>
       </c>
       <c r="B190" s="66"/>
@@ -55583,7 +55756,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1">
-      <c r="A191" s="125">
+      <c r="A191" s="124">
         <v>6591989</v>
       </c>
       <c r="B191" s="66"/>
@@ -55617,7 +55790,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1">
-      <c r="A192" s="125">
+      <c r="A192" s="124">
         <v>6591989</v>
       </c>
       <c r="B192" s="59">
@@ -55650,7 +55823,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="15" customHeight="1">
-      <c r="A193" s="125">
+      <c r="A193" s="124">
         <v>6591989</v>
       </c>
       <c r="B193" s="69"/>
@@ -55682,7 +55855,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="15" customHeight="1">
-      <c r="A194" s="125">
+      <c r="A194" s="124">
         <v>6591989</v>
       </c>
       <c r="B194" s="59"/>
@@ -55707,7 +55880,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="15" customHeight="1">
-      <c r="A195" s="125">
+      <c r="A195" s="124">
         <v>6591989</v>
       </c>
       <c r="B195" s="59"/>
@@ -55740,7 +55913,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="15" customHeight="1">
-      <c r="A196" s="125">
+      <c r="A196" s="124">
         <v>6591989</v>
       </c>
       <c r="B196" s="64"/>
@@ -55774,7 +55947,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="15" customHeight="1">
-      <c r="A197" s="125">
+      <c r="A197" s="124">
         <v>6591989</v>
       </c>
       <c r="B197" s="66"/>
@@ -55806,7 +55979,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15" customHeight="1">
-      <c r="A198" s="125">
+      <c r="A198" s="124">
         <v>6591989</v>
       </c>
       <c r="B198" s="59"/>
@@ -55839,7 +56012,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="15" customHeight="1">
-      <c r="A199" s="125">
+      <c r="A199" s="124">
         <v>6591989</v>
       </c>
       <c r="B199" s="59">
@@ -55872,7 +56045,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="15" customHeight="1">
-      <c r="A200" s="125">
+      <c r="A200" s="124">
         <v>6591989</v>
       </c>
       <c r="B200" s="59"/>
@@ -55894,7 +56067,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="15" customHeight="1">
-      <c r="A201" s="125">
+      <c r="A201" s="124">
         <v>6591989</v>
       </c>
       <c r="B201" s="59"/>
@@ -55916,7 +56089,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15" customHeight="1">
-      <c r="A202" s="125">
+      <c r="A202" s="124">
         <v>6591989</v>
       </c>
       <c r="B202" s="64"/>
@@ -55950,7 +56123,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="15" customHeight="1">
-      <c r="A203" s="125">
+      <c r="A203" s="124">
         <v>6591989</v>
       </c>
       <c r="B203" s="70"/>
@@ -55982,7 +56155,7 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="15" customHeight="1">
-      <c r="A204" s="125">
+      <c r="A204" s="124">
         <v>6591989</v>
       </c>
       <c r="B204" s="59">
@@ -56013,7 +56186,7 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="15" customHeight="1">
-      <c r="A205" s="125">
+      <c r="A205" s="124">
         <v>6591989</v>
       </c>
       <c r="B205" s="59">
@@ -56042,7 +56215,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="15" customHeight="1">
-      <c r="A206" s="125">
+      <c r="A206" s="124">
         <v>6591989</v>
       </c>
       <c r="B206" s="59">
@@ -56075,7 +56248,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" ht="15" customHeight="1">
-      <c r="A207" s="125">
+      <c r="A207" s="124">
         <v>6591989</v>
       </c>
       <c r="B207" s="59">
@@ -56108,7 +56281,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="15" customHeight="1">
-      <c r="A208" s="125">
+      <c r="A208" s="124">
         <v>6591989</v>
       </c>
       <c r="B208" s="59"/>
@@ -56134,7 +56307,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15" customHeight="1">
-      <c r="A209" s="125">
+      <c r="A209" s="124">
         <v>6591989</v>
       </c>
       <c r="B209" s="66"/>
@@ -56166,7 +56339,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="15" customHeight="1">
-      <c r="A210" s="125">
+      <c r="A210" s="124">
         <v>6591989</v>
       </c>
       <c r="B210" s="59"/>
@@ -56194,19 +56367,19 @@
       <c r="C213" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="D213" s="148"/>
-      <c r="E213" s="148"/>
-      <c r="F213" s="148"/>
-      <c r="G213" s="148"/>
-      <c r="H213" s="148"/>
-      <c r="I213" s="148"/>
-      <c r="J213" s="148"/>
+      <c r="D213" s="150"/>
+      <c r="E213" s="150"/>
+      <c r="F213" s="150"/>
+      <c r="G213" s="150"/>
+      <c r="H213" s="150"/>
+      <c r="I213" s="150"/>
+      <c r="J213" s="150"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
     <row r="214" spans="1:12" ht="15" customHeight="1">
-      <c r="A214" s="61" t="s">
-        <v>227</v>
+      <c r="A214" s="124">
+        <v>6591990</v>
       </c>
       <c r="B214" s="59"/>
       <c r="C214" s="81"/>
@@ -56229,8 +56402,8 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="15" customHeight="1">
-      <c r="A215" s="61" t="s">
-        <v>227</v>
+      <c r="A215" s="124">
+        <v>6591990</v>
       </c>
       <c r="B215" s="48"/>
       <c r="C215" s="50" t="s">
@@ -56259,8 +56432,8 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15" customHeight="1">
-      <c r="A216" s="61" t="s">
-        <v>227</v>
+      <c r="A216" s="124">
+        <v>6591990</v>
       </c>
       <c r="B216" s="59"/>
       <c r="C216" s="81" t="s">
@@ -56285,8 +56458,8 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="15" customHeight="1">
-      <c r="A217" s="61" t="s">
-        <v>227</v>
+      <c r="A217" s="124">
+        <v>6591990</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="81"/>
@@ -56313,8 +56486,8 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A218" s="61" t="s">
-        <v>227</v>
+      <c r="A218" s="124">
+        <v>6591990</v>
       </c>
       <c r="B218" s="59"/>
       <c r="C218" s="81" t="s">
@@ -56346,8 +56519,8 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="15" customHeight="1">
-      <c r="A219" s="61" t="s">
-        <v>227</v>
+      <c r="A219" s="124">
+        <v>6591990</v>
       </c>
       <c r="B219" s="59"/>
       <c r="C219" s="81"/>
@@ -56370,8 +56543,8 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="15" customHeight="1">
-      <c r="A220" s="61" t="s">
-        <v>227</v>
+      <c r="A220" s="124">
+        <v>6591990</v>
       </c>
       <c r="B220" s="59"/>
       <c r="C220" s="81" t="s">
@@ -56403,8 +56576,8 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1">
-      <c r="A221" s="61" t="s">
-        <v>227</v>
+      <c r="A221" s="124">
+        <v>6591990</v>
       </c>
       <c r="B221" s="64"/>
       <c r="C221" s="71" t="s">
@@ -56437,8 +56610,8 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A222" s="61" t="s">
-        <v>227</v>
+      <c r="A222" s="124">
+        <v>6591990</v>
       </c>
       <c r="B222" s="66"/>
       <c r="C222" s="71" t="s">
@@ -56471,8 +56644,8 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="15" customHeight="1">
-      <c r="A223" s="61" t="s">
-        <v>227</v>
+      <c r="A223" s="124">
+        <v>6591990</v>
       </c>
       <c r="B223" s="59"/>
       <c r="C223" s="81" t="s">
@@ -56504,8 +56677,8 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="15" customHeight="1">
-      <c r="A224" s="61" t="s">
-        <v>227</v>
+      <c r="A224" s="124">
+        <v>6591990</v>
       </c>
       <c r="B224" s="59">
         <v>19</v>
@@ -56537,8 +56710,8 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="15" customHeight="1">
-      <c r="A225" s="61" t="s">
-        <v>227</v>
+      <c r="A225" s="124">
+        <v>6591990</v>
       </c>
       <c r="B225" s="59"/>
       <c r="C225" s="81"/>
@@ -56559,8 +56732,8 @@
       </c>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1">
-      <c r="A226" s="61" t="s">
-        <v>227</v>
+      <c r="A226" s="124">
+        <v>6591990</v>
       </c>
       <c r="B226" s="59"/>
       <c r="C226" s="81"/>
@@ -56581,8 +56754,8 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="15" customHeight="1">
-      <c r="A227" s="61" t="s">
-        <v>227</v>
+      <c r="A227" s="124">
+        <v>6591990</v>
       </c>
       <c r="B227" s="66"/>
       <c r="C227" s="71" t="s">
@@ -56615,8 +56788,8 @@
       </c>
     </row>
     <row r="228" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A228" s="61" t="s">
-        <v>227</v>
+      <c r="A228" s="124">
+        <v>6591990</v>
       </c>
       <c r="B228" s="66"/>
       <c r="C228" s="71" t="s">
@@ -56649,8 +56822,8 @@
       </c>
     </row>
     <row r="229" spans="1:12" ht="15" customHeight="1">
-      <c r="A229" s="61" t="s">
-        <v>227</v>
+      <c r="A229" s="124">
+        <v>6591990</v>
       </c>
       <c r="B229" s="59">
         <v>17</v>
@@ -56682,8 +56855,8 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="15" customHeight="1">
-      <c r="A230" s="61" t="s">
-        <v>227</v>
+      <c r="A230" s="124">
+        <v>6591990</v>
       </c>
       <c r="B230" s="69"/>
       <c r="C230" s="82" t="s">
@@ -56714,8 +56887,8 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1">
-      <c r="A231" s="61" t="s">
-        <v>227</v>
+      <c r="A231" s="124">
+        <v>6591990</v>
       </c>
       <c r="B231" s="59"/>
       <c r="C231" s="81"/>
@@ -56739,8 +56912,8 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="15" customHeight="1">
-      <c r="A232" s="61" t="s">
-        <v>227</v>
+      <c r="A232" s="124">
+        <v>6591990</v>
       </c>
       <c r="B232" s="59"/>
       <c r="C232" s="81" t="s">
@@ -56772,8 +56945,8 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A233" s="61" t="s">
-        <v>227</v>
+      <c r="A233" s="124">
+        <v>6591990</v>
       </c>
       <c r="B233" s="64"/>
       <c r="C233" s="71" t="s">
@@ -56806,8 +56979,8 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1">
-      <c r="A234" s="61" t="s">
-        <v>227</v>
+      <c r="A234" s="124">
+        <v>6591990</v>
       </c>
       <c r="B234" s="66"/>
       <c r="C234" s="71" t="s">
@@ -56838,8 +57011,8 @@
       </c>
     </row>
     <row r="235" spans="1:12" ht="15" customHeight="1">
-      <c r="A235" s="61" t="s">
-        <v>227</v>
+      <c r="A235" s="124">
+        <v>6591990</v>
       </c>
       <c r="B235" s="59"/>
       <c r="C235" s="81" t="s">
@@ -56871,8 +57044,8 @@
       </c>
     </row>
     <row r="236" spans="1:12" ht="15" customHeight="1">
-      <c r="A236" s="61" t="s">
-        <v>227</v>
+      <c r="A236" s="124">
+        <v>6591990</v>
       </c>
       <c r="B236" s="59">
         <v>19</v>
@@ -56904,8 +57077,8 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="15" customHeight="1">
-      <c r="A237" s="61" t="s">
-        <v>227</v>
+      <c r="A237" s="124">
+        <v>6591990</v>
       </c>
       <c r="B237" s="59"/>
       <c r="C237" s="81"/>
@@ -56926,8 +57099,8 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="15" customHeight="1">
-      <c r="A238" s="61" t="s">
-        <v>227</v>
+      <c r="A238" s="124">
+        <v>6591990</v>
       </c>
       <c r="B238" s="59"/>
       <c r="C238" s="81"/>
@@ -56948,8 +57121,8 @@
       </c>
     </row>
     <row r="239" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A239" s="61" t="s">
-        <v>227</v>
+      <c r="A239" s="124">
+        <v>6591990</v>
       </c>
       <c r="B239" s="64"/>
       <c r="C239" s="71" t="s">
@@ -56982,11 +57155,11 @@
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1">
-      <c r="A240" s="61" t="s">
-        <v>227</v>
+      <c r="A240" s="124">
+        <v>6591990</v>
       </c>
       <c r="B240" s="70"/>
-      <c r="C240" s="151" t="s">
+      <c r="C240" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D240" s="70" t="s">
@@ -57014,8 +57187,8 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="15" customHeight="1">
-      <c r="A241" s="61" t="s">
-        <v>227</v>
+      <c r="A241" s="124">
+        <v>6591990</v>
       </c>
       <c r="B241" s="59">
         <v>17</v>
@@ -57045,8 +57218,8 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1">
-      <c r="A242" s="61" t="s">
-        <v>227</v>
+      <c r="A242" s="124">
+        <v>6591990</v>
       </c>
       <c r="B242" s="59">
         <v>17</v>
@@ -57074,8 +57247,8 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A243" s="61" t="s">
-        <v>227</v>
+      <c r="A243" s="124">
+        <v>6591990</v>
       </c>
       <c r="B243" s="59">
         <v>17</v>
@@ -57109,8 +57282,8 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="15" customHeight="1">
-      <c r="A244" s="61" t="s">
-        <v>227</v>
+      <c r="A244" s="124">
+        <v>6591990</v>
       </c>
       <c r="B244" s="59">
         <v>17</v>
@@ -57144,8 +57317,8 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1">
-      <c r="A245" s="61" t="s">
-        <v>227</v>
+      <c r="A245" s="124">
+        <v>6591990</v>
       </c>
       <c r="B245" s="59"/>
       <c r="C245" s="81"/>
@@ -57172,8 +57345,8 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1">
-      <c r="A246" s="61" t="s">
-        <v>227</v>
+      <c r="A246" s="124">
+        <v>6591990</v>
       </c>
       <c r="B246" s="66"/>
       <c r="C246" s="71" t="s">
@@ -57204,8 +57377,8 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1">
-      <c r="A247" s="61" t="s">
-        <v>227</v>
+      <c r="A247" s="124">
+        <v>6591990</v>
       </c>
       <c r="B247" s="59"/>
       <c r="C247" s="81"/>
@@ -57232,19 +57405,19 @@
       <c r="C250" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="D250" s="148"/>
-      <c r="E250" s="148"/>
-      <c r="F250" s="148"/>
-      <c r="G250" s="148"/>
-      <c r="H250" s="148"/>
-      <c r="I250" s="148"/>
-      <c r="J250" s="148"/>
+      <c r="D250" s="150"/>
+      <c r="E250" s="150"/>
+      <c r="F250" s="150"/>
+      <c r="G250" s="150"/>
+      <c r="H250" s="150"/>
+      <c r="I250" s="150"/>
+      <c r="J250" s="150"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
     <row r="251" spans="1:12" ht="15" customHeight="1">
-      <c r="A251" s="61" t="s">
-        <v>227</v>
+      <c r="A251" s="124">
+        <v>6591991</v>
       </c>
       <c r="B251" s="59"/>
       <c r="C251" s="81"/>
@@ -57267,8 +57440,8 @@
       </c>
     </row>
     <row r="252" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A252" s="61" t="s">
-        <v>227</v>
+      <c r="A252" s="124">
+        <v>6591991</v>
       </c>
       <c r="B252" s="48"/>
       <c r="C252" s="50" t="s">
@@ -57297,8 +57470,8 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="15" customHeight="1">
-      <c r="A253" s="61" t="s">
-        <v>227</v>
+      <c r="A253" s="124">
+        <v>6591991</v>
       </c>
       <c r="B253" s="59"/>
       <c r="C253" s="81" t="s">
@@ -57323,8 +57496,8 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="15" customHeight="1">
-      <c r="A254" s="61" t="s">
-        <v>227</v>
+      <c r="A254" s="124">
+        <v>6591991</v>
       </c>
       <c r="B254" s="59"/>
       <c r="C254" s="81"/>
@@ -57351,8 +57524,8 @@
       </c>
     </row>
     <row r="255" spans="1:12" ht="15" customHeight="1">
-      <c r="A255" s="61" t="s">
-        <v>227</v>
+      <c r="A255" s="124">
+        <v>6591991</v>
       </c>
       <c r="B255" s="59"/>
       <c r="C255" s="81" t="s">
@@ -57384,8 +57557,8 @@
       </c>
     </row>
     <row r="256" spans="1:12" ht="15" customHeight="1">
-      <c r="A256" s="61" t="s">
-        <v>227</v>
+      <c r="A256" s="124">
+        <v>6591991</v>
       </c>
       <c r="B256" s="59"/>
       <c r="C256" s="81"/>
@@ -57408,8 +57581,8 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1">
-      <c r="A257" s="61" t="s">
-        <v>227</v>
+      <c r="A257" s="124">
+        <v>6591991</v>
       </c>
       <c r="B257" s="59"/>
       <c r="C257" s="81" t="s">
@@ -57441,8 +57614,8 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A258" s="61" t="s">
-        <v>227</v>
+      <c r="A258" s="124">
+        <v>6591991</v>
       </c>
       <c r="B258" s="64"/>
       <c r="C258" s="71" t="s">
@@ -57475,8 +57648,8 @@
       </c>
     </row>
     <row r="259" spans="1:12" ht="15" customHeight="1">
-      <c r="A259" s="61" t="s">
-        <v>227</v>
+      <c r="A259" s="124">
+        <v>6591991</v>
       </c>
       <c r="B259" s="66"/>
       <c r="C259" s="71" t="s">
@@ -57509,8 +57682,8 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="15" customHeight="1">
-      <c r="A260" s="61" t="s">
-        <v>227</v>
+      <c r="A260" s="124">
+        <v>6591991</v>
       </c>
       <c r="B260" s="59"/>
       <c r="C260" s="81" t="s">
@@ -57542,8 +57715,8 @@
       </c>
     </row>
     <row r="261" spans="1:12" ht="15" customHeight="1">
-      <c r="A261" s="61" t="s">
-        <v>227</v>
+      <c r="A261" s="124">
+        <v>6591991</v>
       </c>
       <c r="B261" s="59">
         <v>19</v>
@@ -57575,8 +57748,8 @@
       </c>
     </row>
     <row r="262" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A262" s="61" t="s">
-        <v>227</v>
+      <c r="A262" s="124">
+        <v>6591991</v>
       </c>
       <c r="B262" s="59"/>
       <c r="C262" s="81"/>
@@ -57597,8 +57770,8 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="15" customHeight="1">
-      <c r="A263" s="61" t="s">
-        <v>227</v>
+      <c r="A263" s="124">
+        <v>6591991</v>
       </c>
       <c r="B263" s="59"/>
       <c r="C263" s="81"/>
@@ -57619,8 +57792,8 @@
       </c>
     </row>
     <row r="264" spans="1:12" ht="15" customHeight="1">
-      <c r="A264" s="61" t="s">
-        <v>227</v>
+      <c r="A264" s="124">
+        <v>6591991</v>
       </c>
       <c r="B264" s="66"/>
       <c r="C264" s="71" t="s">
@@ -57653,8 +57826,8 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="15" customHeight="1">
-      <c r="A265" s="61" t="s">
-        <v>227</v>
+      <c r="A265" s="124">
+        <v>6591991</v>
       </c>
       <c r="B265" s="66"/>
       <c r="C265" s="71" t="s">
@@ -57687,8 +57860,8 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="15" customHeight="1">
-      <c r="A266" s="61" t="s">
-        <v>227</v>
+      <c r="A266" s="124">
+        <v>6591991</v>
       </c>
       <c r="B266" s="59">
         <v>17</v>
@@ -57720,8 +57893,8 @@
       </c>
     </row>
     <row r="267" spans="1:12" ht="15" customHeight="1">
-      <c r="A267" s="61" t="s">
-        <v>227</v>
+      <c r="A267" s="124">
+        <v>6591991</v>
       </c>
       <c r="B267" s="69"/>
       <c r="C267" s="82" t="s">
@@ -57752,8 +57925,8 @@
       </c>
     </row>
     <row r="268" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A268" s="61" t="s">
-        <v>227</v>
+      <c r="A268" s="124">
+        <v>6591991</v>
       </c>
       <c r="B268" s="59"/>
       <c r="C268" s="81"/>
@@ -57777,8 +57950,8 @@
       </c>
     </row>
     <row r="269" spans="1:12" ht="15" customHeight="1">
-      <c r="A269" s="61" t="s">
-        <v>227</v>
+      <c r="A269" s="124">
+        <v>6591991</v>
       </c>
       <c r="B269" s="59"/>
       <c r="C269" s="81" t="s">
@@ -57810,8 +57983,8 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1">
-      <c r="A270" s="61" t="s">
-        <v>227</v>
+      <c r="A270" s="124">
+        <v>6591991</v>
       </c>
       <c r="B270" s="64"/>
       <c r="C270" s="71" t="s">
@@ -57844,8 +58017,8 @@
       </c>
     </row>
     <row r="271" spans="1:12" ht="15" customHeight="1">
-      <c r="A271" s="61" t="s">
-        <v>227</v>
+      <c r="A271" s="124">
+        <v>6591991</v>
       </c>
       <c r="B271" s="66"/>
       <c r="C271" s="71" t="s">
@@ -57876,8 +58049,8 @@
       </c>
     </row>
     <row r="272" spans="1:12" ht="15" customHeight="1">
-      <c r="A272" s="61" t="s">
-        <v>227</v>
+      <c r="A272" s="124">
+        <v>6591991</v>
       </c>
       <c r="B272" s="59"/>
       <c r="C272" s="81" t="s">
@@ -57909,8 +58082,8 @@
       </c>
     </row>
     <row r="273" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A273" s="61" t="s">
-        <v>227</v>
+      <c r="A273" s="124">
+        <v>6591991</v>
       </c>
       <c r="B273" s="59">
         <v>19</v>
@@ -57942,8 +58115,8 @@
       </c>
     </row>
     <row r="274" spans="1:12" ht="15" customHeight="1">
-      <c r="A274" s="61" t="s">
-        <v>227</v>
+      <c r="A274" s="124">
+        <v>6591991</v>
       </c>
       <c r="B274" s="59"/>
       <c r="C274" s="81"/>
@@ -57964,8 +58137,8 @@
       </c>
     </row>
     <row r="275" spans="1:12" ht="15" customHeight="1">
-      <c r="A275" s="61" t="s">
-        <v>227</v>
+      <c r="A275" s="124">
+        <v>6591991</v>
       </c>
       <c r="B275" s="59"/>
       <c r="C275" s="81"/>
@@ -57986,8 +58159,8 @@
       </c>
     </row>
     <row r="276" spans="1:12" ht="15" customHeight="1">
-      <c r="A276" s="61" t="s">
-        <v>227</v>
+      <c r="A276" s="124">
+        <v>6591991</v>
       </c>
       <c r="B276" s="64"/>
       <c r="C276" s="71" t="s">
@@ -58020,11 +58193,11 @@
       </c>
     </row>
     <row r="277" spans="1:12" ht="15" customHeight="1">
-      <c r="A277" s="61" t="s">
-        <v>227</v>
+      <c r="A277" s="124">
+        <v>6591991</v>
       </c>
       <c r="B277" s="70"/>
-      <c r="C277" s="151" t="s">
+      <c r="C277" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D277" s="70" t="s">
@@ -58052,8 +58225,8 @@
       </c>
     </row>
     <row r="278" spans="1:12" ht="15" customHeight="1">
-      <c r="A278" s="61" t="s">
-        <v>227</v>
+      <c r="A278" s="124">
+        <v>6591991</v>
       </c>
       <c r="B278" s="59">
         <v>17</v>
@@ -58083,8 +58256,8 @@
       </c>
     </row>
     <row r="279" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A279" s="61" t="s">
-        <v>227</v>
+      <c r="A279" s="124">
+        <v>6591991</v>
       </c>
       <c r="B279" s="59">
         <v>17</v>
@@ -58112,8 +58285,8 @@
       </c>
     </row>
     <row r="280" spans="1:12" ht="15" customHeight="1">
-      <c r="A280" s="61" t="s">
-        <v>227</v>
+      <c r="A280" s="124">
+        <v>6591991</v>
       </c>
       <c r="B280" s="59">
         <v>17</v>
@@ -58147,8 +58320,8 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="15" customHeight="1">
-      <c r="A281" s="61" t="s">
-        <v>227</v>
+      <c r="A281" s="124">
+        <v>6591991</v>
       </c>
       <c r="B281" s="59">
         <v>17</v>
@@ -58182,8 +58355,8 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="15" customHeight="1">
-      <c r="A282" s="61" t="s">
-        <v>227</v>
+      <c r="A282" s="124">
+        <v>6591991</v>
       </c>
       <c r="B282" s="59"/>
       <c r="C282" s="81"/>
@@ -58210,8 +58383,8 @@
       </c>
     </row>
     <row r="283" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A283" s="61" t="s">
-        <v>227</v>
+      <c r="A283" s="124">
+        <v>6591991</v>
       </c>
       <c r="B283" s="66"/>
       <c r="C283" s="71" t="s">
@@ -58242,8 +58415,8 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="15" customHeight="1">
-      <c r="A284" s="61" t="s">
-        <v>227</v>
+      <c r="A284" s="124">
+        <v>6591991</v>
       </c>
       <c r="B284" s="59"/>
       <c r="C284" s="81"/>
@@ -58272,21 +58445,21 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="147" t="s">
+      <c r="C323" s="151" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="148"/>
-      <c r="E323" s="148"/>
-      <c r="F323" s="148"/>
-      <c r="G323" s="148"/>
-      <c r="H323" s="148"/>
-      <c r="I323" s="148"/>
-      <c r="J323" s="148"/>
+      <c r="D323" s="150"/>
+      <c r="E323" s="150"/>
+      <c r="F323" s="150"/>
+      <c r="G323" s="150"/>
+      <c r="H323" s="150"/>
+      <c r="I323" s="150"/>
+      <c r="J323" s="150"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
     <row r="325" spans="1:12" ht="15" customHeight="1">
-      <c r="A325" s="128">
+      <c r="A325" s="127">
         <v>6591992</v>
       </c>
       <c r="B325" s="59"/>
@@ -58310,7 +58483,7 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="15" customHeight="1">
-      <c r="A326" s="128">
+      <c r="A326" s="127">
         <v>6591992</v>
       </c>
       <c r="B326" s="59"/>
@@ -58336,7 +58509,7 @@
       </c>
     </row>
     <row r="327" spans="1:12" ht="15" customHeight="1">
-      <c r="A327" s="128">
+      <c r="A327" s="127">
         <v>6591992</v>
       </c>
       <c r="B327" s="59"/>
@@ -58369,7 +58542,7 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="15" customHeight="1">
-      <c r="A328" s="128">
+      <c r="A328" s="127">
         <v>6591992</v>
       </c>
       <c r="B328" s="59"/>
@@ -58391,7 +58564,7 @@
       </c>
     </row>
     <row r="329" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
-      <c r="A329" s="152">
+      <c r="A329" s="131">
         <v>6591992</v>
       </c>
       <c r="B329" s="83"/>
@@ -58416,7 +58589,7 @@
       <c r="I329" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J329" s="129" t="s">
+      <c r="J329" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L329" s="91">
@@ -58424,7 +58597,7 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="15" customHeight="1">
-      <c r="A330" s="128">
+      <c r="A330" s="127">
         <v>6591992</v>
       </c>
       <c r="B330" s="64"/>
@@ -58458,7 +58631,7 @@
       </c>
     </row>
     <row r="331" spans="1:12" ht="15" customHeight="1">
-      <c r="A331" s="128">
+      <c r="A331" s="127">
         <v>6591992</v>
       </c>
       <c r="B331" s="66"/>
@@ -58492,7 +58665,7 @@
       </c>
     </row>
     <row r="332" spans="1:12" ht="15" customHeight="1">
-      <c r="A332" s="128">
+      <c r="A332" s="127">
         <v>6591992</v>
       </c>
       <c r="B332" s="59"/>
@@ -58525,7 +58698,7 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="15" customHeight="1">
-      <c r="A333" s="128">
+      <c r="A333" s="127">
         <v>6591992</v>
       </c>
       <c r="B333" s="59">
@@ -58558,7 +58731,7 @@
       </c>
     </row>
     <row r="334" spans="1:12" ht="15" customHeight="1">
-      <c r="A334" s="128">
+      <c r="A334" s="127">
         <v>6591992</v>
       </c>
       <c r="B334" s="59"/>
@@ -58580,7 +58753,7 @@
       </c>
     </row>
     <row r="335" spans="1:12" ht="15" customHeight="1">
-      <c r="A335" s="128">
+      <c r="A335" s="127">
         <v>6591992</v>
       </c>
       <c r="B335" s="59"/>
@@ -58602,7 +58775,7 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="15" customHeight="1">
-      <c r="A336" s="128">
+      <c r="A336" s="127">
         <v>6591992</v>
       </c>
       <c r="B336" s="66"/>
@@ -58636,7 +58809,7 @@
       </c>
     </row>
     <row r="337" spans="1:12" ht="15" customHeight="1">
-      <c r="A337" s="128">
+      <c r="A337" s="127">
         <v>6591992</v>
       </c>
       <c r="B337" s="66"/>
@@ -58670,7 +58843,7 @@
       </c>
     </row>
     <row r="338" spans="1:12" ht="15" customHeight="1">
-      <c r="A338" s="128">
+      <c r="A338" s="127">
         <v>6591992</v>
       </c>
       <c r="B338" s="59">
@@ -58703,7 +58876,7 @@
       </c>
     </row>
     <row r="339" spans="1:12" ht="15" customHeight="1">
-      <c r="A339" s="128">
+      <c r="A339" s="127">
         <v>6591992</v>
       </c>
       <c r="B339" s="69"/>
@@ -58735,7 +58908,7 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="15" customHeight="1">
-      <c r="A340" s="128">
+      <c r="A340" s="127">
         <v>6591992</v>
       </c>
       <c r="B340" s="59"/>
@@ -58760,7 +58933,7 @@
       </c>
     </row>
     <row r="341" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
-      <c r="A341" s="152">
+      <c r="A341" s="131">
         <v>6591992</v>
       </c>
       <c r="B341" s="83"/>
@@ -58785,7 +58958,7 @@
       <c r="I341" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J341" s="129" t="s">
+      <c r="J341" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L341" s="91">
@@ -58793,7 +58966,7 @@
       </c>
     </row>
     <row r="342" spans="1:12" ht="15" customHeight="1">
-      <c r="A342" s="128">
+      <c r="A342" s="127">
         <v>6591992</v>
       </c>
       <c r="B342" s="64"/>
@@ -58827,7 +59000,7 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="15" customHeight="1">
-      <c r="A343" s="128">
+      <c r="A343" s="127">
         <v>6591992</v>
       </c>
       <c r="B343" s="66"/>
@@ -58859,7 +59032,7 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="15" customHeight="1">
-      <c r="A344" s="128">
+      <c r="A344" s="127">
         <v>6591992</v>
       </c>
       <c r="B344" s="59"/>
@@ -58892,7 +59065,7 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="15" customHeight="1">
-      <c r="A345" s="128">
+      <c r="A345" s="127">
         <v>6591992</v>
       </c>
       <c r="B345" s="59">
@@ -58925,7 +59098,7 @@
       </c>
     </row>
     <row r="346" spans="1:12" ht="15" customHeight="1">
-      <c r="A346" s="128">
+      <c r="A346" s="127">
         <v>6591992</v>
       </c>
       <c r="B346" s="59"/>
@@ -58947,7 +59120,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="15" customHeight="1">
-      <c r="A347" s="128">
+      <c r="A347" s="127">
         <v>6591992</v>
       </c>
       <c r="B347" s="59"/>
@@ -58969,7 +59142,7 @@
       </c>
     </row>
     <row r="348" spans="1:12" ht="15" customHeight="1">
-      <c r="A348" s="128">
+      <c r="A348" s="127">
         <v>6591992</v>
       </c>
       <c r="B348" s="64"/>
@@ -59003,7 +59176,7 @@
       </c>
     </row>
     <row r="349" spans="1:12" ht="15" customHeight="1">
-      <c r="A349" s="128">
+      <c r="A349" s="127">
         <v>6591992</v>
       </c>
       <c r="B349" s="70"/>
@@ -59035,7 +59208,7 @@
       </c>
     </row>
     <row r="350" spans="1:12" ht="15" customHeight="1">
-      <c r="A350" s="128">
+      <c r="A350" s="127">
         <v>6591992</v>
       </c>
       <c r="B350" s="59">
@@ -59066,7 +59239,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" ht="15" customHeight="1">
-      <c r="A351" s="128">
+      <c r="A351" s="127">
         <v>6591992</v>
       </c>
       <c r="B351" s="59">
@@ -59095,7 +59268,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" ht="15" customHeight="1">
-      <c r="A352" s="128">
+      <c r="A352" s="127">
         <v>6591992</v>
       </c>
       <c r="B352" s="59">
@@ -59128,7 +59301,7 @@
       </c>
     </row>
     <row r="353" spans="1:12" ht="15" customHeight="1">
-      <c r="A353" s="128">
+      <c r="A353" s="127">
         <v>6591992</v>
       </c>
       <c r="B353" s="59">
@@ -59161,7 +59334,7 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="15" customHeight="1">
-      <c r="A354" s="128">
+      <c r="A354" s="127">
         <v>6591992</v>
       </c>
       <c r="B354" s="59"/>
@@ -59187,7 +59360,7 @@
       </c>
     </row>
     <row r="355" spans="1:12" ht="15" customHeight="1">
-      <c r="A355" s="128">
+      <c r="A355" s="127">
         <v>6591992</v>
       </c>
       <c r="B355" s="66"/>
@@ -59219,7 +59392,7 @@
       </c>
     </row>
     <row r="356" spans="1:12" ht="15" customHeight="1">
-      <c r="A356" s="128">
+      <c r="A356" s="127">
         <v>6591992</v>
       </c>
       <c r="B356" s="59"/>
@@ -59246,21 +59419,21 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="147" t="s">
+      <c r="C359" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="148"/>
-      <c r="E359" s="148"/>
-      <c r="F359" s="148"/>
-      <c r="G359" s="148"/>
-      <c r="H359" s="148"/>
-      <c r="I359" s="148"/>
-      <c r="J359" s="148"/>
+      <c r="D359" s="150"/>
+      <c r="E359" s="150"/>
+      <c r="F359" s="150"/>
+      <c r="G359" s="150"/>
+      <c r="H359" s="150"/>
+      <c r="I359" s="150"/>
+      <c r="J359" s="150"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
     <row r="361" spans="1:12" ht="15" customHeight="1">
-      <c r="A361" s="128">
+      <c r="A361" s="127">
         <v>6591993</v>
       </c>
       <c r="B361" s="59"/>
@@ -59284,7 +59457,7 @@
       </c>
     </row>
     <row r="362" spans="1:12" ht="15" customHeight="1">
-      <c r="A362" s="128">
+      <c r="A362" s="127">
         <v>6591993</v>
       </c>
       <c r="B362" s="59"/>
@@ -59310,7 +59483,7 @@
       </c>
     </row>
     <row r="363" spans="1:12" ht="15" customHeight="1">
-      <c r="A363" s="128">
+      <c r="A363" s="127">
         <v>6591993</v>
       </c>
       <c r="B363" s="59"/>
@@ -59343,7 +59516,7 @@
       </c>
     </row>
     <row r="364" spans="1:12" ht="15" customHeight="1">
-      <c r="A364" s="128">
+      <c r="A364" s="127">
         <v>6591993</v>
       </c>
       <c r="B364" s="59"/>
@@ -59365,7 +59538,7 @@
       </c>
     </row>
     <row r="365" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
-      <c r="A365" s="152">
+      <c r="A365" s="131">
         <v>6591993</v>
       </c>
       <c r="B365" s="83"/>
@@ -59390,7 +59563,7 @@
       <c r="I365" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J365" s="129" t="s">
+      <c r="J365" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L365" s="91">
@@ -59398,7 +59571,7 @@
       </c>
     </row>
     <row r="366" spans="1:12" ht="15" customHeight="1">
-      <c r="A366" s="128">
+      <c r="A366" s="127">
         <v>6591993</v>
       </c>
       <c r="B366" s="64"/>
@@ -59432,7 +59605,7 @@
       </c>
     </row>
     <row r="367" spans="1:12" ht="15" customHeight="1">
-      <c r="A367" s="128">
+      <c r="A367" s="127">
         <v>6591993</v>
       </c>
       <c r="B367" s="66"/>
@@ -59466,7 +59639,7 @@
       </c>
     </row>
     <row r="368" spans="1:12" ht="15" customHeight="1">
-      <c r="A368" s="128">
+      <c r="A368" s="127">
         <v>6591993</v>
       </c>
       <c r="B368" s="59"/>
@@ -59499,7 +59672,7 @@
       </c>
     </row>
     <row r="369" spans="1:12" ht="15" customHeight="1">
-      <c r="A369" s="128">
+      <c r="A369" s="127">
         <v>6591993</v>
       </c>
       <c r="B369" s="59">
@@ -59532,7 +59705,7 @@
       </c>
     </row>
     <row r="370" spans="1:12" ht="15" customHeight="1">
-      <c r="A370" s="128">
+      <c r="A370" s="127">
         <v>6591993</v>
       </c>
       <c r="B370" s="59"/>
@@ -59554,7 +59727,7 @@
       </c>
     </row>
     <row r="371" spans="1:12" ht="15" customHeight="1">
-      <c r="A371" s="128">
+      <c r="A371" s="127">
         <v>6591993</v>
       </c>
       <c r="B371" s="59"/>
@@ -59576,7 +59749,7 @@
       </c>
     </row>
     <row r="372" spans="1:12" ht="15" customHeight="1">
-      <c r="A372" s="128">
+      <c r="A372" s="127">
         <v>6591993</v>
       </c>
       <c r="B372" s="66"/>
@@ -59610,7 +59783,7 @@
       </c>
     </row>
     <row r="373" spans="1:12" ht="15" customHeight="1">
-      <c r="A373" s="128">
+      <c r="A373" s="127">
         <v>6591993</v>
       </c>
       <c r="B373" s="66"/>
@@ -59644,7 +59817,7 @@
       </c>
     </row>
     <row r="374" spans="1:12" ht="15" customHeight="1">
-      <c r="A374" s="128">
+      <c r="A374" s="127">
         <v>6591993</v>
       </c>
       <c r="B374" s="59">
@@ -59677,7 +59850,7 @@
       </c>
     </row>
     <row r="375" spans="1:12" ht="15" customHeight="1">
-      <c r="A375" s="128">
+      <c r="A375" s="127">
         <v>6591993</v>
       </c>
       <c r="B375" s="69"/>
@@ -59709,7 +59882,7 @@
       </c>
     </row>
     <row r="376" spans="1:12" ht="15" customHeight="1">
-      <c r="A376" s="128">
+      <c r="A376" s="127">
         <v>6591993</v>
       </c>
       <c r="B376" s="59"/>
@@ -59734,7 +59907,7 @@
       </c>
     </row>
     <row r="377" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
-      <c r="A377" s="152">
+      <c r="A377" s="131">
         <v>6591993</v>
       </c>
       <c r="B377" s="83"/>
@@ -59759,7 +59932,7 @@
       <c r="I377" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J377" s="129" t="s">
+      <c r="J377" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L377" s="91">
@@ -59767,7 +59940,7 @@
       </c>
     </row>
     <row r="378" spans="1:12" ht="15" customHeight="1">
-      <c r="A378" s="128">
+      <c r="A378" s="127">
         <v>6591993</v>
       </c>
       <c r="B378" s="64"/>
@@ -59801,7 +59974,7 @@
       </c>
     </row>
     <row r="379" spans="1:12" ht="15" customHeight="1">
-      <c r="A379" s="128">
+      <c r="A379" s="127">
         <v>6591993</v>
       </c>
       <c r="B379" s="66"/>
@@ -59833,7 +60006,7 @@
       </c>
     </row>
     <row r="380" spans="1:12" ht="15" customHeight="1">
-      <c r="A380" s="128">
+      <c r="A380" s="127">
         <v>6591993</v>
       </c>
       <c r="B380" s="59"/>
@@ -59866,7 +60039,7 @@
       </c>
     </row>
     <row r="381" spans="1:12" ht="15" customHeight="1">
-      <c r="A381" s="128">
+      <c r="A381" s="127">
         <v>6591993</v>
       </c>
       <c r="B381" s="59">
@@ -59899,7 +60072,7 @@
       </c>
     </row>
     <row r="382" spans="1:12" ht="15" customHeight="1">
-      <c r="A382" s="128">
+      <c r="A382" s="127">
         <v>6591993</v>
       </c>
       <c r="B382" s="59"/>
@@ -59921,7 +60094,7 @@
       </c>
     </row>
     <row r="383" spans="1:12" ht="15" customHeight="1">
-      <c r="A383" s="128">
+      <c r="A383" s="127">
         <v>6591993</v>
       </c>
       <c r="B383" s="59"/>
@@ -59943,7 +60116,7 @@
       </c>
     </row>
     <row r="384" spans="1:12" ht="15" customHeight="1">
-      <c r="A384" s="128">
+      <c r="A384" s="127">
         <v>6591993</v>
       </c>
       <c r="B384" s="64"/>
@@ -59977,7 +60150,7 @@
       </c>
     </row>
     <row r="385" spans="1:12" ht="15" customHeight="1">
-      <c r="A385" s="128">
+      <c r="A385" s="127">
         <v>6591993</v>
       </c>
       <c r="B385" s="70"/>
@@ -60009,7 +60182,7 @@
       </c>
     </row>
     <row r="386" spans="1:12" ht="15" customHeight="1">
-      <c r="A386" s="128">
+      <c r="A386" s="127">
         <v>6591993</v>
       </c>
       <c r="B386" s="59">
@@ -60040,7 +60213,7 @@
       </c>
     </row>
     <row r="387" spans="1:12" ht="15" customHeight="1">
-      <c r="A387" s="128">
+      <c r="A387" s="127">
         <v>6591993</v>
       </c>
       <c r="B387" s="59">
@@ -60069,7 +60242,7 @@
       </c>
     </row>
     <row r="388" spans="1:12" ht="15" customHeight="1">
-      <c r="A388" s="128">
+      <c r="A388" s="127">
         <v>6591993</v>
       </c>
       <c r="B388" s="59">
@@ -60102,7 +60275,7 @@
       </c>
     </row>
     <row r="389" spans="1:12" ht="15" customHeight="1">
-      <c r="A389" s="128">
+      <c r="A389" s="127">
         <v>6591993</v>
       </c>
       <c r="B389" s="59">
@@ -60135,7 +60308,7 @@
       </c>
     </row>
     <row r="390" spans="1:12" ht="15" customHeight="1">
-      <c r="A390" s="128">
+      <c r="A390" s="127">
         <v>6591993</v>
       </c>
       <c r="B390" s="59"/>
@@ -60161,7 +60334,7 @@
       </c>
     </row>
     <row r="391" spans="1:12" ht="15" customHeight="1">
-      <c r="A391" s="128">
+      <c r="A391" s="127">
         <v>6591993</v>
       </c>
       <c r="B391" s="66"/>
@@ -60193,7 +60366,7 @@
       </c>
     </row>
     <row r="392" spans="1:12" ht="15" customHeight="1">
-      <c r="A392" s="128">
+      <c r="A392" s="127">
         <v>6591993</v>
       </c>
       <c r="B392" s="59"/>
@@ -60220,13 +60393,13 @@
       <c r="C395" s="149" t="s">
         <v>231</v>
       </c>
-      <c r="D395" s="148"/>
-      <c r="E395" s="148"/>
-      <c r="F395" s="148"/>
-      <c r="G395" s="148"/>
-      <c r="H395" s="148"/>
-      <c r="I395" s="148"/>
-      <c r="J395" s="148"/>
+      <c r="D395" s="150"/>
+      <c r="E395" s="150"/>
+      <c r="F395" s="150"/>
+      <c r="G395" s="150"/>
+      <c r="H395" s="150"/>
+      <c r="I395" s="150"/>
+      <c r="J395" s="150"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
@@ -60421,7 +60594,7 @@
       <c r="I402" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J402" s="129" t="s">
+      <c r="J402" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L402" s="91">
@@ -60790,7 +60963,7 @@
       <c r="I414" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J414" s="129" t="s">
+      <c r="J414" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L414" s="91">
@@ -61012,7 +61185,7 @@
         <v>227</v>
       </c>
       <c r="B422" s="70"/>
-      <c r="C422" s="151" t="s">
+      <c r="C422" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D422" s="70" t="s">
@@ -61257,13 +61430,13 @@
       <c r="C431" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="D431" s="148"/>
-      <c r="E431" s="148"/>
-      <c r="F431" s="148"/>
-      <c r="G431" s="148"/>
-      <c r="H431" s="148"/>
-      <c r="I431" s="148"/>
-      <c r="J431" s="148"/>
+      <c r="D431" s="150"/>
+      <c r="E431" s="150"/>
+      <c r="F431" s="150"/>
+      <c r="G431" s="150"/>
+      <c r="H431" s="150"/>
+      <c r="I431" s="150"/>
+      <c r="J431" s="150"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>
@@ -61458,7 +61631,7 @@
       <c r="I438" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J438" s="129" t="s">
+      <c r="J438" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L438" s="91">
@@ -61827,7 +62000,7 @@
       <c r="I450" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J450" s="129" t="s">
+      <c r="J450" s="128" t="s">
         <v>30</v>
       </c>
       <c r="L450" s="91">
@@ -62049,7 +62222,7 @@
         <v>227</v>
       </c>
       <c r="B458" s="70"/>
-      <c r="C458" s="151" t="s">
+      <c r="C458" s="130" t="s">
         <v>194</v>
       </c>
       <c r="D458" s="70" t="s">
@@ -62291,18 +62464,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C323:J323"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C106:J106"/>
     <mergeCell ref="C395:J395"/>
     <mergeCell ref="C142:J142"/>
     <mergeCell ref="C431:J431"/>
     <mergeCell ref="C213:J213"/>
     <mergeCell ref="C250:J250"/>
     <mergeCell ref="C359:J359"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C323:J323"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="20490" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="241">
   <si>
     <t>TC_ID</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t>13th Period - Lessor - Operating - Validate user is able to Add Revision</t>
+  </si>
+  <si>
+    <t>TCEnv105</t>
+  </si>
+  <si>
+    <t>TCEnv106</t>
   </si>
 </sst>
 </file>
@@ -1531,6 +1537,11 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1569,11 +1580,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4988,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5093,7 +5099,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>27</v>
@@ -5365,10 +5371,10 @@
       <c r="A15" s="63">
         <v>13</v>
       </c>
-      <c r="B15" s="152">
+      <c r="B15" s="132">
         <v>6579744</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="132" t="s">
         <v>224</v>
       </c>
       <c r="D15" s="99" t="s">
@@ -5390,10 +5396,10 @@
       <c r="A16" s="63">
         <v>13</v>
       </c>
-      <c r="B16" s="152">
+      <c r="B16" s="132">
         <v>6579785</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="132" t="s">
         <v>228</v>
       </c>
       <c r="D16" s="99" t="s">
@@ -5452,13 +5458,16 @@
         <v>71</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>27</v>
+      </c>
+      <c r="I19" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5669,7 +5678,7 @@
       <c r="B30" s="124">
         <v>6591989</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="132" t="s">
         <v>220</v>
       </c>
       <c r="D30" s="99" t="s">
@@ -5690,7 +5699,7 @@
       <c r="B31" s="124">
         <v>6591990</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="132" t="s">
         <v>236</v>
       </c>
       <c r="D31" s="99" t="s">
@@ -5711,7 +5720,7 @@
       <c r="B32" s="124">
         <v>6591991</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="132" t="s">
         <v>237</v>
       </c>
       <c r="D32" s="99" t="s">
@@ -5725,10 +5734,10 @@
       </c>
       <c r="I32" s="125"/>
     </row>
-    <row r="33" spans="1:26" s="153" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
+    <row r="33" spans="1:26" s="133" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="113"/>
@@ -5779,6 +5788,9 @@
       <c r="F35" s="62" t="s">
         <v>27</v>
       </c>
+      <c r="I35" s="118" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="62">
@@ -6068,7 +6080,7 @@
       <c r="B46" s="124">
         <v>6591993</v>
       </c>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="132" t="s">
         <v>238</v>
       </c>
       <c r="D46" s="99" t="s">
@@ -6089,7 +6101,7 @@
       <c r="B47" s="127">
         <v>6591994</v>
       </c>
-      <c r="C47" s="152" t="s">
+      <c r="C47" s="132" t="s">
         <v>231</v>
       </c>
       <c r="D47" s="99" t="s">
@@ -6110,7 +6122,7 @@
       <c r="B48" s="124">
         <v>6591995</v>
       </c>
-      <c r="C48" s="152" t="s">
+      <c r="C48" s="132" t="s">
         <v>232</v>
       </c>
       <c r="D48" s="99" t="s">
@@ -7091,7 +7103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7099,7 +7113,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" customWidth="1"/>
     <col min="4" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="111.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
@@ -7161,12 +7175,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="139"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7435,12 +7449,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -7794,12 +7808,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -8068,12 +8082,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8427,12 +8441,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="135" t="s">
+      <c r="B44" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="137"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="140"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8701,12 +8715,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="137"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -9060,12 +9074,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="137"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9455,12 +9469,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="137"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="140"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -9850,11 +9864,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="133"/>
-      <c r="D91" s="134"/>
+      <c r="C91" s="136"/>
+      <c r="D91" s="137"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -10245,11 +10259,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="132" t="s">
+      <c r="B104" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="133"/>
-      <c r="D104" s="134"/>
+      <c r="C104" s="136"/>
+      <c r="D104" s="137"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -10640,11 +10654,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="132" t="s">
+      <c r="B117" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="133"/>
-      <c r="D117" s="134"/>
+      <c r="C117" s="136"/>
+      <c r="D117" s="137"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -11035,11 +11049,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="132" t="s">
+      <c r="B130" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="133"/>
-      <c r="D130" s="134"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="137"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -16086,11 +16100,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -16302,11 +16316,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -16518,11 +16532,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -16734,11 +16748,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -16950,11 +16964,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -17160,11 +17174,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -21628,16 +21642,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="139"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="142"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -21812,16 +21826,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="139"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -21996,16 +22010,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="139"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="142"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22180,16 +22194,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="139"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="142"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22364,16 +22378,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="139"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="142"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -22538,16 +22552,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="139"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="142"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -22722,16 +22736,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="139"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="142"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -22906,16 +22920,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="139"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="142"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -23090,16 +23104,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="139"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="142"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23274,16 +23288,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="148" t="s">
+      <c r="C47" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="139"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -23458,16 +23472,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="148" t="s">
+      <c r="C52" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="139"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="142"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -23642,16 +23656,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="148" t="s">
+      <c r="C57" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="139"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="142"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -50309,16 +50323,16 @@
     <row r="2" spans="1:26" s="99" customFormat="1">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -51299,16 +51313,16 @@
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
-      <c r="C36" s="149" t="s">
+      <c r="C36" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
@@ -52316,16 +52330,16 @@
     <row r="70" spans="1:26" ht="15" customHeight="1">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
-      <c r="C70" s="149" t="s">
+      <c r="C70" s="152" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="150"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
@@ -53367,16 +53381,16 @@
     <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="94"/>
       <c r="B106" s="95"/>
-      <c r="C106" s="149" t="s">
+      <c r="C106" s="152" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="150"/>
-      <c r="E106" s="150"/>
-      <c r="F106" s="150"/>
-      <c r="G106" s="150"/>
-      <c r="H106" s="150"/>
-      <c r="I106" s="150"/>
-      <c r="J106" s="150"/>
+      <c r="D106" s="153"/>
+      <c r="E106" s="153"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="153"/>
+      <c r="J106" s="153"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
@@ -54418,16 +54432,16 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="151" t="s">
+      <c r="C142" s="154" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="150"/>
-      <c r="E142" s="150"/>
-      <c r="F142" s="150"/>
-      <c r="G142" s="150"/>
-      <c r="H142" s="150"/>
-      <c r="I142" s="150"/>
-      <c r="J142" s="150"/>
+      <c r="D142" s="153"/>
+      <c r="E142" s="153"/>
+      <c r="F142" s="153"/>
+      <c r="G142" s="153"/>
+      <c r="H142" s="153"/>
+      <c r="I142" s="153"/>
+      <c r="J142" s="153"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
@@ -55392,16 +55406,16 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="151" t="s">
+      <c r="C177" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="150"/>
-      <c r="E177" s="150"/>
-      <c r="F177" s="150"/>
-      <c r="G177" s="150"/>
-      <c r="H177" s="150"/>
-      <c r="I177" s="150"/>
-      <c r="J177" s="150"/>
+      <c r="D177" s="153"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="153"/>
+      <c r="G177" s="153"/>
+      <c r="H177" s="153"/>
+      <c r="I177" s="153"/>
+      <c r="J177" s="153"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
@@ -56364,16 +56378,16 @@
     <row r="213" spans="1:12" ht="15" customHeight="1">
       <c r="A213" s="94"/>
       <c r="B213" s="95"/>
-      <c r="C213" s="149" t="s">
+      <c r="C213" s="152" t="s">
         <v>233</v>
       </c>
-      <c r="D213" s="150"/>
-      <c r="E213" s="150"/>
-      <c r="F213" s="150"/>
-      <c r="G213" s="150"/>
-      <c r="H213" s="150"/>
-      <c r="I213" s="150"/>
-      <c r="J213" s="150"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="153"/>
+      <c r="H213" s="153"/>
+      <c r="I213" s="153"/>
+      <c r="J213" s="153"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
@@ -57402,16 +57416,16 @@
     <row r="250" spans="1:12" ht="15" customHeight="1">
       <c r="A250" s="94"/>
       <c r="B250" s="95"/>
-      <c r="C250" s="149" t="s">
+      <c r="C250" s="152" t="s">
         <v>234</v>
       </c>
-      <c r="D250" s="150"/>
-      <c r="E250" s="150"/>
-      <c r="F250" s="150"/>
-      <c r="G250" s="150"/>
-      <c r="H250" s="150"/>
-      <c r="I250" s="150"/>
-      <c r="J250" s="150"/>
+      <c r="D250" s="153"/>
+      <c r="E250" s="153"/>
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="153"/>
+      <c r="I250" s="153"/>
+      <c r="J250" s="153"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
@@ -58445,16 +58459,16 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="151" t="s">
+      <c r="C323" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="150"/>
-      <c r="E323" s="150"/>
-      <c r="F323" s="150"/>
-      <c r="G323" s="150"/>
-      <c r="H323" s="150"/>
-      <c r="I323" s="150"/>
-      <c r="J323" s="150"/>
+      <c r="D323" s="153"/>
+      <c r="E323" s="153"/>
+      <c r="F323" s="153"/>
+      <c r="G323" s="153"/>
+      <c r="H323" s="153"/>
+      <c r="I323" s="153"/>
+      <c r="J323" s="153"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
@@ -59419,16 +59433,16 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="151" t="s">
+      <c r="C359" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="150"/>
-      <c r="E359" s="150"/>
-      <c r="F359" s="150"/>
-      <c r="G359" s="150"/>
-      <c r="H359" s="150"/>
-      <c r="I359" s="150"/>
-      <c r="J359" s="150"/>
+      <c r="D359" s="153"/>
+      <c r="E359" s="153"/>
+      <c r="F359" s="153"/>
+      <c r="G359" s="153"/>
+      <c r="H359" s="153"/>
+      <c r="I359" s="153"/>
+      <c r="J359" s="153"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
@@ -60390,16 +60404,16 @@
     <row r="395" spans="1:12" ht="15" customHeight="1">
       <c r="A395" s="94"/>
       <c r="B395" s="95"/>
-      <c r="C395" s="149" t="s">
+      <c r="C395" s="152" t="s">
         <v>231</v>
       </c>
-      <c r="D395" s="150"/>
-      <c r="E395" s="150"/>
-      <c r="F395" s="150"/>
-      <c r="G395" s="150"/>
-      <c r="H395" s="150"/>
-      <c r="I395" s="150"/>
-      <c r="J395" s="150"/>
+      <c r="D395" s="153"/>
+      <c r="E395" s="153"/>
+      <c r="F395" s="153"/>
+      <c r="G395" s="153"/>
+      <c r="H395" s="153"/>
+      <c r="I395" s="153"/>
+      <c r="J395" s="153"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
@@ -61427,16 +61441,16 @@
     <row r="431" spans="1:12" ht="15" customHeight="1">
       <c r="A431" s="94"/>
       <c r="B431" s="95"/>
-      <c r="C431" s="149" t="s">
+      <c r="C431" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="D431" s="150"/>
-      <c r="E431" s="150"/>
-      <c r="F431" s="150"/>
-      <c r="G431" s="150"/>
-      <c r="H431" s="150"/>
-      <c r="I431" s="150"/>
-      <c r="J431" s="150"/>
+      <c r="D431" s="153"/>
+      <c r="E431" s="153"/>
+      <c r="F431" s="153"/>
+      <c r="G431" s="153"/>
+      <c r="H431" s="153"/>
+      <c r="I431" s="153"/>
+      <c r="J431" s="153"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="20490" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="7650" windowWidth="20490" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="241">
   <si>
     <t>TC_ID</t>
   </si>
@@ -874,7 +875,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +962,29 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1185,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1542,19 +1566,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1564,8 +1579,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,12 +1606,184 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="19" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="399">
+  <dxfs count="420">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4729,6 +4925,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Controller"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4995,7 +5204,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5099,7 +5308,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>27</v>
@@ -5122,7 +5331,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="62" t="s">
         <v>27</v>
@@ -5148,7 +5357,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>55</v>
@@ -5171,7 +5380,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>55</v>
@@ -5194,7 +5403,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>55</v>
@@ -5217,7 +5426,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>55</v>
@@ -5240,7 +5449,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>62</v>
@@ -5263,7 +5472,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>62</v>
@@ -5286,7 +5495,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="62" t="s">
         <v>62</v>
@@ -5309,7 +5518,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>62</v>
@@ -5481,13 +5690,16 @@
         <v>72</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="62" t="s">
         <v>27</v>
+      </c>
+      <c r="I20" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5501,13 +5713,16 @@
         <v>73</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="62" t="s">
         <v>55</v>
+      </c>
+      <c r="I21" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5521,13 +5736,16 @@
         <v>74</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>55</v>
+      </c>
+      <c r="I22" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5541,13 +5759,16 @@
         <v>75</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="62" t="s">
         <v>55</v>
+      </c>
+      <c r="I23" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
@@ -5561,13 +5782,16 @@
         <v>76</v>
       </c>
       <c r="D24" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="62" t="s">
         <v>55</v>
+      </c>
+      <c r="I24" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -5581,13 +5805,16 @@
         <v>79</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I25" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
@@ -5601,13 +5828,16 @@
         <v>83</v>
       </c>
       <c r="D26" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I26" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
@@ -5621,13 +5851,16 @@
         <v>84</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I27" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
@@ -5641,13 +5874,16 @@
         <v>87</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I28" s="118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="79" customFormat="1">
@@ -5669,7 +5905,9 @@
       <c r="F29" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="125"/>
+      <c r="I29" s="118" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="30" spans="1:26" s="79" customFormat="1">
       <c r="A30" s="63">
@@ -5690,7 +5928,9 @@
       <c r="F30" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="125"/>
+      <c r="I30" s="118" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="31" spans="1:26" s="79" customFormat="1">
       <c r="A31" s="63">
@@ -5711,7 +5951,9 @@
       <c r="F31" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="125"/>
+      <c r="I31" s="118" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="32" spans="1:26" s="79" customFormat="1">
       <c r="A32" s="63">
@@ -5732,7 +5974,9 @@
       <c r="F32" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="125"/>
+      <c r="I32" s="118" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="33" spans="1:26" s="133" customFormat="1" ht="15.75" customHeight="1">
       <c r="B33" s="134"/>
@@ -5780,7 +6024,7 @@
         <v>89</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" s="62" t="s">
         <v>27</v>
@@ -5803,13 +6047,16 @@
         <v>91</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E36" s="62" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="62" t="s">
         <v>27</v>
+      </c>
+      <c r="I36" s="118" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
@@ -5823,7 +6070,7 @@
         <v>93</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>55</v>
@@ -5833,7 +6080,9 @@
       </c>
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
+      <c r="I37" s="118" t="s">
+        <v>240</v>
+      </c>
       <c r="J37" s="126"/>
       <c r="K37" s="126"/>
       <c r="L37" s="126"/>
@@ -5863,7 +6112,7 @@
         <v>103</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>55</v>
@@ -5873,7 +6122,9 @@
       </c>
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
+      <c r="I38" s="118" t="s">
+        <v>240</v>
+      </c>
       <c r="J38" s="126"/>
       <c r="K38" s="126"/>
       <c r="L38" s="126"/>
@@ -5903,7 +6154,7 @@
         <v>107</v>
       </c>
       <c r="D39" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E39" s="62" t="s">
         <v>55</v>
@@ -5913,7 +6164,9 @@
       </c>
       <c r="G39" s="126"/>
       <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
+      <c r="I39" s="118" t="s">
+        <v>240</v>
+      </c>
       <c r="J39" s="126"/>
       <c r="K39" s="126"/>
       <c r="L39" s="126"/>
@@ -5943,7 +6196,7 @@
         <v>111</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E40" s="62" t="s">
         <v>55</v>
@@ -5953,7 +6206,9 @@
       </c>
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
+      <c r="I40" s="118" t="s">
+        <v>240</v>
+      </c>
       <c r="J40" s="126"/>
       <c r="K40" s="126"/>
       <c r="L40" s="126"/>
@@ -5983,13 +6238,16 @@
         <v>112</v>
       </c>
       <c r="D41" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E41" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F41" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I41" s="118" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
@@ -6003,13 +6261,16 @@
         <v>113</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I42" s="118" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
@@ -6023,13 +6284,16 @@
         <v>114</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E43" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F43" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I43" s="118" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
@@ -6043,13 +6307,16 @@
         <v>116</v>
       </c>
       <c r="D44" s="99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E44" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="62" t="s">
         <v>62</v>
+      </c>
+      <c r="I44" s="118" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:26" s="79" customFormat="1">
@@ -7103,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7175,12 +7442,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="135" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="136"/>
       <c r="D2" s="136"/>
-      <c r="E2" s="142"/>
+      <c r="E2" s="137"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7265,7 +7532,9 @@
         <v>52</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="29" t="s">
         <v>26</v>
       </c>
@@ -7311,7 +7580,9 @@
       <c r="G6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="29" t="s">
         <v>26</v>
       </c>
@@ -7359,7 +7630,9 @@
       <c r="G7" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
@@ -7392,7 +7665,9 @@
       <c r="G8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="16" t="s">
         <v>26</v>
       </c>
@@ -7449,12 +7724,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -7530,7 +7805,9 @@
       <c r="G13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
@@ -7558,7 +7835,9 @@
       <c r="G14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="16" t="s">
         <v>26</v>
       </c>
@@ -7657,7 +7936,9 @@
         <v>52</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I18" s="29" t="s">
         <v>26</v>
       </c>
@@ -7703,7 +7984,9 @@
       <c r="G19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>26</v>
       </c>
@@ -7751,7 +8034,9 @@
       <c r="G20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
@@ -7808,12 +8093,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -7898,7 +8183,9 @@
         <v>132</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I26" s="29" t="s">
         <v>26</v>
       </c>
@@ -7944,7 +8231,9 @@
       <c r="G27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I27" s="29" t="s">
         <v>26</v>
       </c>
@@ -7992,7 +8281,9 @@
       <c r="G28" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I28" s="16" t="s">
         <v>26</v>
       </c>
@@ -8025,7 +8316,9 @@
       <c r="G29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I29" s="16" t="s">
         <v>26</v>
       </c>
@@ -8082,12 +8375,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="144" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="136"/>
       <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8163,7 +8456,9 @@
       <c r="G34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I34" s="16" t="s">
         <v>26</v>
       </c>
@@ -8191,7 +8486,9 @@
       <c r="G35" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I35" s="16" t="s">
         <v>26</v>
       </c>
@@ -8290,7 +8587,9 @@
         <v>132</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="H39" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I39" s="29" t="s">
         <v>26</v>
       </c>
@@ -8336,7 +8635,9 @@
       <c r="G40" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I40" s="29" t="s">
         <v>26</v>
       </c>
@@ -8384,7 +8685,9 @@
       <c r="G41" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="23"/>
+      <c r="H41" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I41" s="16" t="s">
         <v>26</v>
       </c>
@@ -8441,12 +8744,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="140"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8531,7 +8834,9 @@
         <v>52</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="H47" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I47" s="29" t="s">
         <v>26</v>
       </c>
@@ -8577,7 +8882,9 @@
       <c r="G48" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I48" s="29" t="s">
         <v>26</v>
       </c>
@@ -8625,7 +8932,9 @@
       <c r="G49" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I49" s="16" t="s">
         <v>26</v>
       </c>
@@ -8636,36 +8945,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:26" s="163" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="156">
         <v>19</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50">
+      <c r="G50" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="163">
         <v>0</v>
       </c>
     </row>
@@ -8715,12 +9026,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="138" t="s">
+      <c r="B53" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="140"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="143"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -8796,7 +9107,9 @@
       <c r="G55" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="23"/>
+      <c r="H55" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I55" s="16" t="s">
         <v>26</v>
       </c>
@@ -8824,7 +9137,9 @@
       <c r="G56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="23"/>
+      <c r="H56" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I56" s="16" t="s">
         <v>26</v>
       </c>
@@ -8923,7 +9238,9 @@
         <v>52</v>
       </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="H60" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I60" s="29" t="s">
         <v>26</v>
       </c>
@@ -8969,7 +9286,9 @@
       <c r="G61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="22"/>
+      <c r="H61" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I61" s="29" t="s">
         <v>26</v>
       </c>
@@ -9017,7 +9336,9 @@
       <c r="G62" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="23"/>
+      <c r="H62" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I62" s="16" t="s">
         <v>26</v>
       </c>
@@ -9074,12 +9395,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
-      <c r="B65" s="138" t="s">
+      <c r="B65" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9157,7 +9478,9 @@
       <c r="G67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="23"/>
+      <c r="H67" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I67" s="16" t="s">
         <v>26</v>
       </c>
@@ -9187,7 +9510,9 @@
       <c r="G68" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H68" s="23"/>
+      <c r="H68" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I68" s="16" t="s">
         <v>26</v>
       </c>
@@ -9314,7 +9639,9 @@
         <v>52</v>
       </c>
       <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I73" s="29" t="s">
         <v>26</v>
       </c>
@@ -9360,7 +9687,9 @@
       <c r="G74" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H74" s="22"/>
+      <c r="H74" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I74" s="29" t="s">
         <v>26</v>
       </c>
@@ -9408,7 +9737,9 @@
       <c r="G75" t="s">
         <v>146</v>
       </c>
-      <c r="H75" s="23"/>
+      <c r="H75" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I75" s="16" t="s">
         <v>26</v>
       </c>
@@ -9469,12 +9800,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="138" t="s">
+      <c r="B78" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
-      <c r="E78" s="140"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="143"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -9552,7 +9883,9 @@
       <c r="G80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I80" s="16" t="s">
         <v>26</v>
       </c>
@@ -9582,7 +9915,9 @@
       <c r="G81" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I81" s="16" t="s">
         <v>26</v>
       </c>
@@ -9709,7 +10044,9 @@
         <v>52</v>
       </c>
       <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="H86" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I86" s="29" t="s">
         <v>26</v>
       </c>
@@ -9755,7 +10092,9 @@
       <c r="G87" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H87" s="22"/>
+      <c r="H87" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I87" s="29" t="s">
         <v>26</v>
       </c>
@@ -9803,7 +10142,9 @@
       <c r="G88" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="23"/>
+      <c r="H88" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I88" s="16" t="s">
         <v>26</v>
       </c>
@@ -9864,11 +10205,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="146" t="s">
         <v>152</v>
       </c>
       <c r="C91" s="136"/>
-      <c r="D91" s="137"/>
+      <c r="D91" s="145"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -9947,7 +10288,9 @@
       <c r="G93" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H93" s="23"/>
+      <c r="H93" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I93" s="16" t="s">
         <v>26</v>
       </c>
@@ -9977,7 +10320,9 @@
       <c r="G94" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H94" s="23"/>
+      <c r="H94" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I94" s="16" t="s">
         <v>26</v>
       </c>
@@ -10104,7 +10449,9 @@
         <v>132</v>
       </c>
       <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
+      <c r="H99" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I99" s="29" t="s">
         <v>26</v>
       </c>
@@ -10150,7 +10497,9 @@
       <c r="G100" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H100" s="22"/>
+      <c r="H100" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I100" s="29" t="s">
         <v>26</v>
       </c>
@@ -10198,7 +10547,9 @@
       <c r="G101" t="s">
         <v>146</v>
       </c>
-      <c r="H101" s="23"/>
+      <c r="H101" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I101" s="16" t="s">
         <v>26</v>
       </c>
@@ -10259,11 +10610,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="135" t="s">
+      <c r="B104" s="146" t="s">
         <v>154</v>
       </c>
       <c r="C104" s="136"/>
-      <c r="D104" s="137"/>
+      <c r="D104" s="145"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -10342,7 +10693,9 @@
       <c r="G106" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H106" s="23"/>
+      <c r="H106" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I106" s="16" t="s">
         <v>26</v>
       </c>
@@ -10372,7 +10725,9 @@
       <c r="G107" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H107" s="23"/>
+      <c r="H107" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I107" s="16" t="s">
         <v>26</v>
       </c>
@@ -10499,7 +10854,9 @@
         <v>52</v>
       </c>
       <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
+      <c r="H112" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I112" s="29" t="s">
         <v>26</v>
       </c>
@@ -10545,7 +10902,9 @@
       <c r="G113" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H113" s="22"/>
+      <c r="H113" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I113" s="29" t="s">
         <v>26</v>
       </c>
@@ -10593,7 +10952,9 @@
       <c r="G114" t="s">
         <v>146</v>
       </c>
-      <c r="H114" s="23"/>
+      <c r="H114" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I114" s="16" t="s">
         <v>26</v>
       </c>
@@ -10654,11 +11015,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="135" t="s">
+      <c r="B117" s="146" t="s">
         <v>155</v>
       </c>
       <c r="C117" s="136"/>
-      <c r="D117" s="137"/>
+      <c r="D117" s="145"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -10737,7 +11098,9 @@
       <c r="G119" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H119" s="23"/>
+      <c r="H119" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I119" s="16" t="s">
         <v>26</v>
       </c>
@@ -10767,7 +11130,9 @@
       <c r="G120" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H120" s="23"/>
+      <c r="H120" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I120" s="16" t="s">
         <v>26</v>
       </c>
@@ -10894,7 +11259,9 @@
         <v>132</v>
       </c>
       <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
+      <c r="H125" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I125" s="29" t="s">
         <v>26</v>
       </c>
@@ -10940,7 +11307,9 @@
       <c r="G126" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H126" s="22"/>
+      <c r="H126" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I126" s="29" t="s">
         <v>26</v>
       </c>
@@ -10988,7 +11357,9 @@
       <c r="G127" t="s">
         <v>151</v>
       </c>
-      <c r="H127" s="23"/>
+      <c r="H127" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I127" s="16" t="s">
         <v>26</v>
       </c>
@@ -11049,11 +11420,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="135" t="s">
+      <c r="B130" s="146" t="s">
         <v>156</v>
       </c>
       <c r="C130" s="136"/>
-      <c r="D130" s="137"/>
+      <c r="D130" s="145"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -11132,7 +11503,9 @@
       <c r="G132" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H132" s="23"/>
+      <c r="H132" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I132" s="16" t="s">
         <v>26</v>
       </c>
@@ -11162,7 +11535,9 @@
       <c r="G133" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H133" s="23"/>
+      <c r="H133" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I133" s="16" t="s">
         <v>26</v>
       </c>
@@ -11289,7 +11664,9 @@
         <v>52</v>
       </c>
       <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
+      <c r="H138" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I138" s="29" t="s">
         <v>26</v>
       </c>
@@ -11335,7 +11712,9 @@
       <c r="G139" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H139" s="22"/>
+      <c r="H139" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I139" s="29" t="s">
         <v>26</v>
       </c>
@@ -11383,7 +11762,9 @@
       <c r="G140" t="s">
         <v>151</v>
       </c>
-      <c r="H140" s="23"/>
+      <c r="H140" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="I140" s="16" t="s">
         <v>26</v>
       </c>
@@ -14876,11 +15257,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -14888,1139 +15264,1378 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="398" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="397" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="396" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="395" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="394" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="393" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="392" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="391" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="390" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="389" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="388" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="387" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="386" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="385" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="384" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="383" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="382" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="381" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="380" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="379" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="378" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="377" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="376" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="375" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="374" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="373" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="372" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="371" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="370" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="369" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="368" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="367" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="366" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="365" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="364" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="363" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="362" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="361" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="360" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="359" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="358" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="357" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="355" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="354" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="353" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="352" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="351" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="350" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="349" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="348" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="347" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="346" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="345" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="344" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="343" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="342" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="341" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="340" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="339" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="338" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="337" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="336" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="335" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="334" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="333" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="332" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="331" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="330" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="329" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="328" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="327" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="326" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="325" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="324" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="323" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="322" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="321" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="320" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="319" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="318" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="317" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="316" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="315" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="314" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="313" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="312" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="311" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="310" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="309" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="308" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="307" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="306" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="305" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="304" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="303" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="302" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="301" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="300" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="299" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="298" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="297" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="296" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="295" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="294" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="293" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="292" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="291" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="290" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="289" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="288" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="287" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="286" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="285" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="284" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="283" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="282" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="281" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="280" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="140" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="279" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="277" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="276" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="275" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="274" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="273" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="272" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="148" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="271" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="270" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="269" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="268" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="267" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="266" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="265" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="264" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="263" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="262" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="158" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="261" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="260" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="259" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="258" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="162" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="257" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="256" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="255" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="254" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="166" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="253" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="252" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="251" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="250" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="249" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="248" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="247" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="246" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="174" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="244" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="243" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="242" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="178" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="241" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="240" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="239" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="238" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="237" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="183" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="236" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="235" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="234" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="233" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="232" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="231" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="230" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="229" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="228" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="227" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="226" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="225" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="224" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="223" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="222" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="221" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="220" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="219" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="218" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="217" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="216" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="215" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="214" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="213" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="212" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="211" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="210" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="209" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="208" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="207" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="206" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="205" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="204" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="203" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="202" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="201" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="197" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="196" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="195" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="194" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="226" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="193" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="192" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="228" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="191" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="190" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="230" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="189" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="188" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="187" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="186" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="234" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="185" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="235" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="184" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="183" priority="216" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="182" priority="217" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="181" priority="218" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="180" priority="219" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="179" priority="220" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="178" priority="221" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="177" priority="222" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="176" priority="223" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="175" priority="224" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="174" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="237" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H4 H8:H10 H12 H15:H17 H21:H22 H24:H25 H29:H33 H36:H38 H42:H43 H45:H46 H50:H52 H54 H57:H59 H63:H64 H66 H69:H72 H76:H77 H79 H82:H85 H89:H90 H92 H95:H98 H102:H103 H105 H108:H111 H115:H116 H118 H121:H124 H128:H129 H131 H134:H137 H141:H142">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H4 H30:H33 H12 H15:H17 H21:H22 H24:H25 H51:H52 H36:H38 H42:H43 H45:H46 H141:H142 H54 H57:H59 H63:H64 H66 H69:H72 H76:H77 H79 H82:H85 H89:H90 H92 H95:H98 H102:H103 H105 H108:H111 H115:H116 H118 H121:H124 H128:H129 H131 H134:H137 H9:H10">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0F88A3A9-7741-499D-8553-E9ADB4798D1B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H47:H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{BC21F9FA-1C54-489B-A95A-4AFBF20911CA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H39:H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CD5B42B5-F495-4292-AEBD-7166B3D8C54B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H34:H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{815E18FC-B86D-42DB-9B25-99AC6A766975}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H26:H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{FB67F097-4A16-4591-9EBB-5B14C49D1FF6}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5:H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{C79AB38D-FDD1-415C-A421-235230524200}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H13:H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{63FB0488-7C8A-43B4-B573-A51F49890029}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H18:H20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{1458C84B-2631-4458-9297-1F2DBCD96F42}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H55:H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{424E64FB-9A6D-43F3-82B6-3D30201DC771}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H60:H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{E66A4116-0E17-4933-A353-EC2689CB72CE}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H67:H68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{91793D95-13C5-4517-A376-CD2166E458E7}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H73:H75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{AA55BDD3-A369-441F-8323-639D3B95D969}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H80:H81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1E905747-D560-49D7-B09A-B416B7DB5C1A}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{638DFABC-5B8E-40EA-BE49-5C2317F62E63}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H93:H94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{3533E3C6-7DB0-42F7-8C84-BAEB3838E1A4}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H99:H101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{6F4C3F67-7C3B-445F-AF41-EC8E69B77AAA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H106:H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{330AA708-A92A-4765-B80D-0220EFC828FA}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H112:H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{A29F1A29-DD31-4213-8B64-931A4014B1E9}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H119:H120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{43B8262E-A1A8-4BF0-8058-3A478B5B54A6}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H125:H127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{3B300F48-7AAF-4CAF-B913-A92670FAC57B}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H132:H133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{194FB7D5-1C8A-4201-9DD0-D4D503D4B1E8}">
+            <xm:f>'C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H138:H140</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21196,362 +21811,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="161" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="160" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="158" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="157" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="154" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="123" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="122" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="114" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="108" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="105" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21570,7 +22185,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -21651,7 +22266,7 @@
       <c r="G2" s="136"/>
       <c r="H2" s="136"/>
       <c r="I2" s="136"/>
-      <c r="J2" s="142"/>
+      <c r="J2" s="137"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -21835,7 +22450,7 @@
       <c r="G7" s="136"/>
       <c r="H7" s="136"/>
       <c r="I7" s="136"/>
-      <c r="J7" s="142"/>
+      <c r="J7" s="137"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -22019,7 +22634,7 @@
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
-      <c r="J12" s="142"/>
+      <c r="J12" s="137"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22203,7 +22818,7 @@
       <c r="G17" s="136"/>
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
-      <c r="J17" s="142"/>
+      <c r="J17" s="137"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22387,7 +23002,7 @@
       <c r="G22" s="136"/>
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
-      <c r="J22" s="142"/>
+      <c r="J22" s="137"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -22561,7 +23176,7 @@
       <c r="G27" s="136"/>
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
-      <c r="J27" s="142"/>
+      <c r="J27" s="137"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -22745,7 +23360,7 @@
       <c r="G32" s="136"/>
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="142"/>
+      <c r="J32" s="137"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -22929,7 +23544,7 @@
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
-      <c r="J37" s="142"/>
+      <c r="J37" s="137"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -23113,7 +23728,7 @@
       <c r="G42" s="136"/>
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
-      <c r="J42" s="142"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23297,7 +23912,7 @@
       <c r="G47" s="136"/>
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
-      <c r="J47" s="142"/>
+      <c r="J47" s="137"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -23481,7 +24096,7 @@
       <c r="G52" s="136"/>
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
-      <c r="J52" s="142"/>
+      <c r="J52" s="137"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -23665,7 +24280,7 @@
       <c r="G57" s="136"/>
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
-      <c r="J57" s="142"/>
+      <c r="J57" s="137"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -50131,11 +50746,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -50143,109 +50753,114 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62478,18 +63093,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C395:J395"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C431:J431"/>
+    <mergeCell ref="C213:J213"/>
+    <mergeCell ref="C250:J250"/>
+    <mergeCell ref="C359:J359"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C177:J177"/>
     <mergeCell ref="C323:J323"/>
     <mergeCell ref="C70:J70"/>
     <mergeCell ref="C106:J106"/>
-    <mergeCell ref="C395:J395"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C431:J431"/>
-    <mergeCell ref="C213:J213"/>
-    <mergeCell ref="C250:J250"/>
-    <mergeCell ref="C359:J359"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7650" windowWidth="20490" windowHeight="4800"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="20490" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="240">
   <si>
     <t>TC_ID</t>
   </si>
@@ -665,9 +665,6 @@
     <t>$revision,0,$revisionNumber</t>
   </si>
   <si>
-    <t>TCEnv101</t>
-  </si>
-  <si>
     <t>Calendar - Lessor - Operating - Validate user is able to Add Revision</t>
   </si>
   <si>
@@ -734,9 +731,6 @@
     <t>4 4 5 - Lessor - DFL - Validate user is able to Add Revision</t>
   </si>
   <si>
-    <t>TCEnv102</t>
-  </si>
-  <si>
     <t>445 - Lessor - STL - Validate user is able to Add Revision</t>
   </si>
   <si>
@@ -746,10 +740,13 @@
     <t>13th Period - Lessor - Operating - Validate user is able to Add Revision</t>
   </si>
   <si>
-    <t>TCEnv105</t>
+    <t>TCEnv107</t>
   </si>
   <si>
-    <t>TCEnv106</t>
+    <t>TCEnv108</t>
+  </si>
+  <si>
+    <t>TCEnv109</t>
   </si>
 </sst>
 </file>
@@ -1566,46 +1563,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1631,12 +1588,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="420">
+  <dxfs count="411">
     <dxf>
       <fill>
         <patternFill>
@@ -2201,6 +2198,750 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B083"/>
+          <bgColor rgb="FFF4B083"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4079,822 +4820,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B083"/>
-          <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4913,13 +4838,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Controller"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="TC001_TC050"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4930,9 +4851,13 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Controller"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="TC001_TC050"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5204,7 +5129,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5317,7 +5242,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
@@ -5340,7 +5265,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="S4" s="68" t="s">
         <v>26</v>
@@ -5366,7 +5291,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5389,7 +5314,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5412,7 +5337,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5435,7 +5360,7 @@
         <v>55</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -5458,7 +5383,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -5481,7 +5406,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5504,7 +5429,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5527,7 +5452,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="79" customFormat="1">
@@ -5550,7 +5475,7 @@
         <v>210</v>
       </c>
       <c r="I13" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="79" customFormat="1">
@@ -5558,10 +5483,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="99" t="s">
         <v>30</v>
@@ -5573,7 +5498,7 @@
         <v>210</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -5584,7 +5509,7 @@
         <v>6579744</v>
       </c>
       <c r="C15" s="132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="99" t="s">
         <v>30</v>
@@ -5598,7 +5523,7 @@
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
@@ -5609,7 +5534,7 @@
         <v>6579785</v>
       </c>
       <c r="C16" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="99" t="s">
         <v>30</v>
@@ -5623,7 +5548,7 @@
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5676,7 +5601,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5699,7 +5624,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5722,7 +5647,7 @@
         <v>55</v>
       </c>
       <c r="I21" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5745,7 +5670,7 @@
         <v>55</v>
       </c>
       <c r="I22" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5768,7 +5693,7 @@
         <v>55</v>
       </c>
       <c r="I23" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
@@ -5791,7 +5716,7 @@
         <v>55</v>
       </c>
       <c r="I24" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -5814,7 +5739,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
@@ -5837,7 +5762,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
@@ -5860,7 +5785,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
@@ -5883,7 +5808,7 @@
         <v>62</v>
       </c>
       <c r="I28" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="79" customFormat="1">
@@ -5894,7 +5819,7 @@
         <v>6591988</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" s="99" t="s">
         <v>30</v>
@@ -5906,7 +5831,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="79" customFormat="1">
@@ -5917,7 +5842,7 @@
         <v>6591989</v>
       </c>
       <c r="C30" s="132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="99" t="s">
         <v>30</v>
@@ -5929,7 +5854,7 @@
         <v>210</v>
       </c>
       <c r="I30" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="79" customFormat="1">
@@ -5940,7 +5865,7 @@
         <v>6591990</v>
       </c>
       <c r="C31" s="132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D31" s="99" t="s">
         <v>30</v>
@@ -5952,7 +5877,7 @@
         <v>210</v>
       </c>
       <c r="I31" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="79" customFormat="1">
@@ -5963,7 +5888,7 @@
         <v>6591991</v>
       </c>
       <c r="C32" s="132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D32" s="99" t="s">
         <v>30</v>
@@ -5975,7 +5900,7 @@
         <v>210</v>
       </c>
       <c r="I32" s="118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="133" customFormat="1" ht="15.75" customHeight="1">
@@ -6033,7 +5958,7 @@
         <v>27</v>
       </c>
       <c r="I35" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
@@ -6056,7 +5981,7 @@
         <v>27</v>
       </c>
       <c r="I36" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
@@ -6081,7 +6006,7 @@
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
       <c r="I37" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J37" s="126"/>
       <c r="K37" s="126"/>
@@ -6123,7 +6048,7 @@
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
       <c r="I38" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J38" s="126"/>
       <c r="K38" s="126"/>
@@ -6165,7 +6090,7 @@
       <c r="G39" s="126"/>
       <c r="H39" s="126"/>
       <c r="I39" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J39" s="126"/>
       <c r="K39" s="126"/>
@@ -6207,7 +6132,7 @@
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
       <c r="I40" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J40" s="126"/>
       <c r="K40" s="126"/>
@@ -6247,7 +6172,7 @@
         <v>62</v>
       </c>
       <c r="I41" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
@@ -6270,7 +6195,7 @@
         <v>62</v>
       </c>
       <c r="I42" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
@@ -6293,7 +6218,7 @@
         <v>62</v>
       </c>
       <c r="I43" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
@@ -6316,7 +6241,7 @@
         <v>62</v>
       </c>
       <c r="I44" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:26" s="79" customFormat="1">
@@ -6327,7 +6252,7 @@
         <v>6591992</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="99" t="s">
         <v>30</v>
@@ -6348,7 +6273,7 @@
         <v>6591993</v>
       </c>
       <c r="C46" s="132" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D46" s="99" t="s">
         <v>30</v>
@@ -6369,7 +6294,7 @@
         <v>6591994</v>
       </c>
       <c r="C47" s="132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D47" s="99" t="s">
         <v>30</v>
@@ -6390,7 +6315,7 @@
         <v>6591995</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" s="99" t="s">
         <v>30</v>
@@ -7442,12 +7367,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7724,12 +7649,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -8093,12 +8018,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -8375,12 +8300,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8747,9 +8672,9 @@
       <c r="B44" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="143"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="149"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8945,38 +8870,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="163" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="155" t="s">
+    <row r="50" spans="1:26" s="143" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="156">
+      <c r="B50" s="136">
         <v>19</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="158" t="s">
+      <c r="D50" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="159" t="s">
+      <c r="E50" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="157" t="s">
+      <c r="F50" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="160" t="s">
+      <c r="G50" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="163">
+      <c r="H50" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="143">
         <v>0</v>
       </c>
     </row>
@@ -9029,9 +8954,9 @@
       <c r="B53" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="143"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="149"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -9398,9 +9323,9 @@
       <c r="B65" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="143"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="149"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9803,9 +9728,9 @@
       <c r="B78" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="143"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="149"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -10205,11 +10130,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="146" t="s">
+      <c r="B91" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="136"/>
-      <c r="D91" s="145"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="146"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -10610,11 +10535,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="146" t="s">
+      <c r="B104" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="136"/>
-      <c r="D104" s="145"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="146"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -11015,11 +10940,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="146" t="s">
+      <c r="B117" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="136"/>
-      <c r="D117" s="145"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="146"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -11420,11 +11345,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="146" t="s">
+      <c r="B130" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="136"/>
-      <c r="D130" s="145"/>
+      <c r="C130" s="145"/>
+      <c r="D130" s="146"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -15257,6 +15182,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -15264,1089 +15194,1084 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="419" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="418" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="417" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="416" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="414" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="413" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="412" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="411" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="410" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="409" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="408" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="407" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="406" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="405" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="404" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="403" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="402" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="401" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="400" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="399" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="398" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="397" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="396" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="395" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="394" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="393" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="392" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="391" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="390" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="389" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="388" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="387" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="386" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="385" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="384" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="383" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="382" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="381" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="380" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="379" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="378" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="377" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="376" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="375" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="374" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="373" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="372" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="371" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="370" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="369" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="368" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="367" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="366" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="365" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="364" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="363" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="362" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="361" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="360" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="359" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="358" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="357" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="356" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="355" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="354" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="353" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="352" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="351" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="350" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="349" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="348" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="347" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="346" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="345" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="344" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="343" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="342" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="341" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="340" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="339" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="338" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="337" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="336" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="335" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="334" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="333" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="332" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="331" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="330" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="329" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="328" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="327" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="326" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="325" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="324" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="323" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="322" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="321" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="320" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="319" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="318" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="317" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="316" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="315" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="314" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="313" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="312" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="311" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="310" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="309" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="308" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="307" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="306" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="305" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="304" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="303" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="302" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="301" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="140" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="300" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="299" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="298" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="296" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="295" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="294" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="293" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="148" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="292" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="291" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="290" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="289" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="288" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="287" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="286" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="285" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="284" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="283" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="158" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="282" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="281" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="280" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="279" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="162" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="278" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="277" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="276" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="275" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="166" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="274" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="273" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="272" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="271" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="270" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="269" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="268" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="267" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="174" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="266" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="265" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="264" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="263" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="178" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="262" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="261" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="260" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="259" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="258" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="183" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="257" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="256" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="255" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="254" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="253" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="252" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="251" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="250" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="249" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="248" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="247" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="246" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="245" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="244" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="243" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="242" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="241" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="240" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="239" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="238" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="237" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="235" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="234" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="233" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="232" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="231" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="230" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="229" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="228" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="227" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="226" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="225" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="224" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="223" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="222" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="221" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="219" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="218" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="217" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="216" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="215" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="226" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="214" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="213" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="228" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="212" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="211" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="230" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="210" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="209" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="208" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="207" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="234" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="206" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="235" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="205" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="204" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="237" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16715,11 +16640,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -16931,11 +16856,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -17147,11 +17072,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -17363,11 +17288,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -17579,11 +17504,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -17789,11 +17714,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -21811,362 +21736,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="194" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="192" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="191" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="190" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="189" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="188" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="187" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="186" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="185" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="184" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="183" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="182" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="181" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="180" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="179" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="178" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="177" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="176" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="175" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="174" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="173" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="172" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="171" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="170" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="169" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="168" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="167" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="166" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="165" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="163" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="162" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="159" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="158" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="157" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="156" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="155" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="154" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="153" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="152" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="151" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="150" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="149" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="148" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="147" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="146" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="145" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="144" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="143" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="142" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="139" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="138" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="137" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="136" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="135" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="134" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="133" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="132" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="131" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="130" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="129" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="128" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="127" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="126" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="125" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="124" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="123" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22257,16 +22182,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="137"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -22441,16 +22366,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="151"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -22625,16 +22550,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="151"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22809,16 +22734,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="151"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22993,16 +22918,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="151"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -23167,16 +23092,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="151"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -23351,16 +23276,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="151"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -23535,16 +23460,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="151" t="s">
+      <c r="C37" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="137"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="151"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -23719,16 +23644,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="137"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="151"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23903,16 +23828,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="137"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="151"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -24087,16 +24012,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="137"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="151"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -24271,16 +24196,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="137"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="151"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -50746,6 +50671,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -50753,114 +50683,109 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="113" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="110" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="109" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="108" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="105" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="103" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50938,16 +50863,16 @@
     <row r="2" spans="1:26" s="99" customFormat="1">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -51076,16 +51001,16 @@
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>22</v>
@@ -51445,16 +51370,16 @@
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>22</v>
@@ -51928,22 +51853,22 @@
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
-      <c r="C36" s="152" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="C36" s="161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" s="81"/>
@@ -51967,7 +51892,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="59"/>
       <c r="C38" s="81"/>
@@ -51995,7 +51920,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="59"/>
       <c r="C39" s="81" t="s">
@@ -52028,7 +51953,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="59"/>
       <c r="C40" s="81"/>
@@ -52052,20 +51977,20 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="70" t="s">
         <v>22</v>
@@ -52085,7 +52010,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="64"/>
       <c r="C42" s="71" t="s">
@@ -52119,7 +52044,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="71" t="s">
@@ -52153,7 +52078,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="59"/>
       <c r="C44" s="81" t="s">
@@ -52186,7 +52111,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="59">
         <v>19</v>
@@ -52221,7 +52146,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="81"/>
@@ -52245,7 +52170,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="59"/>
       <c r="C47" s="81"/>
@@ -52269,7 +52194,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="66"/>
       <c r="C48" s="71" t="s">
@@ -52303,7 +52228,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" s="66"/>
       <c r="C49" s="71" t="s">
@@ -52337,7 +52262,7 @@
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="59">
         <v>17</v>
@@ -52372,7 +52297,7 @@
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="69"/>
       <c r="C51" s="82" t="s">
@@ -52406,7 +52331,7 @@
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="59"/>
       <c r="C52" s="81"/>
@@ -52433,20 +52358,20 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="59"/>
       <c r="C53" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E53" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F53" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G53" s="70" t="s">
         <v>22</v>
@@ -52466,7 +52391,7 @@
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="71" t="s">
@@ -52500,7 +52425,7 @@
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="71" t="s">
@@ -52532,7 +52457,7 @@
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="59"/>
       <c r="C56" s="81" t="s">
@@ -52565,7 +52490,7 @@
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="59">
         <v>19</v>
@@ -52600,7 +52525,7 @@
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1">
       <c r="A58" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="59"/>
       <c r="C58" s="81"/>
@@ -52624,7 +52549,7 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="59"/>
       <c r="C59" s="81"/>
@@ -52648,7 +52573,7 @@
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60" s="64"/>
       <c r="C60" s="71" t="s">
@@ -52682,7 +52607,7 @@
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="70"/>
       <c r="C61" s="71" t="s">
@@ -52714,7 +52639,7 @@
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="59">
         <v>17</v>
@@ -52747,7 +52672,7 @@
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" s="59">
         <v>17</v>
@@ -52778,7 +52703,7 @@
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1">
       <c r="A64" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B64" s="59">
         <v>17</v>
@@ -52813,7 +52738,7 @@
     </row>
     <row r="65" spans="1:26" ht="15" customHeight="1">
       <c r="A65" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="59">
         <v>17</v>
@@ -52848,7 +52773,7 @@
     </row>
     <row r="66" spans="1:26" ht="15" customHeight="1">
       <c r="A66" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="59"/>
       <c r="C66" s="81"/>
@@ -52876,7 +52801,7 @@
     </row>
     <row r="67" spans="1:26" ht="15" customHeight="1">
       <c r="A67" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="66"/>
       <c r="C67" s="71" t="s">
@@ -52908,7 +52833,7 @@
     </row>
     <row r="68" spans="1:26" ht="15" customHeight="1">
       <c r="A68" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" s="59"/>
       <c r="C68" s="129"/>
@@ -52945,22 +52870,22 @@
     <row r="70" spans="1:26" ht="15" customHeight="1">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
-      <c r="C70" s="152" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="153"/>
+      <c r="C70" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="162"/>
+      <c r="E70" s="162"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="162"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="59"/>
       <c r="C71" s="81"/>
@@ -52984,7 +52909,7 @@
     </row>
     <row r="72" spans="1:26" customFormat="1">
       <c r="A72" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="50" t="s">
@@ -53028,14 +52953,14 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B73" s="59"/>
       <c r="C73" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E73" s="86" t="s">
         <v>28</v>
@@ -53054,7 +52979,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="59"/>
       <c r="C74" s="81"/>
@@ -53082,7 +53007,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B75" s="59"/>
       <c r="C75" s="81" t="s">
@@ -53115,7 +53040,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B76" s="59"/>
       <c r="C76" s="81"/>
@@ -53139,20 +53064,20 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="59"/>
       <c r="C77" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D77" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E77" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G77" s="70" t="s">
         <v>22</v>
@@ -53172,7 +53097,7 @@
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1">
       <c r="A78" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78" s="64"/>
       <c r="C78" s="71" t="s">
@@ -53206,7 +53131,7 @@
     </row>
     <row r="79" spans="1:26" ht="15" customHeight="1">
       <c r="A79" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="66"/>
       <c r="C79" s="71" t="s">
@@ -53240,7 +53165,7 @@
     </row>
     <row r="80" spans="1:26" ht="15" customHeight="1">
       <c r="A80" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" s="59"/>
       <c r="C80" s="81" t="s">
@@ -53273,7 +53198,7 @@
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1">
       <c r="A81" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" s="59">
         <v>19</v>
@@ -53306,7 +53231,7 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1">
       <c r="A82" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="59"/>
       <c r="C82" s="81"/>
@@ -53328,7 +53253,7 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1">
       <c r="A83" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B83" s="59"/>
       <c r="C83" s="81"/>
@@ -53350,7 +53275,7 @@
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
       <c r="A84" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" s="66"/>
       <c r="C84" s="71" t="s">
@@ -53384,7 +53309,7 @@
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1">
       <c r="A85" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B85" s="66"/>
       <c r="C85" s="71" t="s">
@@ -53418,7 +53343,7 @@
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1">
       <c r="A86" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B86" s="59">
         <v>17</v>
@@ -53451,7 +53376,7 @@
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1">
       <c r="A87" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B87" s="69"/>
       <c r="C87" s="82" t="s">
@@ -53483,7 +53408,7 @@
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1">
       <c r="A88" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B88" s="59"/>
       <c r="C88" s="81"/>
@@ -53508,20 +53433,20 @@
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1">
       <c r="A89" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B89" s="59"/>
       <c r="C89" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D89" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E89" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F89" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="70" t="s">
         <v>22</v>
@@ -53541,7 +53466,7 @@
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1">
       <c r="A90" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" s="64"/>
       <c r="C90" s="71" t="s">
@@ -53575,7 +53500,7 @@
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1">
       <c r="A91" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B91" s="66"/>
       <c r="C91" s="71" t="s">
@@ -53607,7 +53532,7 @@
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1">
       <c r="A92" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92" s="59"/>
       <c r="C92" s="81" t="s">
@@ -53640,7 +53565,7 @@
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1">
       <c r="A93" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B93" s="59">
         <v>19</v>
@@ -53673,7 +53598,7 @@
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1">
       <c r="A94" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B94" s="59"/>
       <c r="C94" s="81"/>
@@ -53695,7 +53620,7 @@
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1">
       <c r="A95" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" s="59"/>
       <c r="C95" s="81"/>
@@ -53717,7 +53642,7 @@
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1">
       <c r="A96" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B96" s="64"/>
       <c r="C96" s="71" t="s">
@@ -53751,7 +53676,7 @@
     </row>
     <row r="97" spans="1:26" ht="15" customHeight="1">
       <c r="A97" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B97" s="70"/>
       <c r="C97" s="130" t="s">
@@ -53783,7 +53708,7 @@
     </row>
     <row r="98" spans="1:26" ht="15" customHeight="1">
       <c r="A98" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B98" s="59">
         <v>17</v>
@@ -53814,7 +53739,7 @@
     </row>
     <row r="99" spans="1:26" ht="15" customHeight="1">
       <c r="A99" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B99" s="59">
         <v>17</v>
@@ -53843,7 +53768,7 @@
     </row>
     <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B100" s="59">
         <v>17</v>
@@ -53878,7 +53803,7 @@
     </row>
     <row r="101" spans="1:26" ht="15" customHeight="1">
       <c r="A101" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B101" s="59">
         <v>17</v>
@@ -53913,7 +53838,7 @@
     </row>
     <row r="102" spans="1:26" ht="15" customHeight="1">
       <c r="A102" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" s="59"/>
       <c r="C102" s="81"/>
@@ -53941,7 +53866,7 @@
     </row>
     <row r="103" spans="1:26" ht="15" customHeight="1">
       <c r="A103" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" s="66"/>
       <c r="C103" s="71" t="s">
@@ -53973,7 +53898,7 @@
     </row>
     <row r="104" spans="1:26" ht="15" customHeight="1">
       <c r="A104" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="59"/>
       <c r="C104" s="81"/>
@@ -53996,22 +53921,22 @@
     <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="94"/>
       <c r="B106" s="95"/>
-      <c r="C106" s="152" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
+      <c r="C106" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="162"/>
+      <c r="E106" s="162"/>
+      <c r="F106" s="162"/>
+      <c r="G106" s="162"/>
+      <c r="H106" s="162"/>
+      <c r="I106" s="162"/>
+      <c r="J106" s="162"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="59"/>
       <c r="C107" s="81"/>
@@ -54035,7 +53960,7 @@
     </row>
     <row r="108" spans="1:26" customFormat="1">
       <c r="A108" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="50" t="s">
@@ -54079,14 +54004,14 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="59"/>
       <c r="C109" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="84" t="s">
         <v>229</v>
-      </c>
-      <c r="D109" s="84" t="s">
-        <v>230</v>
       </c>
       <c r="E109" s="86" t="s">
         <v>28</v>
@@ -54105,7 +54030,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" s="59"/>
       <c r="C110" s="81"/>
@@ -54133,7 +54058,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" s="59"/>
       <c r="C111" s="81" t="s">
@@ -54166,7 +54091,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B112" s="59"/>
       <c r="C112" s="81"/>
@@ -54190,20 +54115,20 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" s="59"/>
       <c r="C113" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D113" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E113" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F113" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G113" s="70" t="s">
         <v>22</v>
@@ -54223,7 +54148,7 @@
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1">
       <c r="A114" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="64"/>
       <c r="C114" s="71" t="s">
@@ -54257,7 +54182,7 @@
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1">
       <c r="A115" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B115" s="66"/>
       <c r="C115" s="71" t="s">
@@ -54291,7 +54216,7 @@
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1">
       <c r="A116" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116" s="59"/>
       <c r="C116" s="81" t="s">
@@ -54324,7 +54249,7 @@
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1">
       <c r="A117" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B117" s="59">
         <v>19</v>
@@ -54357,7 +54282,7 @@
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1">
       <c r="A118" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="59"/>
       <c r="C118" s="81"/>
@@ -54379,7 +54304,7 @@
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1">
       <c r="A119" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="59"/>
       <c r="C119" s="81"/>
@@ -54401,7 +54326,7 @@
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1">
       <c r="A120" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" s="66"/>
       <c r="C120" s="71" t="s">
@@ -54435,7 +54360,7 @@
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1">
       <c r="A121" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121" s="66"/>
       <c r="C121" s="71" t="s">
@@ -54469,7 +54394,7 @@
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1">
       <c r="A122" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122" s="59">
         <v>17</v>
@@ -54502,7 +54427,7 @@
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1">
       <c r="A123" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B123" s="69"/>
       <c r="C123" s="82" t="s">
@@ -54534,7 +54459,7 @@
     </row>
     <row r="124" spans="1:12" ht="15" customHeight="1">
       <c r="A124" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B124" s="59"/>
       <c r="C124" s="81"/>
@@ -54559,20 +54484,20 @@
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1">
       <c r="A125" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B125" s="59"/>
       <c r="C125" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D125" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E125" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F125" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G125" s="70" t="s">
         <v>22</v>
@@ -54592,7 +54517,7 @@
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1">
       <c r="A126" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B126" s="64"/>
       <c r="C126" s="71" t="s">
@@ -54626,7 +54551,7 @@
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1">
       <c r="A127" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B127" s="66"/>
       <c r="C127" s="71" t="s">
@@ -54658,7 +54583,7 @@
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1">
       <c r="A128" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B128" s="59"/>
       <c r="C128" s="81" t="s">
@@ -54691,7 +54616,7 @@
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1">
       <c r="A129" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B129" s="59">
         <v>19</v>
@@ -54724,7 +54649,7 @@
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1">
       <c r="A130" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B130" s="59"/>
       <c r="C130" s="81"/>
@@ -54746,7 +54671,7 @@
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1">
       <c r="A131" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B131" s="59"/>
       <c r="C131" s="81"/>
@@ -54768,7 +54693,7 @@
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1">
       <c r="A132" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B132" s="64"/>
       <c r="C132" s="71" t="s">
@@ -54802,7 +54727,7 @@
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1">
       <c r="A133" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133" s="70"/>
       <c r="C133" s="130" t="s">
@@ -54834,7 +54759,7 @@
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1">
       <c r="A134" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B134" s="59">
         <v>17</v>
@@ -54865,7 +54790,7 @@
     </row>
     <row r="135" spans="1:12" ht="15" customHeight="1">
       <c r="A135" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B135" s="59">
         <v>17</v>
@@ -54894,7 +54819,7 @@
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1">
       <c r="A136" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B136" s="59">
         <v>17</v>
@@ -54929,7 +54854,7 @@
     </row>
     <row r="137" spans="1:12" ht="15" customHeight="1">
       <c r="A137" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B137" s="59">
         <v>17</v>
@@ -54964,7 +54889,7 @@
     </row>
     <row r="138" spans="1:12" ht="15" customHeight="1">
       <c r="A138" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B138" s="59"/>
       <c r="C138" s="81"/>
@@ -54992,7 +54917,7 @@
     </row>
     <row r="139" spans="1:12" ht="15" customHeight="1">
       <c r="A139" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B139" s="66"/>
       <c r="C139" s="71" t="s">
@@ -55024,7 +54949,7 @@
     </row>
     <row r="140" spans="1:12" ht="15" customHeight="1">
       <c r="A140" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B140" s="59"/>
       <c r="C140" s="81"/>
@@ -55047,16 +54972,16 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="154" t="s">
-        <v>218</v>
-      </c>
-      <c r="D142" s="153"/>
-      <c r="E142" s="153"/>
-      <c r="F142" s="153"/>
-      <c r="G142" s="153"/>
-      <c r="H142" s="153"/>
-      <c r="I142" s="153"/>
-      <c r="J142" s="153"/>
+      <c r="C142" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="162"/>
+      <c r="E142" s="162"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="162"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="162"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
@@ -55171,19 +55096,19 @@
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D147" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E147" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F147" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G147" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H147" s="77" t="s">
         <v>30</v>
@@ -55540,19 +55465,19 @@
       </c>
       <c r="B159" s="59"/>
       <c r="C159" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D159" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D159" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E159" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F159" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G159" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H159" s="77" t="s">
         <v>30</v>
@@ -56021,16 +55946,16 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="154" t="s">
-        <v>220</v>
-      </c>
-      <c r="D177" s="153"/>
-      <c r="E177" s="153"/>
-      <c r="F177" s="153"/>
-      <c r="G177" s="153"/>
-      <c r="H177" s="153"/>
-      <c r="I177" s="153"/>
-      <c r="J177" s="153"/>
+      <c r="C177" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="D177" s="162"/>
+      <c r="E177" s="162"/>
+      <c r="F177" s="162"/>
+      <c r="G177" s="162"/>
+      <c r="H177" s="162"/>
+      <c r="I177" s="162"/>
+      <c r="J177" s="162"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
@@ -56145,19 +56070,19 @@
       </c>
       <c r="B183" s="59"/>
       <c r="C183" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D183" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D183" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E183" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F183" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G183" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H183" s="77" t="s">
         <v>30</v>
@@ -56514,19 +56439,19 @@
       </c>
       <c r="B195" s="59"/>
       <c r="C195" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D195" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D195" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E195" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G195" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H195" s="77" t="s">
         <v>30</v>
@@ -56993,16 +56918,16 @@
     <row r="213" spans="1:12" ht="15" customHeight="1">
       <c r="A213" s="94"/>
       <c r="B213" s="95"/>
-      <c r="C213" s="152" t="s">
-        <v>233</v>
-      </c>
-      <c r="D213" s="153"/>
-      <c r="E213" s="153"/>
-      <c r="F213" s="153"/>
-      <c r="G213" s="153"/>
-      <c r="H213" s="153"/>
-      <c r="I213" s="153"/>
-      <c r="J213" s="153"/>
+      <c r="C213" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="D213" s="162"/>
+      <c r="E213" s="162"/>
+      <c r="F213" s="162"/>
+      <c r="G213" s="162"/>
+      <c r="H213" s="162"/>
+      <c r="I213" s="162"/>
+      <c r="J213" s="162"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
@@ -57066,10 +56991,10 @@
       </c>
       <c r="B216" s="59"/>
       <c r="C216" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D216" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E216" s="86" t="s">
         <v>28</v>
@@ -57177,19 +57102,19 @@
       </c>
       <c r="B220" s="59"/>
       <c r="C220" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D220" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D220" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E220" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F220" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G220" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H220" s="77" t="s">
         <v>30</v>
@@ -57546,19 +57471,19 @@
       </c>
       <c r="B232" s="59"/>
       <c r="C232" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D232" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D232" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E232" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F232" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G232" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H232" s="77" t="s">
         <v>30</v>
@@ -58031,16 +57956,16 @@
     <row r="250" spans="1:12" ht="15" customHeight="1">
       <c r="A250" s="94"/>
       <c r="B250" s="95"/>
-      <c r="C250" s="152" t="s">
-        <v>234</v>
-      </c>
-      <c r="D250" s="153"/>
-      <c r="E250" s="153"/>
-      <c r="F250" s="153"/>
-      <c r="G250" s="153"/>
-      <c r="H250" s="153"/>
-      <c r="I250" s="153"/>
-      <c r="J250" s="153"/>
+      <c r="C250" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="D250" s="162"/>
+      <c r="E250" s="162"/>
+      <c r="F250" s="162"/>
+      <c r="G250" s="162"/>
+      <c r="H250" s="162"/>
+      <c r="I250" s="162"/>
+      <c r="J250" s="162"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
@@ -58104,10 +58029,10 @@
       </c>
       <c r="B253" s="59"/>
       <c r="C253" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D253" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E253" s="86" t="s">
         <v>28</v>
@@ -58215,19 +58140,19 @@
       </c>
       <c r="B257" s="59"/>
       <c r="C257" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D257" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D257" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E257" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F257" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G257" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H257" s="77" t="s">
         <v>30</v>
@@ -58584,19 +58509,19 @@
       </c>
       <c r="B269" s="59"/>
       <c r="C269" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D269" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D269" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E269" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F269" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G269" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H269" s="77" t="s">
         <v>30</v>
@@ -59074,16 +58999,16 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="154" t="s">
-        <v>221</v>
-      </c>
-      <c r="D323" s="153"/>
-      <c r="E323" s="153"/>
-      <c r="F323" s="153"/>
-      <c r="G323" s="153"/>
-      <c r="H323" s="153"/>
-      <c r="I323" s="153"/>
-      <c r="J323" s="153"/>
+      <c r="C323" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="D323" s="162"/>
+      <c r="E323" s="162"/>
+      <c r="F323" s="162"/>
+      <c r="G323" s="162"/>
+      <c r="H323" s="162"/>
+      <c r="I323" s="162"/>
+      <c r="J323" s="162"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
@@ -59198,19 +59123,19 @@
       </c>
       <c r="B329" s="83"/>
       <c r="C329" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D329" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D329" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E329" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F329" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G329" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H329" s="105" t="s">
         <v>30</v>
@@ -59567,19 +59492,19 @@
       </c>
       <c r="B341" s="83"/>
       <c r="C341" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D341" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D341" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E341" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F341" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G341" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H341" s="105" t="s">
         <v>30</v>
@@ -60048,16 +59973,16 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="154" t="s">
-        <v>222</v>
-      </c>
-      <c r="D359" s="153"/>
-      <c r="E359" s="153"/>
-      <c r="F359" s="153"/>
-      <c r="G359" s="153"/>
-      <c r="H359" s="153"/>
-      <c r="I359" s="153"/>
-      <c r="J359" s="153"/>
+      <c r="C359" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="D359" s="162"/>
+      <c r="E359" s="162"/>
+      <c r="F359" s="162"/>
+      <c r="G359" s="162"/>
+      <c r="H359" s="162"/>
+      <c r="I359" s="162"/>
+      <c r="J359" s="162"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
@@ -60172,19 +60097,19 @@
       </c>
       <c r="B365" s="83"/>
       <c r="C365" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D365" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D365" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E365" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F365" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G365" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H365" s="105" t="s">
         <v>30</v>
@@ -60541,19 +60466,19 @@
       </c>
       <c r="B377" s="83"/>
       <c r="C377" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D377" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D377" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E377" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F377" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G377" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H377" s="105" t="s">
         <v>30</v>
@@ -61019,22 +60944,22 @@
     <row r="395" spans="1:12" ht="15" customHeight="1">
       <c r="A395" s="94"/>
       <c r="B395" s="95"/>
-      <c r="C395" s="152" t="s">
-        <v>231</v>
-      </c>
-      <c r="D395" s="153"/>
-      <c r="E395" s="153"/>
-      <c r="F395" s="153"/>
-      <c r="G395" s="153"/>
-      <c r="H395" s="153"/>
-      <c r="I395" s="153"/>
-      <c r="J395" s="153"/>
+      <c r="C395" s="161" t="s">
+        <v>230</v>
+      </c>
+      <c r="D395" s="162"/>
+      <c r="E395" s="162"/>
+      <c r="F395" s="162"/>
+      <c r="G395" s="162"/>
+      <c r="H395" s="162"/>
+      <c r="I395" s="162"/>
+      <c r="J395" s="162"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
     <row r="396" spans="1:12" ht="15" customHeight="1">
       <c r="A396" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B396" s="59"/>
       <c r="C396" s="81"/>
@@ -61058,7 +60983,7 @@
     </row>
     <row r="397" spans="1:12" ht="15" customHeight="1">
       <c r="A397" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B397" s="48"/>
       <c r="C397" s="50" t="s">
@@ -61088,14 +61013,14 @@
     </row>
     <row r="398" spans="1:12" ht="15" customHeight="1">
       <c r="A398" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B398" s="59"/>
       <c r="C398" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D398" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E398" s="86" t="s">
         <v>28</v>
@@ -61114,7 +61039,7 @@
     </row>
     <row r="399" spans="1:12" ht="15" customHeight="1">
       <c r="A399" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B399" s="59"/>
       <c r="C399" s="81"/>
@@ -61142,7 +61067,7 @@
     </row>
     <row r="400" spans="1:12" ht="15" customHeight="1">
       <c r="A400" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B400" s="59"/>
       <c r="C400" s="81" t="s">
@@ -61175,7 +61100,7 @@
     </row>
     <row r="401" spans="1:12" ht="15" customHeight="1">
       <c r="A401" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B401" s="59"/>
       <c r="C401" s="81"/>
@@ -61199,23 +61124,23 @@
     </row>
     <row r="402" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
       <c r="A402" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B402" s="83"/>
       <c r="C402" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D402" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D402" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E402" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F402" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G402" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H402" s="105" t="s">
         <v>30</v>
@@ -61232,7 +61157,7 @@
     </row>
     <row r="403" spans="1:12" ht="15" customHeight="1">
       <c r="A403" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B403" s="64"/>
       <c r="C403" s="71" t="s">
@@ -61266,7 +61191,7 @@
     </row>
     <row r="404" spans="1:12" ht="15" customHeight="1">
       <c r="A404" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B404" s="66"/>
       <c r="C404" s="71" t="s">
@@ -61300,7 +61225,7 @@
     </row>
     <row r="405" spans="1:12" ht="15" customHeight="1">
       <c r="A405" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B405" s="59"/>
       <c r="C405" s="81" t="s">
@@ -61333,7 +61258,7 @@
     </row>
     <row r="406" spans="1:12" ht="15" customHeight="1">
       <c r="A406" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B406" s="59">
         <v>19</v>
@@ -61366,7 +61291,7 @@
     </row>
     <row r="407" spans="1:12" ht="15" customHeight="1">
       <c r="A407" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B407" s="59"/>
       <c r="C407" s="81"/>
@@ -61388,7 +61313,7 @@
     </row>
     <row r="408" spans="1:12" ht="15" customHeight="1">
       <c r="A408" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B408" s="59"/>
       <c r="C408" s="81"/>
@@ -61410,7 +61335,7 @@
     </row>
     <row r="409" spans="1:12" ht="15" customHeight="1">
       <c r="A409" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B409" s="66"/>
       <c r="C409" s="71" t="s">
@@ -61444,7 +61369,7 @@
     </row>
     <row r="410" spans="1:12" ht="15" customHeight="1">
       <c r="A410" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B410" s="66"/>
       <c r="C410" s="71" t="s">
@@ -61478,7 +61403,7 @@
     </row>
     <row r="411" spans="1:12" ht="15" customHeight="1">
       <c r="A411" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B411" s="59">
         <v>17</v>
@@ -61511,7 +61436,7 @@
     </row>
     <row r="412" spans="1:12" ht="15" customHeight="1">
       <c r="A412" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B412" s="69"/>
       <c r="C412" s="82" t="s">
@@ -61543,7 +61468,7 @@
     </row>
     <row r="413" spans="1:12" ht="15" customHeight="1">
       <c r="A413" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B413" s="59"/>
       <c r="C413" s="81"/>
@@ -61568,23 +61493,23 @@
     </row>
     <row r="414" spans="1:12" s="91" customFormat="1" ht="15" customHeight="1">
       <c r="A414" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B414" s="83"/>
       <c r="C414" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D414" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D414" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E414" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F414" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G414" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H414" s="105" t="s">
         <v>30</v>
@@ -61601,7 +61526,7 @@
     </row>
     <row r="415" spans="1:12" ht="15" customHeight="1">
       <c r="A415" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B415" s="64"/>
       <c r="C415" s="71" t="s">
@@ -61635,7 +61560,7 @@
     </row>
     <row r="416" spans="1:12" ht="15" customHeight="1">
       <c r="A416" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B416" s="66"/>
       <c r="C416" s="71" t="s">
@@ -61667,7 +61592,7 @@
     </row>
     <row r="417" spans="1:12" ht="15" customHeight="1">
       <c r="A417" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B417" s="59"/>
       <c r="C417" s="81" t="s">
@@ -61700,7 +61625,7 @@
     </row>
     <row r="418" spans="1:12" ht="15" customHeight="1">
       <c r="A418" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B418" s="59">
         <v>19</v>
@@ -61733,7 +61658,7 @@
     </row>
     <row r="419" spans="1:12" ht="15" customHeight="1">
       <c r="A419" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B419" s="59"/>
       <c r="C419" s="81"/>
@@ -61755,7 +61680,7 @@
     </row>
     <row r="420" spans="1:12" ht="15" customHeight="1">
       <c r="A420" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B420" s="59"/>
       <c r="C420" s="81"/>
@@ -61777,7 +61702,7 @@
     </row>
     <row r="421" spans="1:12" ht="15" customHeight="1">
       <c r="A421" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B421" s="64"/>
       <c r="C421" s="71" t="s">
@@ -61811,7 +61736,7 @@
     </row>
     <row r="422" spans="1:12" ht="15" customHeight="1">
       <c r="A422" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B422" s="70"/>
       <c r="C422" s="130" t="s">
@@ -61843,7 +61768,7 @@
     </row>
     <row r="423" spans="1:12" ht="15" customHeight="1">
       <c r="A423" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B423" s="59">
         <v>17</v>
@@ -61874,7 +61799,7 @@
     </row>
     <row r="424" spans="1:12" ht="15" customHeight="1">
       <c r="A424" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B424" s="59">
         <v>17</v>
@@ -61903,7 +61828,7 @@
     </row>
     <row r="425" spans="1:12" ht="15" customHeight="1">
       <c r="A425" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B425" s="59">
         <v>17</v>
@@ -61938,7 +61863,7 @@
     </row>
     <row r="426" spans="1:12" ht="15" customHeight="1">
       <c r="A426" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B426" s="59">
         <v>17</v>
@@ -61973,7 +61898,7 @@
     </row>
     <row r="427" spans="1:12" ht="15" customHeight="1">
       <c r="A427" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B427" s="59"/>
       <c r="C427" s="81"/>
@@ -62001,7 +61926,7 @@
     </row>
     <row r="428" spans="1:12" ht="15" customHeight="1">
       <c r="A428" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B428" s="66"/>
       <c r="C428" s="71" t="s">
@@ -62033,7 +61958,7 @@
     </row>
     <row r="429" spans="1:12" ht="15" customHeight="1">
       <c r="A429" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B429" s="59"/>
       <c r="C429" s="81"/>
@@ -62056,22 +61981,22 @@
     <row r="431" spans="1:12" ht="15" customHeight="1">
       <c r="A431" s="94"/>
       <c r="B431" s="95"/>
-      <c r="C431" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="D431" s="153"/>
-      <c r="E431" s="153"/>
-      <c r="F431" s="153"/>
-      <c r="G431" s="153"/>
-      <c r="H431" s="153"/>
-      <c r="I431" s="153"/>
-      <c r="J431" s="153"/>
+      <c r="C431" s="161" t="s">
+        <v>231</v>
+      </c>
+      <c r="D431" s="162"/>
+      <c r="E431" s="162"/>
+      <c r="F431" s="162"/>
+      <c r="G431" s="162"/>
+      <c r="H431" s="162"/>
+      <c r="I431" s="162"/>
+      <c r="J431" s="162"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>
     <row r="432" spans="1:12" ht="15" customHeight="1">
       <c r="A432" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B432" s="59"/>
       <c r="C432" s="81"/>
@@ -62095,7 +62020,7 @@
     </row>
     <row r="433" spans="1:12" ht="15" customHeight="1">
       <c r="A433" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B433" s="48"/>
       <c r="C433" s="50" t="s">
@@ -62125,14 +62050,14 @@
     </row>
     <row r="434" spans="1:12" ht="15" customHeight="1">
       <c r="A434" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B434" s="59"/>
       <c r="C434" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D434" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E434" s="86" t="s">
         <v>28</v>
@@ -62151,7 +62076,7 @@
     </row>
     <row r="435" spans="1:12" ht="15" customHeight="1">
       <c r="A435" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B435" s="59"/>
       <c r="C435" s="81"/>
@@ -62179,7 +62104,7 @@
     </row>
     <row r="436" spans="1:12" ht="15" customHeight="1">
       <c r="A436" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B436" s="59"/>
       <c r="C436" s="81" t="s">
@@ -62212,7 +62137,7 @@
     </row>
     <row r="437" spans="1:12" ht="15" customHeight="1">
       <c r="A437" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B437" s="59"/>
       <c r="C437" s="81"/>
@@ -62236,23 +62161,23 @@
     </row>
     <row r="438" spans="1:12" ht="15" customHeight="1">
       <c r="A438" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B438" s="83"/>
       <c r="C438" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D438" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D438" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E438" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F438" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G438" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H438" s="105" t="s">
         <v>30</v>
@@ -62269,7 +62194,7 @@
     </row>
     <row r="439" spans="1:12" ht="15" customHeight="1">
       <c r="A439" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B439" s="64"/>
       <c r="C439" s="71" t="s">
@@ -62303,7 +62228,7 @@
     </row>
     <row r="440" spans="1:12" ht="15" customHeight="1">
       <c r="A440" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B440" s="66"/>
       <c r="C440" s="71" t="s">
@@ -62337,7 +62262,7 @@
     </row>
     <row r="441" spans="1:12" ht="15" customHeight="1">
       <c r="A441" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B441" s="59"/>
       <c r="C441" s="81" t="s">
@@ -62370,7 +62295,7 @@
     </row>
     <row r="442" spans="1:12" ht="15" customHeight="1">
       <c r="A442" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B442" s="59">
         <v>19</v>
@@ -62403,7 +62328,7 @@
     </row>
     <row r="443" spans="1:12" ht="15" customHeight="1">
       <c r="A443" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B443" s="59"/>
       <c r="C443" s="81"/>
@@ -62425,7 +62350,7 @@
     </row>
     <row r="444" spans="1:12" ht="15" customHeight="1">
       <c r="A444" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B444" s="59"/>
       <c r="C444" s="81"/>
@@ -62447,7 +62372,7 @@
     </row>
     <row r="445" spans="1:12" ht="15" customHeight="1">
       <c r="A445" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B445" s="66"/>
       <c r="C445" s="71" t="s">
@@ -62481,7 +62406,7 @@
     </row>
     <row r="446" spans="1:12" ht="15" customHeight="1">
       <c r="A446" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B446" s="66"/>
       <c r="C446" s="71" t="s">
@@ -62515,7 +62440,7 @@
     </row>
     <row r="447" spans="1:12" ht="15" customHeight="1">
       <c r="A447" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B447" s="59">
         <v>17</v>
@@ -62548,7 +62473,7 @@
     </row>
     <row r="448" spans="1:12" ht="15" customHeight="1">
       <c r="A448" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B448" s="69"/>
       <c r="C448" s="82" t="s">
@@ -62580,7 +62505,7 @@
     </row>
     <row r="449" spans="1:12" ht="15" customHeight="1">
       <c r="A449" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B449" s="59"/>
       <c r="C449" s="81"/>
@@ -62605,23 +62530,23 @@
     </row>
     <row r="450" spans="1:12" ht="15" customHeight="1">
       <c r="A450" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B450" s="83"/>
       <c r="C450" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D450" s="84" t="s">
         <v>215</v>
-      </c>
-      <c r="D450" s="84" t="s">
-        <v>216</v>
       </c>
       <c r="E450" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F450" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G450" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H450" s="105" t="s">
         <v>30</v>
@@ -62638,7 +62563,7 @@
     </row>
     <row r="451" spans="1:12" ht="15" customHeight="1">
       <c r="A451" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B451" s="64"/>
       <c r="C451" s="71" t="s">
@@ -62672,7 +62597,7 @@
     </row>
     <row r="452" spans="1:12" ht="15" customHeight="1">
       <c r="A452" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B452" s="66"/>
       <c r="C452" s="71" t="s">
@@ -62704,7 +62629,7 @@
     </row>
     <row r="453" spans="1:12" ht="15" customHeight="1">
       <c r="A453" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B453" s="59"/>
       <c r="C453" s="81" t="s">
@@ -62737,7 +62662,7 @@
     </row>
     <row r="454" spans="1:12" ht="15" customHeight="1">
       <c r="A454" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B454" s="59">
         <v>19</v>
@@ -62770,7 +62695,7 @@
     </row>
     <row r="455" spans="1:12" ht="15" customHeight="1">
       <c r="A455" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B455" s="59"/>
       <c r="C455" s="81"/>
@@ -62792,7 +62717,7 @@
     </row>
     <row r="456" spans="1:12" ht="15" customHeight="1">
       <c r="A456" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B456" s="59"/>
       <c r="C456" s="81"/>
@@ -62814,7 +62739,7 @@
     </row>
     <row r="457" spans="1:12" ht="15" customHeight="1">
       <c r="A457" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B457" s="64"/>
       <c r="C457" s="71" t="s">
@@ -62848,7 +62773,7 @@
     </row>
     <row r="458" spans="1:12" ht="15" customHeight="1">
       <c r="A458" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B458" s="70"/>
       <c r="C458" s="130" t="s">
@@ -62880,7 +62805,7 @@
     </row>
     <row r="459" spans="1:12" ht="15" customHeight="1">
       <c r="A459" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B459" s="59">
         <v>17</v>
@@ -62911,7 +62836,7 @@
     </row>
     <row r="460" spans="1:12" ht="15" customHeight="1">
       <c r="A460" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B460" s="59">
         <v>17</v>
@@ -62940,7 +62865,7 @@
     </row>
     <row r="461" spans="1:12" ht="15" customHeight="1">
       <c r="A461" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B461" s="59">
         <v>17</v>
@@ -62975,7 +62900,7 @@
     </row>
     <row r="462" spans="1:12" ht="15" customHeight="1">
       <c r="A462" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B462" s="59">
         <v>17</v>
@@ -63010,7 +62935,7 @@
     </row>
     <row r="463" spans="1:12" ht="15" customHeight="1">
       <c r="A463" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B463" s="59"/>
       <c r="C463" s="81"/>
@@ -63038,7 +62963,7 @@
     </row>
     <row r="464" spans="1:12" ht="15" customHeight="1">
       <c r="A464" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B464" s="66"/>
       <c r="C464" s="71" t="s">
@@ -63070,7 +62995,7 @@
     </row>
     <row r="465" spans="1:10" ht="15" customHeight="1">
       <c r="A465" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B465" s="59"/>
       <c r="C465" s="81"/>
@@ -63093,18 +63018,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C323:J323"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C106:J106"/>
     <mergeCell ref="C395:J395"/>
     <mergeCell ref="C142:J142"/>
     <mergeCell ref="C431:J431"/>
     <mergeCell ref="C213:J213"/>
     <mergeCell ref="C250:J250"/>
     <mergeCell ref="C359:J359"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C323:J323"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="3450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="20490" windowHeight="3450"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -740,15 +740,6 @@
     <t>13th Period - Lessor - Operating - Validate user is able to Add Revision</t>
   </si>
   <si>
-    <t>TCEnv107</t>
-  </si>
-  <si>
-    <t>TCEnv108</t>
-  </si>
-  <si>
-    <t>TCEnv109</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
@@ -756,6 +747,15 @@
   </si>
   <si>
     <t>UIBase.VerifyPageLoadedTrue</t>
+  </si>
+  <si>
+    <t>TCEnv101</t>
+  </si>
+  <si>
+    <t>TCEnv105</t>
+  </si>
+  <si>
+    <t>TCEnv106</t>
   </si>
 </sst>
 </file>
@@ -1610,46 +1610,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1672,19 +1632,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="420">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2993,6 +2986,13 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4B083"/>
           <bgColor rgb="FFF4B083"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5235,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5349,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
@@ -5372,7 +5372,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S4" s="68" t="s">
         <v>26</v>
@@ -5398,7 +5398,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5421,7 +5421,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5444,7 +5444,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5467,7 +5467,7 @@
         <v>55</v>
       </c>
       <c r="I8" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -5490,7 +5490,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -5513,7 +5513,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5536,7 +5536,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5559,7 +5559,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="79" customFormat="1">
@@ -5582,7 +5582,7 @@
         <v>210</v>
       </c>
       <c r="I13" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="79" customFormat="1">
@@ -5605,7 +5605,7 @@
         <v>210</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -5630,7 +5630,7 @@
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
@@ -5655,7 +5655,7 @@
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5708,7 +5708,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5731,7 +5731,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5754,7 +5754,7 @@
         <v>55</v>
       </c>
       <c r="I21" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5777,7 +5777,7 @@
         <v>55</v>
       </c>
       <c r="I22" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5800,7 +5800,7 @@
         <v>55</v>
       </c>
       <c r="I23" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
@@ -5823,7 +5823,7 @@
         <v>55</v>
       </c>
       <c r="I24" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -5846,7 +5846,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
@@ -5869,7 +5869,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
@@ -5892,7 +5892,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
@@ -5915,7 +5915,7 @@
         <v>62</v>
       </c>
       <c r="I28" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="79" customFormat="1">
@@ -5938,7 +5938,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="79" customFormat="1">
@@ -5961,7 +5961,7 @@
         <v>210</v>
       </c>
       <c r="I30" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="79" customFormat="1">
@@ -5984,7 +5984,7 @@
         <v>210</v>
       </c>
       <c r="I31" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="79" customFormat="1">
@@ -6007,7 +6007,7 @@
         <v>210</v>
       </c>
       <c r="I32" s="118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="133" customFormat="1" ht="15.75" customHeight="1">
@@ -6065,7 +6065,7 @@
         <v>27</v>
       </c>
       <c r="I35" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
@@ -6088,7 +6088,7 @@
         <v>27</v>
       </c>
       <c r="I36" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
@@ -6113,7 +6113,7 @@
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
       <c r="I37" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J37" s="126"/>
       <c r="K37" s="126"/>
@@ -6155,7 +6155,7 @@
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
       <c r="I38" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J38" s="126"/>
       <c r="K38" s="126"/>
@@ -6197,7 +6197,7 @@
       <c r="G39" s="126"/>
       <c r="H39" s="126"/>
       <c r="I39" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J39" s="126"/>
       <c r="K39" s="126"/>
@@ -6239,7 +6239,7 @@
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
       <c r="I40" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J40" s="126"/>
       <c r="K40" s="126"/>
@@ -6279,7 +6279,7 @@
         <v>62</v>
       </c>
       <c r="I41" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
@@ -6302,7 +6302,7 @@
         <v>62</v>
       </c>
       <c r="I42" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
@@ -6325,7 +6325,7 @@
         <v>62</v>
       </c>
       <c r="I43" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
@@ -6348,7 +6348,7 @@
         <v>62</v>
       </c>
       <c r="I44" s="118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:26" s="79" customFormat="1">
@@ -7402,7 +7402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
@@ -7474,12 +7474,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="151"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7756,12 +7756,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -7784,36 +7784,36 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" s="171" customFormat="1">
+    <row r="12" spans="1:26" s="151" customFormat="1">
       <c r="A12" s="6">
         <v>6530956</v>
       </c>
       <c r="B12" s="59">
         <v>1</v>
       </c>
-      <c r="C12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="C12" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="168"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="171">
+      <c r="I12" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="151">
         <v>0</v>
       </c>
     </row>
@@ -8158,12 +8158,12 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
@@ -8440,12 +8440,12 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="38"/>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="162"/>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
       <c r="H33" s="17"/>
@@ -8468,36 +8468,36 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="1:26" s="171" customFormat="1">
+    <row r="34" spans="1:26" s="151" customFormat="1">
       <c r="A34" s="6">
         <v>6530968</v>
       </c>
       <c r="B34" s="59">
         <v>1</v>
       </c>
-      <c r="C34" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="167" t="s">
+      <c r="C34" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="168"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="171">
+      <c r="I34" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="151">
         <v>0</v>
       </c>
     </row>
@@ -8842,12 +8842,12 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="149"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="160"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
@@ -9124,12 +9124,12 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
-      <c r="B55" s="147" t="s">
+      <c r="B55" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="149"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="160"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="10"/>
@@ -9152,36 +9152,36 @@
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
     </row>
-    <row r="56" spans="1:26" s="171" customFormat="1">
+    <row r="56" spans="1:26" s="151" customFormat="1">
       <c r="A56" s="6">
         <v>6530966</v>
       </c>
       <c r="B56" s="59">
         <v>1</v>
       </c>
-      <c r="C56" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="167" t="s">
+      <c r="C56" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="168"/>
+      <c r="G56" s="148"/>
       <c r="H56" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L56" s="171">
+      <c r="I56" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="151">
         <v>0</v>
       </c>
     </row>
@@ -9526,12 +9526,12 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
-      <c r="B68" s="147" t="s">
+      <c r="B68" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="149"/>
+      <c r="C68" s="159"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="160"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="10"/>
@@ -9554,36 +9554,36 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
     </row>
-    <row r="69" spans="1:26" s="171" customFormat="1">
+    <row r="69" spans="1:26" s="151" customFormat="1">
       <c r="A69" s="6">
         <v>6530957</v>
       </c>
       <c r="B69" s="59">
         <v>1</v>
       </c>
-      <c r="C69" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="167" t="s">
+      <c r="C69" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="168"/>
+      <c r="G69" s="148"/>
       <c r="H69" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="171">
+      <c r="I69" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="151">
         <v>0</v>
       </c>
     </row>
@@ -9964,12 +9964,12 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
-      <c r="B82" s="147" t="s">
+      <c r="B82" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="149"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="159"/>
+      <c r="E82" s="160"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
@@ -9992,36 +9992,36 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
     </row>
-    <row r="83" spans="1:26" s="171" customFormat="1">
+    <row r="83" spans="1:26" s="151" customFormat="1">
       <c r="A83" s="6">
         <v>6530958</v>
       </c>
       <c r="B83" s="59">
         <v>1</v>
       </c>
-      <c r="C83" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F83" s="167" t="s">
+      <c r="C83" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G83" s="168"/>
+      <c r="G83" s="148"/>
       <c r="H83" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="171">
+      <c r="I83" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="151">
         <v>0</v>
       </c>
     </row>
@@ -10402,11 +10402,11 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="55"/>
-      <c r="B96" s="144" t="s">
+      <c r="B96" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="C96" s="145"/>
-      <c r="D96" s="146"/>
+      <c r="C96" s="153"/>
+      <c r="D96" s="162"/>
       <c r="E96" s="56"/>
       <c r="F96" s="56"/>
       <c r="G96" s="56"/>
@@ -10430,36 +10430,36 @@
       <c r="Y96" s="56"/>
       <c r="Z96" s="56"/>
     </row>
-    <row r="97" spans="1:26" s="171" customFormat="1">
+    <row r="97" spans="1:26" s="151" customFormat="1">
       <c r="A97" s="6">
         <v>6530962</v>
       </c>
       <c r="B97" s="59">
         <v>1</v>
       </c>
-      <c r="C97" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D97" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F97" s="167" t="s">
+      <c r="C97" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E97" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G97" s="168"/>
+      <c r="G97" s="148"/>
       <c r="H97" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I97" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J97" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L97" s="171">
+      <c r="I97" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="151">
         <v>0</v>
       </c>
     </row>
@@ -10840,11 +10840,11 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="55"/>
-      <c r="B110" s="144" t="s">
+      <c r="B110" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="145"/>
-      <c r="D110" s="146"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="162"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
       <c r="G110" s="56"/>
@@ -10868,36 +10868,36 @@
       <c r="Y110" s="56"/>
       <c r="Z110" s="56"/>
     </row>
-    <row r="111" spans="1:26" s="171" customFormat="1">
+    <row r="111" spans="1:26" s="151" customFormat="1">
       <c r="A111" s="6">
         <v>6530960</v>
       </c>
       <c r="B111" s="59">
         <v>1</v>
       </c>
-      <c r="C111" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D111" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F111" s="167" t="s">
+      <c r="C111" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G111" s="168"/>
+      <c r="G111" s="148"/>
       <c r="H111" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I111" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="171">
+      <c r="I111" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="151">
         <v>0</v>
       </c>
     </row>
@@ -11278,11 +11278,11 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="55"/>
-      <c r="B124" s="144" t="s">
+      <c r="B124" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="145"/>
-      <c r="D124" s="146"/>
+      <c r="C124" s="153"/>
+      <c r="D124" s="162"/>
       <c r="E124" s="56"/>
       <c r="F124" s="56"/>
       <c r="G124" s="56"/>
@@ -11306,36 +11306,36 @@
       <c r="Y124" s="56"/>
       <c r="Z124" s="56"/>
     </row>
-    <row r="125" spans="1:26" s="171" customFormat="1">
+    <row r="125" spans="1:26" s="151" customFormat="1">
       <c r="A125" s="6">
         <v>6530964</v>
       </c>
       <c r="B125" s="59">
         <v>1</v>
       </c>
-      <c r="C125" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D125" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E125" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F125" s="167" t="s">
+      <c r="C125" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E125" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G125" s="168"/>
+      <c r="G125" s="148"/>
       <c r="H125" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I125" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J125" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="171">
+      <c r="I125" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="151">
         <v>0</v>
       </c>
     </row>
@@ -11716,11 +11716,11 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="55"/>
-      <c r="B138" s="144" t="s">
+      <c r="B138" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="C138" s="145"/>
-      <c r="D138" s="146"/>
+      <c r="C138" s="153"/>
+      <c r="D138" s="162"/>
       <c r="E138" s="56"/>
       <c r="F138" s="56"/>
       <c r="G138" s="56"/>
@@ -11744,36 +11744,36 @@
       <c r="Y138" s="56"/>
       <c r="Z138" s="56"/>
     </row>
-    <row r="139" spans="1:26" s="171" customFormat="1">
+    <row r="139" spans="1:26" s="151" customFormat="1">
       <c r="A139" s="6">
         <v>6530959</v>
       </c>
       <c r="B139" s="59">
         <v>1</v>
       </c>
-      <c r="C139" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="D139" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E139" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="F139" s="167" t="s">
+      <c r="C139" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E139" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G139" s="168"/>
+      <c r="G139" s="148"/>
       <c r="H139" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I139" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="J139" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L139" s="171">
+      <c r="I139" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J139" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" s="151">
         <v>0</v>
       </c>
     </row>
@@ -15586,11 +15586,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B110:D110"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B138:D138"/>
     <mergeCell ref="B46:E46"/>
@@ -15598,6 +15593,11 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B110:D110"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="419" priority="31" operator="equal">
@@ -17161,11 +17161,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -17377,11 +17377,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="159"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -17593,11 +17593,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -17809,11 +17809,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -18025,11 +18025,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -18235,11 +18235,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="159"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -22257,362 +22257,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="160" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="159" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="158" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="156" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="155" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="152" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="151" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="149" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="148" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="147" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="146" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="143" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="142" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="141" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="140" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="139" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="138" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="136" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="135" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="134" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="133" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="132" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="131" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="130" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="127" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="126" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="125" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="124" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="123" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="122" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="121" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="120" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="115" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="114" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="113" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="112" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="111" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="110" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="109" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="108" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="107" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="106" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="105" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="104" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="103" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22703,16 +22703,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="151"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -22887,16 +22887,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="151"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -23071,16 +23071,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="151"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -23255,16 +23255,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="151"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -23439,16 +23439,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="151"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -23613,16 +23613,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="151"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -23797,16 +23797,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="151"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -23981,16 +23981,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="151"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -24165,16 +24165,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="151"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -24349,16 +24349,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="151"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="154"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -24533,16 +24533,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="160" t="s">
+      <c r="C52" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="151"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="154"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -24717,16 +24717,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="160" t="s">
+      <c r="C57" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="151"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="154"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -51192,11 +51192,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -51204,109 +51199,114 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="95" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="89" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="83" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="82" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51384,16 +51384,16 @@
     <row r="2" spans="1:26" s="99" customFormat="1">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -52374,16 +52374,16 @@
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
@@ -53391,16 +53391,16 @@
     <row r="70" spans="1:26" ht="15" customHeight="1">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
-      <c r="C70" s="161" t="s">
+      <c r="C70" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="162"/>
-      <c r="E70" s="162"/>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="162"/>
+      <c r="D70" s="170"/>
+      <c r="E70" s="170"/>
+      <c r="F70" s="170"/>
+      <c r="G70" s="170"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="170"/>
+      <c r="J70" s="170"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
@@ -54442,16 +54442,16 @@
     <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="94"/>
       <c r="B106" s="95"/>
-      <c r="C106" s="161" t="s">
+      <c r="C106" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="D106" s="162"/>
-      <c r="E106" s="162"/>
-      <c r="F106" s="162"/>
-      <c r="G106" s="162"/>
-      <c r="H106" s="162"/>
-      <c r="I106" s="162"/>
-      <c r="J106" s="162"/>
+      <c r="D106" s="170"/>
+      <c r="E106" s="170"/>
+      <c r="F106" s="170"/>
+      <c r="G106" s="170"/>
+      <c r="H106" s="170"/>
+      <c r="I106" s="170"/>
+      <c r="J106" s="170"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
@@ -55493,16 +55493,16 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="163" t="s">
+      <c r="C142" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="D142" s="162"/>
-      <c r="E142" s="162"/>
-      <c r="F142" s="162"/>
-      <c r="G142" s="162"/>
-      <c r="H142" s="162"/>
-      <c r="I142" s="162"/>
-      <c r="J142" s="162"/>
+      <c r="D142" s="170"/>
+      <c r="E142" s="170"/>
+      <c r="F142" s="170"/>
+      <c r="G142" s="170"/>
+      <c r="H142" s="170"/>
+      <c r="I142" s="170"/>
+      <c r="J142" s="170"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
@@ -56467,16 +56467,16 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="163" t="s">
+      <c r="C177" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="D177" s="162"/>
-      <c r="E177" s="162"/>
-      <c r="F177" s="162"/>
-      <c r="G177" s="162"/>
-      <c r="H177" s="162"/>
-      <c r="I177" s="162"/>
-      <c r="J177" s="162"/>
+      <c r="D177" s="170"/>
+      <c r="E177" s="170"/>
+      <c r="F177" s="170"/>
+      <c r="G177" s="170"/>
+      <c r="H177" s="170"/>
+      <c r="I177" s="170"/>
+      <c r="J177" s="170"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
@@ -57439,16 +57439,16 @@
     <row r="213" spans="1:12" ht="15" customHeight="1">
       <c r="A213" s="94"/>
       <c r="B213" s="95"/>
-      <c r="C213" s="161" t="s">
+      <c r="C213" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="D213" s="162"/>
-      <c r="E213" s="162"/>
-      <c r="F213" s="162"/>
-      <c r="G213" s="162"/>
-      <c r="H213" s="162"/>
-      <c r="I213" s="162"/>
-      <c r="J213" s="162"/>
+      <c r="D213" s="170"/>
+      <c r="E213" s="170"/>
+      <c r="F213" s="170"/>
+      <c r="G213" s="170"/>
+      <c r="H213" s="170"/>
+      <c r="I213" s="170"/>
+      <c r="J213" s="170"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
@@ -58477,16 +58477,16 @@
     <row r="250" spans="1:12" ht="15" customHeight="1">
       <c r="A250" s="94"/>
       <c r="B250" s="95"/>
-      <c r="C250" s="161" t="s">
+      <c r="C250" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="D250" s="162"/>
-      <c r="E250" s="162"/>
-      <c r="F250" s="162"/>
-      <c r="G250" s="162"/>
-      <c r="H250" s="162"/>
-      <c r="I250" s="162"/>
-      <c r="J250" s="162"/>
+      <c r="D250" s="170"/>
+      <c r="E250" s="170"/>
+      <c r="F250" s="170"/>
+      <c r="G250" s="170"/>
+      <c r="H250" s="170"/>
+      <c r="I250" s="170"/>
+      <c r="J250" s="170"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
@@ -59520,16 +59520,16 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="163" t="s">
+      <c r="C323" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="D323" s="162"/>
-      <c r="E323" s="162"/>
-      <c r="F323" s="162"/>
-      <c r="G323" s="162"/>
-      <c r="H323" s="162"/>
-      <c r="I323" s="162"/>
-      <c r="J323" s="162"/>
+      <c r="D323" s="170"/>
+      <c r="E323" s="170"/>
+      <c r="F323" s="170"/>
+      <c r="G323" s="170"/>
+      <c r="H323" s="170"/>
+      <c r="I323" s="170"/>
+      <c r="J323" s="170"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
@@ -60494,16 +60494,16 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="163" t="s">
+      <c r="C359" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="D359" s="162"/>
-      <c r="E359" s="162"/>
-      <c r="F359" s="162"/>
-      <c r="G359" s="162"/>
-      <c r="H359" s="162"/>
-      <c r="I359" s="162"/>
-      <c r="J359" s="162"/>
+      <c r="D359" s="170"/>
+      <c r="E359" s="170"/>
+      <c r="F359" s="170"/>
+      <c r="G359" s="170"/>
+      <c r="H359" s="170"/>
+      <c r="I359" s="170"/>
+      <c r="J359" s="170"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
@@ -61465,16 +61465,16 @@
     <row r="395" spans="1:12" ht="15" customHeight="1">
       <c r="A395" s="94"/>
       <c r="B395" s="95"/>
-      <c r="C395" s="161" t="s">
+      <c r="C395" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="D395" s="162"/>
-      <c r="E395" s="162"/>
-      <c r="F395" s="162"/>
-      <c r="G395" s="162"/>
-      <c r="H395" s="162"/>
-      <c r="I395" s="162"/>
-      <c r="J395" s="162"/>
+      <c r="D395" s="170"/>
+      <c r="E395" s="170"/>
+      <c r="F395" s="170"/>
+      <c r="G395" s="170"/>
+      <c r="H395" s="170"/>
+      <c r="I395" s="170"/>
+      <c r="J395" s="170"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
@@ -62502,16 +62502,16 @@
     <row r="431" spans="1:12" ht="15" customHeight="1">
       <c r="A431" s="94"/>
       <c r="B431" s="95"/>
-      <c r="C431" s="161" t="s">
+      <c r="C431" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="D431" s="162"/>
-      <c r="E431" s="162"/>
-      <c r="F431" s="162"/>
-      <c r="G431" s="162"/>
-      <c r="H431" s="162"/>
-      <c r="I431" s="162"/>
-      <c r="J431" s="162"/>
+      <c r="D431" s="170"/>
+      <c r="E431" s="170"/>
+      <c r="F431" s="170"/>
+      <c r="G431" s="170"/>
+      <c r="H431" s="170"/>
+      <c r="I431" s="170"/>
+      <c r="J431" s="170"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>
@@ -63539,18 +63539,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C395:J395"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C431:J431"/>
+    <mergeCell ref="C213:J213"/>
+    <mergeCell ref="C250:J250"/>
+    <mergeCell ref="C359:J359"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C177:J177"/>
     <mergeCell ref="C323:J323"/>
     <mergeCell ref="C70:J70"/>
     <mergeCell ref="C106:J106"/>
-    <mergeCell ref="C395:J395"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C431:J431"/>
-    <mergeCell ref="C213:J213"/>
-    <mergeCell ref="C250:J250"/>
-    <mergeCell ref="C359:J359"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC1DDD4-ED4A-9142-95AA-A21258A8B918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC69B8-7BE8-ED4D-AB73-96297090C85B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="282">
   <si>
     <t>TC_ID</t>
   </si>
@@ -1696,10 +1696,36 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1709,17 +1735,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1736,24 +1753,7 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5278,7 +5278,7 @@
       <c r="F3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       <c r="F4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="160" t="s">
+      <c r="I4" s="139" t="s">
         <v>212</v>
       </c>
       <c r="S4" s="68" t="s">
@@ -5327,7 +5327,7 @@
       <c r="F5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       <c r="F6" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="160" t="s">
+      <c r="I6" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       <c r="F7" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="160" t="s">
+      <c r="I7" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="F8" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="160" t="s">
+      <c r="I8" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="F9" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="160" t="s">
+      <c r="I9" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       <c r="F10" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="160" t="s">
+      <c r="I10" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="F11" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="160" t="s">
+      <c r="I11" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       <c r="F12" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       <c r="F13" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       <c r="F14" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="139" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
-      <c r="I15" s="160" t="s">
+      <c r="I15" s="139" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
-      <c r="I16" s="160" t="s">
+      <c r="I16" s="139" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="F29" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="161"/>
+      <c r="I29" s="140"/>
     </row>
     <row r="30" spans="1:26" s="79" customFormat="1">
       <c r="A30" s="63">
@@ -5858,7 +5858,7 @@
       <c r="F30" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="161"/>
+      <c r="I30" s="140"/>
     </row>
     <row r="31" spans="1:26" s="79" customFormat="1">
       <c r="A31" s="63">
@@ -5879,7 +5879,7 @@
       <c r="F31" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="161"/>
+      <c r="I31" s="140"/>
     </row>
     <row r="32" spans="1:26" s="79" customFormat="1">
       <c r="A32" s="63">
@@ -5900,7 +5900,7 @@
       <c r="F32" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="161"/>
+      <c r="I32" s="140"/>
     </row>
     <row r="33" spans="1:26" s="131" customFormat="1" ht="15.75" customHeight="1">
       <c r="B33" s="132"/>
@@ -6238,7 +6238,7 @@
       <c r="F45" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="161"/>
+      <c r="I45" s="140"/>
     </row>
     <row r="46" spans="1:26" s="79" customFormat="1">
       <c r="A46" s="63">
@@ -6259,7 +6259,7 @@
       <c r="F46" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I46" s="161"/>
+      <c r="I46" s="140"/>
     </row>
     <row r="47" spans="1:26" s="79" customFormat="1">
       <c r="A47" s="63">
@@ -6280,7 +6280,7 @@
       <c r="F47" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I47" s="161"/>
+      <c r="I47" s="140"/>
     </row>
     <row r="48" spans="1:26" s="79" customFormat="1">
       <c r="A48" s="63">
@@ -6301,7 +6301,7 @@
       <c r="F48" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="I48" s="161"/>
+      <c r="I48" s="140"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
@@ -6321,24 +6321,24 @@
       <c r="A51" s="62">
         <v>1</v>
       </c>
-      <c r="B51" s="157">
+      <c r="B51" s="137">
         <v>6545928</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="C51" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="157" t="s">
+      <c r="D51" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="157" t="s">
+      <c r="F51" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="157" t="s">
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="137" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7649,12 +7649,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="151"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -8008,12 +8008,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -8282,12 +8282,12 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="144"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8641,12 +8641,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="146" t="s">
+      <c r="B44" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="142"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="146"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8915,12 +8915,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="142"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="146"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -9274,12 +9274,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="142"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="146"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9669,12 +9669,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="142"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="146"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -10064,11 +10064,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="145" t="s">
+      <c r="B91" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="135"/>
-      <c r="D91" s="144"/>
+      <c r="C91" s="142"/>
+      <c r="D91" s="143"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -10459,11 +10459,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="145" t="s">
+      <c r="B104" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="135"/>
-      <c r="D104" s="144"/>
+      <c r="C104" s="142"/>
+      <c r="D104" s="143"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -10854,11 +10854,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="145" t="s">
+      <c r="B117" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="135"/>
-      <c r="D117" s="144"/>
+      <c r="C117" s="142"/>
+      <c r="D117" s="143"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -11249,11 +11249,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="145" t="s">
+      <c r="B130" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="135"/>
-      <c r="D130" s="144"/>
+      <c r="C130" s="142"/>
+      <c r="D130" s="143"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -15076,6 +15076,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -15083,11 +15088,6 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="398" priority="1" operator="equal">
@@ -16300,11 +16300,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -16516,11 +16516,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -16732,11 +16732,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -16948,11 +16948,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -17164,11 +17164,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="149"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="156"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -17374,11 +17374,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="148"/>
-      <c r="D42" s="149"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -21842,16 +21842,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -22026,16 +22026,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="148"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -22210,16 +22210,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="148"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22394,16 +22394,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="148"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22578,16 +22578,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="136"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="148"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -22752,16 +22752,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="148"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -22936,16 +22936,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="136"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="148"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -23120,16 +23120,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="136"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="148"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -23304,16 +23304,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="150" t="s">
+      <c r="C42" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="136"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="148"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23488,16 +23488,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="150" t="s">
+      <c r="C47" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="136"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="148"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -23672,16 +23672,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="150" t="s">
+      <c r="C52" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="148"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -23856,16 +23856,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="150" t="s">
+      <c r="C57" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
-      <c r="J57" s="136"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="148"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -50331,6 +50331,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -50338,11 +50343,6 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
@@ -50523,16 +50523,16 @@
     <row r="2" spans="1:26" s="99" customFormat="1">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -51513,16 +51513,16 @@
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
-      <c r="C36" s="151" t="s">
+      <c r="C36" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
@@ -52530,16 +52530,16 @@
     <row r="70" spans="1:26" ht="15" customHeight="1">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
-      <c r="C70" s="151" t="s">
+      <c r="C70" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
@@ -53581,16 +53581,16 @@
     <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="94"/>
       <c r="B106" s="95"/>
-      <c r="C106" s="151" t="s">
+      <c r="C106" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="152"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="152"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
+      <c r="D106" s="159"/>
+      <c r="E106" s="159"/>
+      <c r="F106" s="159"/>
+      <c r="G106" s="159"/>
+      <c r="H106" s="159"/>
+      <c r="I106" s="159"/>
+      <c r="J106" s="159"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
@@ -54632,16 +54632,16 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="153" t="s">
+      <c r="C142" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="152"/>
-      <c r="E142" s="152"/>
-      <c r="F142" s="152"/>
-      <c r="G142" s="152"/>
-      <c r="H142" s="152"/>
-      <c r="I142" s="152"/>
-      <c r="J142" s="152"/>
+      <c r="D142" s="159"/>
+      <c r="E142" s="159"/>
+      <c r="F142" s="159"/>
+      <c r="G142" s="159"/>
+      <c r="H142" s="159"/>
+      <c r="I142" s="159"/>
+      <c r="J142" s="159"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
@@ -55606,16 +55606,16 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="153" t="s">
+      <c r="C177" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="152"/>
-      <c r="E177" s="152"/>
-      <c r="F177" s="152"/>
-      <c r="G177" s="152"/>
-      <c r="H177" s="152"/>
-      <c r="I177" s="152"/>
-      <c r="J177" s="152"/>
+      <c r="D177" s="159"/>
+      <c r="E177" s="159"/>
+      <c r="F177" s="159"/>
+      <c r="G177" s="159"/>
+      <c r="H177" s="159"/>
+      <c r="I177" s="159"/>
+      <c r="J177" s="159"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
@@ -56578,16 +56578,16 @@
     <row r="213" spans="1:12" ht="15" customHeight="1">
       <c r="A213" s="94"/>
       <c r="B213" s="95"/>
-      <c r="C213" s="151" t="s">
+      <c r="C213" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="D213" s="152"/>
-      <c r="E213" s="152"/>
-      <c r="F213" s="152"/>
-      <c r="G213" s="152"/>
-      <c r="H213" s="152"/>
-      <c r="I213" s="152"/>
-      <c r="J213" s="152"/>
+      <c r="D213" s="159"/>
+      <c r="E213" s="159"/>
+      <c r="F213" s="159"/>
+      <c r="G213" s="159"/>
+      <c r="H213" s="159"/>
+      <c r="I213" s="159"/>
+      <c r="J213" s="159"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
@@ -57614,16 +57614,16 @@
     <row r="250" spans="1:12" ht="15" customHeight="1">
       <c r="A250" s="94"/>
       <c r="B250" s="95"/>
-      <c r="C250" s="151" t="s">
+      <c r="C250" s="158" t="s">
         <v>234</v>
       </c>
-      <c r="D250" s="152"/>
-      <c r="E250" s="152"/>
-      <c r="F250" s="152"/>
-      <c r="G250" s="152"/>
-      <c r="H250" s="152"/>
-      <c r="I250" s="152"/>
-      <c r="J250" s="152"/>
+      <c r="D250" s="159"/>
+      <c r="E250" s="159"/>
+      <c r="F250" s="159"/>
+      <c r="G250" s="159"/>
+      <c r="H250" s="159"/>
+      <c r="I250" s="159"/>
+      <c r="J250" s="159"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
@@ -58657,16 +58657,16 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="153" t="s">
+      <c r="C323" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="152"/>
-      <c r="E323" s="152"/>
-      <c r="F323" s="152"/>
-      <c r="G323" s="152"/>
-      <c r="H323" s="152"/>
-      <c r="I323" s="152"/>
-      <c r="J323" s="152"/>
+      <c r="D323" s="159"/>
+      <c r="E323" s="159"/>
+      <c r="F323" s="159"/>
+      <c r="G323" s="159"/>
+      <c r="H323" s="159"/>
+      <c r="I323" s="159"/>
+      <c r="J323" s="159"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
@@ -59631,16 +59631,16 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="153" t="s">
+      <c r="C359" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="152"/>
-      <c r="E359" s="152"/>
-      <c r="F359" s="152"/>
-      <c r="G359" s="152"/>
-      <c r="H359" s="152"/>
-      <c r="I359" s="152"/>
-      <c r="J359" s="152"/>
+      <c r="D359" s="159"/>
+      <c r="E359" s="159"/>
+      <c r="F359" s="159"/>
+      <c r="G359" s="159"/>
+      <c r="H359" s="159"/>
+      <c r="I359" s="159"/>
+      <c r="J359" s="159"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
@@ -60602,16 +60602,16 @@
     <row r="395" spans="1:12" ht="15" customHeight="1">
       <c r="A395" s="94"/>
       <c r="B395" s="95"/>
-      <c r="C395" s="151" t="s">
+      <c r="C395" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="D395" s="152"/>
-      <c r="E395" s="152"/>
-      <c r="F395" s="152"/>
-      <c r="G395" s="152"/>
-      <c r="H395" s="152"/>
-      <c r="I395" s="152"/>
-      <c r="J395" s="152"/>
+      <c r="D395" s="159"/>
+      <c r="E395" s="159"/>
+      <c r="F395" s="159"/>
+      <c r="G395" s="159"/>
+      <c r="H395" s="159"/>
+      <c r="I395" s="159"/>
+      <c r="J395" s="159"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
@@ -61639,16 +61639,16 @@
     <row r="431" spans="1:12" ht="15" customHeight="1">
       <c r="A431" s="94"/>
       <c r="B431" s="95"/>
-      <c r="C431" s="151" t="s">
+      <c r="C431" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="D431" s="152"/>
-      <c r="E431" s="152"/>
-      <c r="F431" s="152"/>
-      <c r="G431" s="152"/>
-      <c r="H431" s="152"/>
-      <c r="I431" s="152"/>
-      <c r="J431" s="152"/>
+      <c r="D431" s="159"/>
+      <c r="E431" s="159"/>
+      <c r="F431" s="159"/>
+      <c r="G431" s="159"/>
+      <c r="H431" s="159"/>
+      <c r="I431" s="159"/>
+      <c r="J431" s="159"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>
@@ -62676,18 +62676,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C323:J323"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C106:J106"/>
     <mergeCell ref="C395:J395"/>
     <mergeCell ref="C142:J142"/>
     <mergeCell ref="C431:J431"/>
     <mergeCell ref="C213:J213"/>
     <mergeCell ref="C250:J250"/>
     <mergeCell ref="C359:J359"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C323:J323"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -63757,8 +63757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD010E9-CC23-1948-9ACD-8F4445EFA128}">
   <dimension ref="A1:Z860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -63830,643 +63830,645 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="161" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="157">
+      <c r="A3" s="137">
         <v>6545928</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="137">
         <v>6545928</v>
       </c>
-      <c r="B4" s="158">
+      <c r="B4" s="138">
         <v>6</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="157">
+      <c r="A5" s="137">
         <v>6545928</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154">
+      <c r="H5" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134">
         <v>0</v>
       </c>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="157">
+      <c r="A6" s="137">
         <v>6545928</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154" t="s">
+      <c r="B6" s="137"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="154" t="s">
+      <c r="F6" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
+      <c r="H6" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="157">
+      <c r="A7" s="137">
         <v>6545928</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="134" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154" t="s">
+      <c r="F7" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="134" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
+      <c r="H7" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="157">
+      <c r="A8" s="137">
         <v>6545928</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
+      <c r="H8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="157">
+      <c r="A9" s="137">
         <v>6545928</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="134" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="154" t="s">
+      <c r="F9" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="134" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
+      <c r="H9" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="157">
+      <c r="A10" s="137">
         <v>6545928</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="134" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
+      <c r="H10" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="157">
+      <c r="A11" s="137">
         <v>6545928</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="154" t="s">
+      <c r="F11" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="H11" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
+      <c r="H11" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="157">
+      <c r="A12" s="137">
         <v>6545928</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F12" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="134" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
+      <c r="H12" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="157">
+      <c r="A13" s="137">
         <v>6545928</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="134" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="156" t="s">
+      <c r="D13" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="156" t="s">
+      <c r="G13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="H13" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
+      <c r="H13" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="157">
+      <c r="A14" s="137">
         <v>6545928</v>
       </c>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="134" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="134" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="154" t="s">
+      <c r="F14" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
+      <c r="H14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="157">
+      <c r="A15" s="137">
         <v>6545928</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="154" t="s">
+      <c r="D15" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
+      <c r="H15" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="H16" s="23"/>

--- a/src/main/resources/modules/SMOKE.xlsx
+++ b/src/main/resources/modules/SMOKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC69B8-7BE8-ED4D-AB73-96297090C85B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605BD03-9CE7-7B4E-A466-52E0E4957582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,19 @@
     <sheet name="UpdateRevision" sheetId="4" r:id="rId4"/>
     <sheet name="AddRevision" sheetId="5" r:id="rId5"/>
     <sheet name="Schedule" sheetId="6" r:id="rId6"/>
+    <sheet name="FirstRevision" sheetId="7" r:id="rId7"/>
+    <sheet name="Schedule (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="312">
   <si>
     <t>TC_ID</t>
   </si>
@@ -753,9 +756,6 @@
     <t>Test # 6545928 - Calendar - Lessee - Operating - Validate amounts in Schedule</t>
   </si>
   <si>
-    <t>1to5</t>
-  </si>
-  <si>
     <t>Step One to Five</t>
   </si>
   <si>
@@ -882,12 +882,105 @@
   <si>
     <t>OR_FASB.FISchedule.ScheduleTable</t>
   </si>
+  <si>
+    <t>1to4</t>
+  </si>
+  <si>
+    <t>First Revision Auto Trigger</t>
+  </si>
+  <si>
+    <t>Novus: FASB/IASB - Lessor - Additional Revision Triggers Test 36 - Recurring Payment/Receivable - Semi-Annual, On LCD, Fiscal Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novus: FASB/IASB - Lessor - Additional Revision Triggers Test 36 - Recurring Payment/Receivable - Semi-Annual, On LCD, Fiscal Year									</t>
+  </si>
+  <si>
+    <t>FirstRevision</t>
+  </si>
+  <si>
+    <t>Step One to Four</t>
+  </si>
+  <si>
+    <t>CommonTC:201</t>
+  </si>
+  <si>
+    <t>Column Name Validation</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.columnNameValidation</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.ScheduleTable</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.test</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Go to  FASB/IASB Schedule</t>
+  </si>
+  <si>
+    <t>FASB/IASB Schedule</t>
+  </si>
+  <si>
+    <t>FASB.FISchedule.ScheduleTableFromRevision</t>
+  </si>
+  <si>
+    <t>Revision,# of Periods,Charge Type,Description</t>
+  </si>
+  <si>
+    <t>Validate last Period (The # of Periods should be the same as that in the top-section)</t>
+  </si>
+  <si>
+    <t>Validate last Period (# of Remaining Periods should be '1')</t>
+  </si>
+  <si>
+    <t>Validate Totals row(Total for Period Payment should be displayed correctly)</t>
+  </si>
+  <si>
+    <t>Validate Totals row(Total of Total Amount to be Capitalized should be displayed correctly)</t>
+  </si>
+  <si>
+    <t>Validate Totals row(Total of Period Interest should be displayed correctly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # of Periods</t>
+  </si>
+  <si>
+    <t># of Remaining Periods</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>JE Posting Period</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value  # of Periods</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value # of Remaining Periods</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value Period</t>
+  </si>
+  <si>
+    <t>Check Duplicacy In Column Value JE Posting Period</t>
+  </si>
+  <si>
+    <t>UIScheduleTable.duplicacyCheck</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1024,6 +1117,12 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1338,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,19 +1812,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,8 +1832,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,12 +1862,38 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="399">
+  <dxfs count="400">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4899,6 +5031,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Controller"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5165,18 +5310,18 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="99" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="99" style="99" customWidth="1"/>
     <col min="4" max="4" width="14" style="78" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="78" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="78" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="78" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="78" customWidth="1"/>
     <col min="7" max="8" width="8.6640625" style="99" customWidth="1"/>
     <col min="9" max="9" width="18" style="78" customWidth="1"/>
     <col min="10" max="26" width="8.6640625" style="99" customWidth="1"/>
@@ -6319,27 +6464,27 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="62">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B51" s="137">
         <v>6545928</v>
       </c>
       <c r="C51" s="134" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="137" t="s">
-        <v>279</v>
-      </c>
       <c r="F51" s="137" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G51" s="134"/>
       <c r="H51" s="134"/>
       <c r="I51" s="137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1"/>
@@ -6355,22 +6500,58 @@
     <row r="62" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="113"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="141"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="78">
+        <v>16</v>
+      </c>
+      <c r="B71" s="30">
+        <v>6628089</v>
+      </c>
+      <c r="C71" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="137" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7375,12 +7556,12 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="7"/>
@@ -7649,12 +7830,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="8"/>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
@@ -8008,12 +8189,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -8285,9 +8466,9 @@
       <c r="B32" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="143"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="154"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="17"/>
@@ -8641,12 +8822,12 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="146"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="152"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
@@ -8915,12 +9096,12 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="144" t="s">
+      <c r="B53" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="146"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="152"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -9274,12 +9455,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="151"/>
+      <c r="E65" s="152"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
@@ -9669,12 +9850,12 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
-      <c r="E78" s="146"/>
+      <c r="C78" s="151"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="152"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -10064,11 +10245,11 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" s="141" t="s">
+      <c r="B91" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="142"/>
-      <c r="D91" s="143"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="154"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -10459,11 +10640,11 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
-      <c r="B104" s="141" t="s">
+      <c r="B104" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="142"/>
-      <c r="D104" s="143"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="154"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -10854,11 +11035,11 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="55"/>
-      <c r="B117" s="141" t="s">
+      <c r="B117" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="142"/>
-      <c r="D117" s="143"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="154"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -11249,11 +11430,11 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="55"/>
-      <c r="B130" s="141" t="s">
+      <c r="B130" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="142"/>
-      <c r="D130" s="143"/>
+      <c r="C130" s="145"/>
+      <c r="D130" s="154"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -15076,11 +15257,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B44:E44"/>
@@ -15088,1129 +15264,1134 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B104:D104"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="398" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="397" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="396" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="395" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="394" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="393" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="392" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="391" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="390" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="389" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="388" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="387" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="386" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="385" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="384" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="383" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="382" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="381" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="380" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="379" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="378" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="377" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="376" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="375" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="374" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="373" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="372" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="371" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="370" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="369" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="368" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="367" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="366" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="365" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="364" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="363" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="362" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="361" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="360" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="359" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="358" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="357" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="355" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="354" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="353" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="352" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="351" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="350" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="349" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="348" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="347" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="346" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="345" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="344" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="343" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="342" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="341" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="340" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="339" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="338" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="337" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="336" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="335" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="334" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="333" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="332" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="331" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="330" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="329" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="328" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="327" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="326" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="325" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="324" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="323" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="322" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="321" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="320" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="319" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="318" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="317" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="316" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="315" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="314" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="313" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="312" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="311" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="310" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="309" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="308" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="307" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="306" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="305" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="304" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="303" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="302" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="301" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="300" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="299" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="298" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="297" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="296" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="295" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="294" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="293" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="292" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="291" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="290" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="289" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="288" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="287" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="286" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="285" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="284" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="283" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="282" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="281" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="280" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="279" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="277" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="276" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="275" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="274" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="273" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="272" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="271" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="270" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="269" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="268" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="267" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="266" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="265" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="264" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="263" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="262" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="137" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="261" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="260" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="259" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="140" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="258" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="257" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="142" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="256" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="255" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="254" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="253" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="252" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="147" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="251" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="148" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="250" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="249" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="248" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="247" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="246" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="244" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="243" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="242" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="241" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="158" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="240" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="239" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="238" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="161" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="237" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="162" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="236" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="235" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="164" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="234" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="165" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="233" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="166" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="232" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="231" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="230" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="229" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="228" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="227" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="226" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="225" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="174" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="224" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="223" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="222" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="221" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="178" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="220" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="179" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="219" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="218" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="217" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="cellIs" dxfId="216" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="183" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="215" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="214" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="213" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="212" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="211" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="210" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="209" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="208" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="207" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="206" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="205" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="cellIs" dxfId="204" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="203" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="202" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="201" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="197" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="196" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="195" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="194" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="193" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="192" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="191" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="190" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="189" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="188" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="187" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="186" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="185" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="184" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="183" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="182" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="181" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="180" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="219" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="179" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="178" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="177" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="176" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="175" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="174" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16300,11 +16481,11 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="8"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -16516,11 +16697,11 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8"/>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -16732,11 +16913,11 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8"/>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -16948,11 +17129,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -17164,11 +17345,11 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="156"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -17374,11 +17555,11 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="156"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -21396,362 +21577,362 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="166" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="165" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="161" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="160" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="158" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="157" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="154" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="123" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="122" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="114" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="108" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="105" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21842,16 +22023,16 @@
     <row r="2" spans="1:26">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="148"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
       <c r="K2" s="45"/>
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
@@ -22026,16 +22207,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="148"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
       <c r="K7" s="45"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
@@ -22210,16 +22391,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47"/>
@@ -22394,16 +22575,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="148"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -22578,16 +22759,16 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="148"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
       <c r="K22" s="45"/>
       <c r="L22" s="46"/>
       <c r="M22" s="47"/>
@@ -22752,16 +22933,16 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="157" t="s">
+      <c r="C27" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="148"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
@@ -22936,16 +23117,16 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="157" t="s">
+      <c r="C32" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="148"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -23120,16 +23301,16 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="157" t="s">
+      <c r="C37" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="148"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="146"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
       <c r="M37" s="47"/>
@@ -23304,16 +23485,16 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="157" t="s">
+      <c r="C42" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="148"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
       <c r="K42" s="45"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47"/>
@@ -23488,16 +23669,16 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="148"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="146"/>
       <c r="K47" s="45"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47"/>
@@ -23672,16 +23853,16 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="157" t="s">
+      <c r="C52" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="148"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="146"/>
       <c r="K52" s="45"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47"/>
@@ -23856,16 +24037,16 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="44"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="148"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="146"/>
       <c r="K57" s="45"/>
       <c r="L57" s="46"/>
       <c r="M57" s="47"/>
@@ -50331,11 +50512,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C32:J32"/>
@@ -50343,109 +50519,114 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C42:J42"/>
   </mergeCells>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50463,8 +50644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z470"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView topLeftCell="H37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L466" sqref="L466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -50523,16 +50704,16 @@
     <row r="2" spans="1:26" s="99" customFormat="1">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
@@ -51513,16 +51694,16 @@
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
-      <c r="C36" s="158" t="s">
+      <c r="C36" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="96"/>
       <c r="L36" s="97"/>
     </row>
@@ -52530,16 +52711,16 @@
     <row r="70" spans="1:26" ht="15" customHeight="1">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
-      <c r="C70" s="158" t="s">
+      <c r="C70" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="159"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="159"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="159"/>
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
+      <c r="D70" s="162"/>
+      <c r="E70" s="162"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="162"/>
       <c r="K70" s="96"/>
       <c r="L70" s="97"/>
     </row>
@@ -53581,16 +53762,16 @@
     <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="94"/>
       <c r="B106" s="95"/>
-      <c r="C106" s="158" t="s">
+      <c r="C106" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="159"/>
-      <c r="I106" s="159"/>
-      <c r="J106" s="159"/>
+      <c r="D106" s="162"/>
+      <c r="E106" s="162"/>
+      <c r="F106" s="162"/>
+      <c r="G106" s="162"/>
+      <c r="H106" s="162"/>
+      <c r="I106" s="162"/>
+      <c r="J106" s="162"/>
       <c r="K106" s="96"/>
       <c r="L106" s="97"/>
     </row>
@@ -54632,16 +54813,16 @@
     <row r="142" spans="1:12" ht="15" customHeight="1">
       <c r="A142" s="94"/>
       <c r="B142" s="95"/>
-      <c r="C142" s="160" t="s">
+      <c r="C142" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="159"/>
-      <c r="E142" s="159"/>
-      <c r="F142" s="159"/>
-      <c r="G142" s="159"/>
-      <c r="H142" s="159"/>
-      <c r="I142" s="159"/>
-      <c r="J142" s="159"/>
+      <c r="D142" s="162"/>
+      <c r="E142" s="162"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="162"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="162"/>
       <c r="K142" s="96"/>
       <c r="L142" s="97"/>
     </row>
@@ -55606,16 +55787,16 @@
     <row r="177" spans="1:12" ht="15" customHeight="1">
       <c r="A177" s="94"/>
       <c r="B177" s="95"/>
-      <c r="C177" s="160" t="s">
+      <c r="C177" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="159"/>
-      <c r="E177" s="159"/>
-      <c r="F177" s="159"/>
-      <c r="G177" s="159"/>
-      <c r="H177" s="159"/>
-      <c r="I177" s="159"/>
-      <c r="J177" s="159"/>
+      <c r="D177" s="162"/>
+      <c r="E177" s="162"/>
+      <c r="F177" s="162"/>
+      <c r="G177" s="162"/>
+      <c r="H177" s="162"/>
+      <c r="I177" s="162"/>
+      <c r="J177" s="162"/>
       <c r="K177" s="96"/>
       <c r="L177" s="97"/>
     </row>
@@ -56578,16 +56759,16 @@
     <row r="213" spans="1:12" ht="15" customHeight="1">
       <c r="A213" s="94"/>
       <c r="B213" s="95"/>
-      <c r="C213" s="158" t="s">
+      <c r="C213" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="D213" s="159"/>
-      <c r="E213" s="159"/>
-      <c r="F213" s="159"/>
-      <c r="G213" s="159"/>
-      <c r="H213" s="159"/>
-      <c r="I213" s="159"/>
-      <c r="J213" s="159"/>
+      <c r="D213" s="162"/>
+      <c r="E213" s="162"/>
+      <c r="F213" s="162"/>
+      <c r="G213" s="162"/>
+      <c r="H213" s="162"/>
+      <c r="I213" s="162"/>
+      <c r="J213" s="162"/>
       <c r="K213" s="96"/>
       <c r="L213" s="97"/>
     </row>
@@ -57614,16 +57795,16 @@
     <row r="250" spans="1:12" ht="15" customHeight="1">
       <c r="A250" s="94"/>
       <c r="B250" s="95"/>
-      <c r="C250" s="158" t="s">
+      <c r="C250" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="D250" s="159"/>
-      <c r="E250" s="159"/>
-      <c r="F250" s="159"/>
-      <c r="G250" s="159"/>
-      <c r="H250" s="159"/>
-      <c r="I250" s="159"/>
-      <c r="J250" s="159"/>
+      <c r="D250" s="162"/>
+      <c r="E250" s="162"/>
+      <c r="F250" s="162"/>
+      <c r="G250" s="162"/>
+      <c r="H250" s="162"/>
+      <c r="I250" s="162"/>
+      <c r="J250" s="162"/>
       <c r="K250" s="96"/>
       <c r="L250" s="97"/>
     </row>
@@ -58657,16 +58838,16 @@
     <row r="323" spans="1:12" ht="15" customHeight="1">
       <c r="A323" s="94"/>
       <c r="B323" s="95"/>
-      <c r="C323" s="160" t="s">
+      <c r="C323" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="159"/>
-      <c r="E323" s="159"/>
-      <c r="F323" s="159"/>
-      <c r="G323" s="159"/>
-      <c r="H323" s="159"/>
-      <c r="I323" s="159"/>
-      <c r="J323" s="159"/>
+      <c r="D323" s="162"/>
+      <c r="E323" s="162"/>
+      <c r="F323" s="162"/>
+      <c r="G323" s="162"/>
+      <c r="H323" s="162"/>
+      <c r="I323" s="162"/>
+      <c r="J323" s="162"/>
       <c r="K323" s="96"/>
       <c r="L323" s="97"/>
     </row>
@@ -59631,16 +59812,16 @@
     <row r="359" spans="1:12" ht="15" customHeight="1">
       <c r="A359" s="94"/>
       <c r="B359" s="95"/>
-      <c r="C359" s="160" t="s">
+      <c r="C359" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="159"/>
-      <c r="E359" s="159"/>
-      <c r="F359" s="159"/>
-      <c r="G359" s="159"/>
-      <c r="H359" s="159"/>
-      <c r="I359" s="159"/>
-      <c r="J359" s="159"/>
+      <c r="D359" s="162"/>
+      <c r="E359" s="162"/>
+      <c r="F359" s="162"/>
+      <c r="G359" s="162"/>
+      <c r="H359" s="162"/>
+      <c r="I359" s="162"/>
+      <c r="J359" s="162"/>
       <c r="K359" s="96"/>
       <c r="L359" s="97"/>
     </row>
@@ -60602,16 +60783,16 @@
     <row r="395" spans="1:12" ht="15" customHeight="1">
       <c r="A395" s="94"/>
       <c r="B395" s="95"/>
-      <c r="C395" s="158" t="s">
+      <c r="C395" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D395" s="159"/>
-      <c r="E395" s="159"/>
-      <c r="F395" s="159"/>
-      <c r="G395" s="159"/>
-      <c r="H395" s="159"/>
-      <c r="I395" s="159"/>
-      <c r="J395" s="159"/>
+      <c r="D395" s="162"/>
+      <c r="E395" s="162"/>
+      <c r="F395" s="162"/>
+      <c r="G395" s="162"/>
+      <c r="H395" s="162"/>
+      <c r="I395" s="162"/>
+      <c r="J395" s="162"/>
       <c r="K395" s="96"/>
       <c r="L395" s="97"/>
     </row>
@@ -61639,16 +61820,16 @@
     <row r="431" spans="1:12" ht="15" customHeight="1">
       <c r="A431" s="94"/>
       <c r="B431" s="95"/>
-      <c r="C431" s="158" t="s">
+      <c r="C431" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D431" s="159"/>
-      <c r="E431" s="159"/>
-      <c r="F431" s="159"/>
-      <c r="G431" s="159"/>
-      <c r="H431" s="159"/>
-      <c r="I431" s="159"/>
-      <c r="J431" s="159"/>
+      <c r="D431" s="162"/>
+      <c r="E431" s="162"/>
+      <c r="F431" s="162"/>
+      <c r="G431" s="162"/>
+      <c r="H431" s="162"/>
+      <c r="I431" s="162"/>
+      <c r="J431" s="162"/>
       <c r="K431" s="96"/>
       <c r="L431" s="97"/>
     </row>
@@ -62676,18 +62857,18 @@
     <row r="470" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C395:J395"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C431:J431"/>
+    <mergeCell ref="C213:J213"/>
+    <mergeCell ref="C250:J250"/>
+    <mergeCell ref="C359:J359"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C177:J177"/>
     <mergeCell ref="C323:J323"/>
     <mergeCell ref="C70:J70"/>
     <mergeCell ref="C106:J106"/>
-    <mergeCell ref="C395:J395"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C431:J431"/>
-    <mergeCell ref="C213:J213"/>
-    <mergeCell ref="C250:J250"/>
-    <mergeCell ref="C359:J359"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -63755,10 +63936,6026 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD010E9-CC23-1948-9ACD-8F4445EFA128}">
+  <dimension ref="A1:Z850"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11" style="6" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A2" s="164" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="B4" s="138"/>
+      <c r="C4" s="165" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="170" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="167" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="B5" s="138"/>
+      <c r="C5" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="B6" s="138"/>
+      <c r="C6" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="C7" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="C8" s="171" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="C10" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="137">
+        <v>6545928</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="137"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="137"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="C14" s="134"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="C15" s="134" t="s">
+        <v>297</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="C16" s="134" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" customHeight="1">
+      <c r="C17" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" customHeight="1">
+      <c r="C18" s="134" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" customHeight="1">
+      <c r="C19" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" customHeight="1">
+      <c r="C20" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" customHeight="1">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H106" s="23"/>
+    </row>
+    <row r="107" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H107" s="23"/>
+    </row>
+    <row r="108" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H108" s="23"/>
+    </row>
+    <row r="109" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H110" s="23"/>
+    </row>
+    <row r="111" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H115" s="23"/>
+    </row>
+    <row r="116" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H124" s="23"/>
+    </row>
+    <row r="125" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H142" s="23"/>
+    </row>
+    <row r="143" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H143" s="23"/>
+    </row>
+    <row r="144" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H144" s="23"/>
+    </row>
+    <row r="145" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H145" s="23"/>
+    </row>
+    <row r="146" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H146" s="23"/>
+    </row>
+    <row r="147" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H147" s="23"/>
+    </row>
+    <row r="148" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H148" s="23"/>
+    </row>
+    <row r="149" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H149" s="23"/>
+    </row>
+    <row r="150" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H150" s="23"/>
+    </row>
+    <row r="151" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H151" s="23"/>
+    </row>
+    <row r="152" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H152" s="23"/>
+    </row>
+    <row r="153" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H153" s="23"/>
+    </row>
+    <row r="154" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H155" s="23"/>
+    </row>
+    <row r="156" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H156" s="23"/>
+    </row>
+    <row r="157" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H157" s="23"/>
+    </row>
+    <row r="158" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H158" s="23"/>
+    </row>
+    <row r="159" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H159" s="23"/>
+    </row>
+    <row r="160" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H160" s="23"/>
+    </row>
+    <row r="161" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H161" s="23"/>
+    </row>
+    <row r="162" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H162" s="23"/>
+    </row>
+    <row r="163" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H163" s="23"/>
+    </row>
+    <row r="164" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H166" s="23"/>
+    </row>
+    <row r="167" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H167" s="23"/>
+    </row>
+    <row r="168" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H168" s="23"/>
+    </row>
+    <row r="169" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H169" s="23"/>
+    </row>
+    <row r="170" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H170" s="23"/>
+    </row>
+    <row r="171" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H171" s="23"/>
+    </row>
+    <row r="172" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H172" s="23"/>
+    </row>
+    <row r="173" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H173" s="23"/>
+    </row>
+    <row r="174" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H174" s="23"/>
+    </row>
+    <row r="175" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H175" s="23"/>
+    </row>
+    <row r="176" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H176" s="23"/>
+    </row>
+    <row r="177" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H177" s="23"/>
+    </row>
+    <row r="178" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H178" s="23"/>
+    </row>
+    <row r="179" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H180" s="23"/>
+    </row>
+    <row r="181" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H183" s="23"/>
+    </row>
+    <row r="184" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H186" s="23"/>
+    </row>
+    <row r="187" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H188" s="23"/>
+    </row>
+    <row r="189" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H189" s="23"/>
+    </row>
+    <row r="190" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H191" s="23"/>
+    </row>
+    <row r="192" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H192" s="23"/>
+    </row>
+    <row r="193" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H193" s="23"/>
+    </row>
+    <row r="194" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H195" s="23"/>
+    </row>
+    <row r="196" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H196" s="23"/>
+    </row>
+    <row r="197" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H198" s="23"/>
+    </row>
+    <row r="199" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H207" s="23"/>
+    </row>
+    <row r="208" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H208" s="23"/>
+    </row>
+    <row r="209" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H209" s="23"/>
+    </row>
+    <row r="210" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H210" s="23"/>
+    </row>
+    <row r="211" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H211" s="23"/>
+    </row>
+    <row r="212" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H212" s="23"/>
+    </row>
+    <row r="213" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H213" s="23"/>
+    </row>
+    <row r="214" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H214" s="23"/>
+    </row>
+    <row r="215" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H215" s="23"/>
+    </row>
+    <row r="216" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H216" s="23"/>
+    </row>
+    <row r="217" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H217" s="23"/>
+    </row>
+    <row r="218" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H218" s="23"/>
+    </row>
+    <row r="219" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H219" s="23"/>
+    </row>
+    <row r="220" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H220" s="23"/>
+    </row>
+    <row r="221" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H221" s="23"/>
+    </row>
+    <row r="222" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H222" s="23"/>
+    </row>
+    <row r="223" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H223" s="23"/>
+    </row>
+    <row r="224" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H224" s="23"/>
+    </row>
+    <row r="225" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H225" s="23"/>
+    </row>
+    <row r="226" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H226" s="23"/>
+    </row>
+    <row r="227" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H227" s="23"/>
+    </row>
+    <row r="228" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H228" s="23"/>
+    </row>
+    <row r="229" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H229" s="23"/>
+    </row>
+    <row r="230" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H230" s="23"/>
+    </row>
+    <row r="231" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H231" s="23"/>
+    </row>
+    <row r="232" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H232" s="23"/>
+    </row>
+    <row r="233" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H233" s="23"/>
+    </row>
+    <row r="234" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H234" s="23"/>
+    </row>
+    <row r="235" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H235" s="23"/>
+    </row>
+    <row r="236" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H236" s="23"/>
+    </row>
+    <row r="237" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H237" s="23"/>
+    </row>
+    <row r="238" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H238" s="23"/>
+    </row>
+    <row r="239" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H239" s="23"/>
+    </row>
+    <row r="240" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H240" s="23"/>
+    </row>
+    <row r="241" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H241" s="23"/>
+    </row>
+    <row r="242" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H242" s="23"/>
+    </row>
+    <row r="243" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H243" s="23"/>
+    </row>
+    <row r="244" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H244" s="23"/>
+    </row>
+    <row r="245" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H245" s="23"/>
+    </row>
+    <row r="246" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H246" s="23"/>
+    </row>
+    <row r="247" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H247" s="23"/>
+    </row>
+    <row r="248" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H248" s="23"/>
+    </row>
+    <row r="249" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H249" s="23"/>
+    </row>
+    <row r="250" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H250" s="23"/>
+    </row>
+    <row r="251" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H251" s="23"/>
+    </row>
+    <row r="252" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H252" s="23"/>
+    </row>
+    <row r="253" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H253" s="23"/>
+    </row>
+    <row r="254" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H254" s="23"/>
+    </row>
+    <row r="255" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H255" s="23"/>
+    </row>
+    <row r="256" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H256" s="23"/>
+    </row>
+    <row r="257" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H257" s="23"/>
+    </row>
+    <row r="258" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H258" s="23"/>
+    </row>
+    <row r="259" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H259" s="23"/>
+    </row>
+    <row r="260" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H260" s="23"/>
+    </row>
+    <row r="261" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H261" s="23"/>
+    </row>
+    <row r="262" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H262" s="23"/>
+    </row>
+    <row r="263" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H263" s="23"/>
+    </row>
+    <row r="264" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H264" s="23"/>
+    </row>
+    <row r="265" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H265" s="23"/>
+    </row>
+    <row r="266" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H266" s="23"/>
+    </row>
+    <row r="267" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H267" s="23"/>
+    </row>
+    <row r="268" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H268" s="23"/>
+    </row>
+    <row r="269" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H269" s="23"/>
+    </row>
+    <row r="270" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H270" s="23"/>
+    </row>
+    <row r="271" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H271" s="23"/>
+    </row>
+    <row r="272" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H272" s="23"/>
+    </row>
+    <row r="273" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H273" s="23"/>
+    </row>
+    <row r="274" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H274" s="23"/>
+    </row>
+    <row r="275" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H275" s="23"/>
+    </row>
+    <row r="276" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H276" s="23"/>
+    </row>
+    <row r="277" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H277" s="23"/>
+    </row>
+    <row r="278" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H278" s="23"/>
+    </row>
+    <row r="279" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H279" s="23"/>
+    </row>
+    <row r="280" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H280" s="23"/>
+    </row>
+    <row r="281" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H281" s="23"/>
+    </row>
+    <row r="282" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H282" s="23"/>
+    </row>
+    <row r="283" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H283" s="23"/>
+    </row>
+    <row r="284" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H284" s="23"/>
+    </row>
+    <row r="285" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H285" s="23"/>
+    </row>
+    <row r="286" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H286" s="23"/>
+    </row>
+    <row r="287" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H287" s="23"/>
+    </row>
+    <row r="288" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H288" s="23"/>
+    </row>
+    <row r="289" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H289" s="23"/>
+    </row>
+    <row r="290" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H290" s="23"/>
+    </row>
+    <row r="291" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H291" s="23"/>
+    </row>
+    <row r="292" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H292" s="23"/>
+    </row>
+    <row r="293" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H293" s="23"/>
+    </row>
+    <row r="294" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H294" s="23"/>
+    </row>
+    <row r="295" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H295" s="23"/>
+    </row>
+    <row r="296" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H296" s="23"/>
+    </row>
+    <row r="297" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H297" s="23"/>
+    </row>
+    <row r="298" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H298" s="23"/>
+    </row>
+    <row r="299" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H299" s="23"/>
+    </row>
+    <row r="300" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H300" s="23"/>
+    </row>
+    <row r="301" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H301" s="23"/>
+    </row>
+    <row r="302" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H302" s="23"/>
+    </row>
+    <row r="303" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H303" s="23"/>
+    </row>
+    <row r="304" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H304" s="23"/>
+    </row>
+    <row r="305" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H305" s="23"/>
+    </row>
+    <row r="306" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H306" s="23"/>
+    </row>
+    <row r="307" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H307" s="23"/>
+    </row>
+    <row r="308" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H308" s="23"/>
+    </row>
+    <row r="309" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H309" s="23"/>
+    </row>
+    <row r="310" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H310" s="23"/>
+    </row>
+    <row r="311" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H311" s="23"/>
+    </row>
+    <row r="312" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H312" s="23"/>
+    </row>
+    <row r="313" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H313" s="23"/>
+    </row>
+    <row r="314" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H314" s="23"/>
+    </row>
+    <row r="315" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H315" s="23"/>
+    </row>
+    <row r="316" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H316" s="23"/>
+    </row>
+    <row r="317" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H317" s="23"/>
+    </row>
+    <row r="318" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H318" s="23"/>
+    </row>
+    <row r="319" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H319" s="23"/>
+    </row>
+    <row r="320" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H320" s="23"/>
+    </row>
+    <row r="321" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H321" s="23"/>
+    </row>
+    <row r="322" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H322" s="23"/>
+    </row>
+    <row r="323" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H323" s="23"/>
+    </row>
+    <row r="324" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H324" s="23"/>
+    </row>
+    <row r="325" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H325" s="23"/>
+    </row>
+    <row r="326" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H326" s="23"/>
+    </row>
+    <row r="327" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H327" s="23"/>
+    </row>
+    <row r="328" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H328" s="23"/>
+    </row>
+    <row r="329" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H329" s="23"/>
+    </row>
+    <row r="330" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H330" s="23"/>
+    </row>
+    <row r="331" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H331" s="23"/>
+    </row>
+    <row r="332" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H332" s="23"/>
+    </row>
+    <row r="333" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H333" s="23"/>
+    </row>
+    <row r="334" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H334" s="23"/>
+    </row>
+    <row r="335" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H335" s="23"/>
+    </row>
+    <row r="336" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H336" s="23"/>
+    </row>
+    <row r="337" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H337" s="23"/>
+    </row>
+    <row r="338" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H338" s="23"/>
+    </row>
+    <row r="339" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H339" s="23"/>
+    </row>
+    <row r="340" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H340" s="23"/>
+    </row>
+    <row r="341" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H341" s="23"/>
+    </row>
+    <row r="342" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H342" s="23"/>
+    </row>
+    <row r="343" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H343" s="23"/>
+    </row>
+    <row r="344" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H344" s="23"/>
+    </row>
+    <row r="345" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H345" s="23"/>
+    </row>
+    <row r="346" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H346" s="23"/>
+    </row>
+    <row r="347" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H347" s="23"/>
+    </row>
+    <row r="348" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H348" s="23"/>
+    </row>
+    <row r="349" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H349" s="23"/>
+    </row>
+    <row r="350" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H350" s="23"/>
+    </row>
+    <row r="351" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H351" s="23"/>
+    </row>
+    <row r="352" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H352" s="23"/>
+    </row>
+    <row r="353" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H353" s="23"/>
+    </row>
+    <row r="354" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H354" s="23"/>
+    </row>
+    <row r="355" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H355" s="23"/>
+    </row>
+    <row r="356" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H356" s="23"/>
+    </row>
+    <row r="357" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H357" s="23"/>
+    </row>
+    <row r="358" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H358" s="23"/>
+    </row>
+    <row r="359" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H359" s="23"/>
+    </row>
+    <row r="360" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H360" s="23"/>
+    </row>
+    <row r="361" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H361" s="23"/>
+    </row>
+    <row r="362" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H362" s="23"/>
+    </row>
+    <row r="363" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H363" s="23"/>
+    </row>
+    <row r="364" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H364" s="23"/>
+    </row>
+    <row r="365" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H365" s="23"/>
+    </row>
+    <row r="366" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H366" s="23"/>
+    </row>
+    <row r="367" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H367" s="23"/>
+    </row>
+    <row r="368" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H368" s="23"/>
+    </row>
+    <row r="369" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H369" s="23"/>
+    </row>
+    <row r="370" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H370" s="23"/>
+    </row>
+    <row r="371" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H371" s="23"/>
+    </row>
+    <row r="372" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H372" s="23"/>
+    </row>
+    <row r="373" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H373" s="23"/>
+    </row>
+    <row r="374" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H374" s="23"/>
+    </row>
+    <row r="375" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H375" s="23"/>
+    </row>
+    <row r="376" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H376" s="23"/>
+    </row>
+    <row r="377" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H377" s="23"/>
+    </row>
+    <row r="378" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H378" s="23"/>
+    </row>
+    <row r="379" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H379" s="23"/>
+    </row>
+    <row r="380" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H380" s="23"/>
+    </row>
+    <row r="381" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H381" s="23"/>
+    </row>
+    <row r="382" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H382" s="23"/>
+    </row>
+    <row r="383" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H383" s="23"/>
+    </row>
+    <row r="384" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H384" s="23"/>
+    </row>
+    <row r="385" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H385" s="23"/>
+    </row>
+    <row r="386" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H386" s="23"/>
+    </row>
+    <row r="387" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H387" s="23"/>
+    </row>
+    <row r="388" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H388" s="23"/>
+    </row>
+    <row r="389" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H389" s="23"/>
+    </row>
+    <row r="390" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H390" s="23"/>
+    </row>
+    <row r="391" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H391" s="23"/>
+    </row>
+    <row r="392" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H392" s="23"/>
+    </row>
+    <row r="393" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H393" s="23"/>
+    </row>
+    <row r="394" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H394" s="23"/>
+    </row>
+    <row r="395" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H395" s="23"/>
+    </row>
+    <row r="396" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H396" s="23"/>
+    </row>
+    <row r="397" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H397" s="23"/>
+    </row>
+    <row r="398" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H398" s="23"/>
+    </row>
+    <row r="399" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H399" s="23"/>
+    </row>
+    <row r="400" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H400" s="23"/>
+    </row>
+    <row r="401" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H401" s="23"/>
+    </row>
+    <row r="402" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H402" s="23"/>
+    </row>
+    <row r="403" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H403" s="23"/>
+    </row>
+    <row r="404" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H404" s="23"/>
+    </row>
+    <row r="405" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H405" s="23"/>
+    </row>
+    <row r="406" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H406" s="23"/>
+    </row>
+    <row r="407" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H407" s="23"/>
+    </row>
+    <row r="408" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H408" s="23"/>
+    </row>
+    <row r="409" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H409" s="23"/>
+    </row>
+    <row r="410" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H410" s="23"/>
+    </row>
+    <row r="411" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H411" s="23"/>
+    </row>
+    <row r="412" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H412" s="23"/>
+    </row>
+    <row r="413" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H413" s="23"/>
+    </row>
+    <row r="414" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H414" s="23"/>
+    </row>
+    <row r="415" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H415" s="23"/>
+    </row>
+    <row r="416" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H416" s="23"/>
+    </row>
+    <row r="417" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H417" s="23"/>
+    </row>
+    <row r="418" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H418" s="23"/>
+    </row>
+    <row r="419" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H419" s="23"/>
+    </row>
+    <row r="420" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H420" s="23"/>
+    </row>
+    <row r="421" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H421" s="23"/>
+    </row>
+    <row r="422" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H422" s="23"/>
+    </row>
+    <row r="423" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H423" s="23"/>
+    </row>
+    <row r="424" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H424" s="23"/>
+    </row>
+    <row r="425" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H425" s="23"/>
+    </row>
+    <row r="426" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H426" s="23"/>
+    </row>
+    <row r="427" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H427" s="23"/>
+    </row>
+    <row r="428" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H428" s="23"/>
+    </row>
+    <row r="429" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H429" s="23"/>
+    </row>
+    <row r="430" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H430" s="23"/>
+    </row>
+    <row r="431" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H431" s="23"/>
+    </row>
+    <row r="432" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H432" s="23"/>
+    </row>
+    <row r="433" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H433" s="23"/>
+    </row>
+    <row r="434" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H434" s="23"/>
+    </row>
+    <row r="435" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H435" s="23"/>
+    </row>
+    <row r="436" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H436" s="23"/>
+    </row>
+    <row r="437" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H437" s="23"/>
+    </row>
+    <row r="438" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H438" s="23"/>
+    </row>
+    <row r="439" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H439" s="23"/>
+    </row>
+    <row r="440" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H440" s="23"/>
+    </row>
+    <row r="441" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H441" s="23"/>
+    </row>
+    <row r="442" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H442" s="23"/>
+    </row>
+    <row r="443" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H443" s="23"/>
+    </row>
+    <row r="444" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H444" s="23"/>
+    </row>
+    <row r="445" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H445" s="23"/>
+    </row>
+    <row r="446" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H446" s="23"/>
+    </row>
+    <row r="447" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H447" s="23"/>
+    </row>
+    <row r="448" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H448" s="23"/>
+    </row>
+    <row r="449" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H449" s="23"/>
+    </row>
+    <row r="450" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H450" s="23"/>
+    </row>
+    <row r="451" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H451" s="23"/>
+    </row>
+    <row r="452" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H452" s="23"/>
+    </row>
+    <row r="453" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H453" s="23"/>
+    </row>
+    <row r="454" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H454" s="23"/>
+    </row>
+    <row r="455" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H455" s="23"/>
+    </row>
+    <row r="456" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H456" s="23"/>
+    </row>
+    <row r="457" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H457" s="23"/>
+    </row>
+    <row r="458" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H458" s="23"/>
+    </row>
+    <row r="459" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H459" s="23"/>
+    </row>
+    <row r="460" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H460" s="23"/>
+    </row>
+    <row r="461" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H461" s="23"/>
+    </row>
+    <row r="462" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H462" s="23"/>
+    </row>
+    <row r="463" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H463" s="23"/>
+    </row>
+    <row r="464" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H464" s="23"/>
+    </row>
+    <row r="465" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H465" s="23"/>
+    </row>
+    <row r="466" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H466" s="23"/>
+    </row>
+    <row r="467" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H467" s="23"/>
+    </row>
+    <row r="468" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H468" s="23"/>
+    </row>
+    <row r="469" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H469" s="23"/>
+    </row>
+    <row r="470" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H470" s="23"/>
+    </row>
+    <row r="471" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H471" s="23"/>
+    </row>
+    <row r="472" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H472" s="23"/>
+    </row>
+    <row r="473" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H473" s="23"/>
+    </row>
+    <row r="474" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H474" s="23"/>
+    </row>
+    <row r="475" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H475" s="23"/>
+    </row>
+    <row r="476" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H476" s="23"/>
+    </row>
+    <row r="477" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H477" s="23"/>
+    </row>
+    <row r="478" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H478" s="23"/>
+    </row>
+    <row r="479" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H479" s="23"/>
+    </row>
+    <row r="480" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H480" s="23"/>
+    </row>
+    <row r="481" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H481" s="23"/>
+    </row>
+    <row r="482" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H482" s="23"/>
+    </row>
+    <row r="483" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H483" s="23"/>
+    </row>
+    <row r="484" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H484" s="23"/>
+    </row>
+    <row r="485" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H485" s="23"/>
+    </row>
+    <row r="486" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H486" s="23"/>
+    </row>
+    <row r="487" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H487" s="23"/>
+    </row>
+    <row r="488" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H488" s="23"/>
+    </row>
+    <row r="489" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H489" s="23"/>
+    </row>
+    <row r="490" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H490" s="23"/>
+    </row>
+    <row r="491" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H491" s="23"/>
+    </row>
+    <row r="492" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H492" s="23"/>
+    </row>
+    <row r="493" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H493" s="23"/>
+    </row>
+    <row r="494" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H494" s="23"/>
+    </row>
+    <row r="495" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H495" s="23"/>
+    </row>
+    <row r="496" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H496" s="23"/>
+    </row>
+    <row r="497" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H497" s="23"/>
+    </row>
+    <row r="498" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H498" s="23"/>
+    </row>
+    <row r="499" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H499" s="23"/>
+    </row>
+    <row r="500" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H500" s="23"/>
+    </row>
+    <row r="501" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H501" s="23"/>
+    </row>
+    <row r="502" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H502" s="23"/>
+    </row>
+    <row r="503" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H503" s="23"/>
+    </row>
+    <row r="504" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H504" s="23"/>
+    </row>
+    <row r="505" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H505" s="23"/>
+    </row>
+    <row r="506" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H506" s="23"/>
+    </row>
+    <row r="507" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H507" s="23"/>
+    </row>
+    <row r="508" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H508" s="23"/>
+    </row>
+    <row r="509" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H509" s="23"/>
+    </row>
+    <row r="510" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H510" s="23"/>
+    </row>
+    <row r="511" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H511" s="23"/>
+    </row>
+    <row r="512" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H512" s="23"/>
+    </row>
+    <row r="513" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H513" s="23"/>
+    </row>
+    <row r="514" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H514" s="23"/>
+    </row>
+    <row r="515" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H515" s="23"/>
+    </row>
+    <row r="516" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H516" s="23"/>
+    </row>
+    <row r="517" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H517" s="23"/>
+    </row>
+    <row r="518" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H518" s="23"/>
+    </row>
+    <row r="519" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H519" s="23"/>
+    </row>
+    <row r="520" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H520" s="23"/>
+    </row>
+    <row r="521" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H521" s="23"/>
+    </row>
+    <row r="522" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H522" s="23"/>
+    </row>
+    <row r="523" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H523" s="23"/>
+    </row>
+    <row r="524" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H524" s="23"/>
+    </row>
+    <row r="525" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H525" s="23"/>
+    </row>
+    <row r="526" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H526" s="23"/>
+    </row>
+    <row r="527" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H527" s="23"/>
+    </row>
+    <row r="528" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H528" s="23"/>
+    </row>
+    <row r="529" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H529" s="23"/>
+    </row>
+    <row r="530" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H530" s="23"/>
+    </row>
+    <row r="531" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H531" s="23"/>
+    </row>
+    <row r="532" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H532" s="23"/>
+    </row>
+    <row r="533" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H533" s="23"/>
+    </row>
+    <row r="534" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H534" s="23"/>
+    </row>
+    <row r="535" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H535" s="23"/>
+    </row>
+    <row r="536" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H536" s="23"/>
+    </row>
+    <row r="537" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H537" s="23"/>
+    </row>
+    <row r="538" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H538" s="23"/>
+    </row>
+    <row r="539" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H539" s="23"/>
+    </row>
+    <row r="540" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H540" s="23"/>
+    </row>
+    <row r="541" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H541" s="23"/>
+    </row>
+    <row r="542" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H542" s="23"/>
+    </row>
+    <row r="543" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H543" s="23"/>
+    </row>
+    <row r="544" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H544" s="23"/>
+    </row>
+    <row r="545" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H545" s="23"/>
+    </row>
+    <row r="546" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H546" s="23"/>
+    </row>
+    <row r="547" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H547" s="23"/>
+    </row>
+    <row r="548" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H548" s="23"/>
+    </row>
+    <row r="549" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H549" s="23"/>
+    </row>
+    <row r="550" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H550" s="23"/>
+    </row>
+    <row r="551" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H551" s="23"/>
+    </row>
+    <row r="552" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H552" s="23"/>
+    </row>
+    <row r="553" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H553" s="23"/>
+    </row>
+    <row r="554" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H554" s="23"/>
+    </row>
+    <row r="555" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H555" s="23"/>
+    </row>
+    <row r="556" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H556" s="23"/>
+    </row>
+    <row r="557" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H557" s="23"/>
+    </row>
+    <row r="558" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H558" s="23"/>
+    </row>
+    <row r="559" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H559" s="23"/>
+    </row>
+    <row r="560" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H560" s="23"/>
+    </row>
+    <row r="561" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H561" s="23"/>
+    </row>
+    <row r="562" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H562" s="23"/>
+    </row>
+    <row r="563" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H563" s="23"/>
+    </row>
+    <row r="564" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H564" s="23"/>
+    </row>
+    <row r="565" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H565" s="23"/>
+    </row>
+    <row r="566" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H566" s="23"/>
+    </row>
+    <row r="567" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H567" s="23"/>
+    </row>
+    <row r="568" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H568" s="23"/>
+    </row>
+    <row r="569" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H569" s="23"/>
+    </row>
+    <row r="570" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H570" s="23"/>
+    </row>
+    <row r="571" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H571" s="23"/>
+    </row>
+    <row r="572" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H572" s="23"/>
+    </row>
+    <row r="573" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H573" s="23"/>
+    </row>
+    <row r="574" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H574" s="23"/>
+    </row>
+    <row r="575" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H575" s="23"/>
+    </row>
+    <row r="576" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H576" s="23"/>
+    </row>
+    <row r="577" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H577" s="23"/>
+    </row>
+    <row r="578" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H578" s="23"/>
+    </row>
+    <row r="579" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H579" s="23"/>
+    </row>
+    <row r="580" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H580" s="23"/>
+    </row>
+    <row r="581" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H581" s="23"/>
+    </row>
+    <row r="582" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H582" s="23"/>
+    </row>
+    <row r="583" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H583" s="23"/>
+    </row>
+    <row r="584" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H584" s="23"/>
+    </row>
+    <row r="585" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H585" s="23"/>
+    </row>
+    <row r="586" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H586" s="23"/>
+    </row>
+    <row r="587" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H587" s="23"/>
+    </row>
+    <row r="588" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H588" s="23"/>
+    </row>
+    <row r="589" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H589" s="23"/>
+    </row>
+    <row r="590" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H590" s="23"/>
+    </row>
+    <row r="591" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H591" s="23"/>
+    </row>
+    <row r="592" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H592" s="23"/>
+    </row>
+    <row r="593" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H593" s="23"/>
+    </row>
+    <row r="594" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H594" s="23"/>
+    </row>
+    <row r="595" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H595" s="23"/>
+    </row>
+    <row r="596" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H596" s="23"/>
+    </row>
+    <row r="597" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H597" s="23"/>
+    </row>
+    <row r="598" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H598" s="23"/>
+    </row>
+    <row r="599" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H599" s="23"/>
+    </row>
+    <row r="600" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H600" s="23"/>
+    </row>
+    <row r="601" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H601" s="23"/>
+    </row>
+    <row r="602" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H602" s="23"/>
+    </row>
+    <row r="603" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H603" s="23"/>
+    </row>
+    <row r="604" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H604" s="23"/>
+    </row>
+    <row r="605" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H605" s="23"/>
+    </row>
+    <row r="606" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H606" s="23"/>
+    </row>
+    <row r="607" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H607" s="23"/>
+    </row>
+    <row r="608" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H608" s="23"/>
+    </row>
+    <row r="609" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H609" s="23"/>
+    </row>
+    <row r="610" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H610" s="23"/>
+    </row>
+    <row r="611" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H611" s="23"/>
+    </row>
+    <row r="612" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H612" s="23"/>
+    </row>
+    <row r="613" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H613" s="23"/>
+    </row>
+    <row r="614" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H614" s="23"/>
+    </row>
+    <row r="615" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H615" s="23"/>
+    </row>
+    <row r="616" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H616" s="23"/>
+    </row>
+    <row r="617" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H617" s="23"/>
+    </row>
+    <row r="618" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H618" s="23"/>
+    </row>
+    <row r="619" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H619" s="23"/>
+    </row>
+    <row r="620" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H620" s="23"/>
+    </row>
+    <row r="621" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H621" s="23"/>
+    </row>
+    <row r="622" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H622" s="23"/>
+    </row>
+    <row r="623" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H623" s="23"/>
+    </row>
+    <row r="624" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H624" s="23"/>
+    </row>
+    <row r="625" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H625" s="23"/>
+    </row>
+    <row r="626" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H626" s="23"/>
+    </row>
+    <row r="627" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H627" s="23"/>
+    </row>
+    <row r="628" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H628" s="23"/>
+    </row>
+    <row r="629" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H629" s="23"/>
+    </row>
+    <row r="630" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H630" s="23"/>
+    </row>
+    <row r="631" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H631" s="23"/>
+    </row>
+    <row r="632" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H632" s="23"/>
+    </row>
+    <row r="633" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H633" s="23"/>
+    </row>
+    <row r="634" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H634" s="23"/>
+    </row>
+    <row r="635" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H635" s="23"/>
+    </row>
+    <row r="636" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H636" s="23"/>
+    </row>
+    <row r="637" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H637" s="23"/>
+    </row>
+    <row r="638" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H638" s="23"/>
+    </row>
+    <row r="639" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H639" s="23"/>
+    </row>
+    <row r="640" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H640" s="23"/>
+    </row>
+    <row r="641" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H641" s="23"/>
+    </row>
+    <row r="642" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H642" s="23"/>
+    </row>
+    <row r="643" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H643" s="23"/>
+    </row>
+    <row r="644" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H644" s="23"/>
+    </row>
+    <row r="645" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H645" s="23"/>
+    </row>
+    <row r="646" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H646" s="23"/>
+    </row>
+    <row r="647" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H647" s="23"/>
+    </row>
+    <row r="648" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H648" s="23"/>
+    </row>
+    <row r="649" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H649" s="23"/>
+    </row>
+    <row r="650" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H650" s="23"/>
+    </row>
+    <row r="651" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H651" s="23"/>
+    </row>
+    <row r="652" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H652" s="23"/>
+    </row>
+    <row r="653" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H653" s="23"/>
+    </row>
+    <row r="654" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H654" s="23"/>
+    </row>
+    <row r="655" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H655" s="23"/>
+    </row>
+    <row r="656" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H656" s="23"/>
+    </row>
+    <row r="657" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H657" s="23"/>
+    </row>
+    <row r="658" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H658" s="23"/>
+    </row>
+    <row r="659" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H659" s="23"/>
+    </row>
+    <row r="660" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H660" s="23"/>
+    </row>
+    <row r="661" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H661" s="23"/>
+    </row>
+    <row r="662" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H662" s="23"/>
+    </row>
+    <row r="663" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H663" s="23"/>
+    </row>
+    <row r="664" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H664" s="23"/>
+    </row>
+    <row r="665" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H665" s="23"/>
+    </row>
+    <row r="666" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H666" s="23"/>
+    </row>
+    <row r="667" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H667" s="23"/>
+    </row>
+    <row r="668" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H668" s="23"/>
+    </row>
+    <row r="669" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H669" s="23"/>
+    </row>
+    <row r="670" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H670" s="23"/>
+    </row>
+    <row r="671" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H671" s="23"/>
+    </row>
+    <row r="672" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H672" s="23"/>
+    </row>
+    <row r="673" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H673" s="23"/>
+    </row>
+    <row r="674" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H674" s="23"/>
+    </row>
+    <row r="675" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H675" s="23"/>
+    </row>
+    <row r="676" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H676" s="23"/>
+    </row>
+    <row r="677" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H677" s="23"/>
+    </row>
+    <row r="678" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H678" s="23"/>
+    </row>
+    <row r="679" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H679" s="23"/>
+    </row>
+    <row r="680" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H680" s="23"/>
+    </row>
+    <row r="681" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H681" s="23"/>
+    </row>
+    <row r="682" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H682" s="23"/>
+    </row>
+    <row r="683" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H683" s="23"/>
+    </row>
+    <row r="684" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H684" s="23"/>
+    </row>
+    <row r="685" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H685" s="23"/>
+    </row>
+    <row r="686" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H686" s="23"/>
+    </row>
+    <row r="687" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H687" s="23"/>
+    </row>
+    <row r="688" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H688" s="23"/>
+    </row>
+    <row r="689" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H689" s="23"/>
+    </row>
+    <row r="690" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H690" s="23"/>
+    </row>
+    <row r="691" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H691" s="23"/>
+    </row>
+    <row r="692" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H692" s="23"/>
+    </row>
+    <row r="693" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H693" s="23"/>
+    </row>
+    <row r="694" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H694" s="23"/>
+    </row>
+    <row r="695" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H695" s="23"/>
+    </row>
+    <row r="696" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H696" s="23"/>
+    </row>
+    <row r="697" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H697" s="23"/>
+    </row>
+    <row r="698" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H698" s="23"/>
+    </row>
+    <row r="699" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H699" s="23"/>
+    </row>
+    <row r="700" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H700" s="23"/>
+    </row>
+    <row r="701" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H701" s="23"/>
+    </row>
+    <row r="702" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H702" s="23"/>
+    </row>
+    <row r="703" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H703" s="23"/>
+    </row>
+    <row r="704" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H704" s="23"/>
+    </row>
+    <row r="705" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H705" s="23"/>
+    </row>
+    <row r="706" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H706" s="23"/>
+    </row>
+    <row r="707" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H707" s="23"/>
+    </row>
+    <row r="708" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H708" s="23"/>
+    </row>
+    <row r="709" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H709" s="23"/>
+    </row>
+    <row r="710" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H710" s="23"/>
+    </row>
+    <row r="711" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H711" s="23"/>
+    </row>
+    <row r="712" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H712" s="23"/>
+    </row>
+    <row r="713" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H713" s="23"/>
+    </row>
+    <row r="714" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H714" s="23"/>
+    </row>
+    <row r="715" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H715" s="23"/>
+    </row>
+    <row r="716" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H716" s="23"/>
+    </row>
+    <row r="717" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H717" s="23"/>
+    </row>
+    <row r="718" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H718" s="23"/>
+    </row>
+    <row r="719" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H719" s="23"/>
+    </row>
+    <row r="720" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H720" s="23"/>
+    </row>
+    <row r="721" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H721" s="23"/>
+    </row>
+    <row r="722" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H722" s="23"/>
+    </row>
+    <row r="723" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H723" s="23"/>
+    </row>
+    <row r="724" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H724" s="23"/>
+    </row>
+    <row r="725" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H725" s="23"/>
+    </row>
+    <row r="726" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H726" s="23"/>
+    </row>
+    <row r="727" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H727" s="23"/>
+    </row>
+    <row r="728" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H728" s="23"/>
+    </row>
+    <row r="729" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H729" s="23"/>
+    </row>
+    <row r="730" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H730" s="23"/>
+    </row>
+    <row r="731" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H731" s="23"/>
+    </row>
+    <row r="732" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H732" s="23"/>
+    </row>
+    <row r="733" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H733" s="23"/>
+    </row>
+    <row r="734" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H734" s="23"/>
+    </row>
+    <row r="735" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H735" s="23"/>
+    </row>
+    <row r="736" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H736" s="23"/>
+    </row>
+    <row r="737" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H737" s="23"/>
+    </row>
+    <row r="738" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H738" s="23"/>
+    </row>
+    <row r="739" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H739" s="23"/>
+    </row>
+    <row r="740" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H740" s="23"/>
+    </row>
+    <row r="741" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H741" s="23"/>
+    </row>
+    <row r="742" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H742" s="23"/>
+    </row>
+    <row r="743" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H743" s="23"/>
+    </row>
+    <row r="744" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H744" s="23"/>
+    </row>
+    <row r="745" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H745" s="23"/>
+    </row>
+    <row r="746" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H746" s="23"/>
+    </row>
+    <row r="747" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H747" s="23"/>
+    </row>
+    <row r="748" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H748" s="23"/>
+    </row>
+    <row r="749" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H749" s="23"/>
+    </row>
+    <row r="750" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H750" s="23"/>
+    </row>
+    <row r="751" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H751" s="23"/>
+    </row>
+    <row r="752" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H752" s="23"/>
+    </row>
+    <row r="753" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H753" s="23"/>
+    </row>
+    <row r="754" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H754" s="23"/>
+    </row>
+    <row r="755" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H755" s="23"/>
+    </row>
+    <row r="756" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H756" s="23"/>
+    </row>
+    <row r="757" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H757" s="23"/>
+    </row>
+    <row r="758" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H758" s="23"/>
+    </row>
+    <row r="759" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H759" s="23"/>
+    </row>
+    <row r="760" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H760" s="23"/>
+    </row>
+    <row r="761" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H761" s="23"/>
+    </row>
+    <row r="762" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H762" s="23"/>
+    </row>
+    <row r="763" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H763" s="23"/>
+    </row>
+    <row r="764" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H764" s="23"/>
+    </row>
+    <row r="765" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H765" s="23"/>
+    </row>
+    <row r="766" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H766" s="23"/>
+    </row>
+    <row r="767" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H767" s="23"/>
+    </row>
+    <row r="768" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H768" s="23"/>
+    </row>
+    <row r="769" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H769" s="23"/>
+    </row>
+    <row r="770" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H770" s="23"/>
+    </row>
+    <row r="771" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H771" s="23"/>
+    </row>
+    <row r="772" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H772" s="23"/>
+    </row>
+    <row r="773" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H773" s="23"/>
+    </row>
+    <row r="774" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H774" s="23"/>
+    </row>
+    <row r="775" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H775" s="23"/>
+    </row>
+    <row r="776" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H776" s="23"/>
+    </row>
+    <row r="777" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H777" s="23"/>
+    </row>
+    <row r="778" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H778" s="23"/>
+    </row>
+    <row r="779" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H779" s="23"/>
+    </row>
+    <row r="780" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H780" s="23"/>
+    </row>
+    <row r="781" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H781" s="23"/>
+    </row>
+    <row r="782" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H782" s="23"/>
+    </row>
+    <row r="783" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H783" s="23"/>
+    </row>
+    <row r="784" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H784" s="23"/>
+    </row>
+    <row r="785" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H785" s="23"/>
+    </row>
+    <row r="786" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H786" s="23"/>
+    </row>
+    <row r="787" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H787" s="23"/>
+    </row>
+    <row r="788" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H788" s="23"/>
+    </row>
+    <row r="789" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H789" s="23"/>
+    </row>
+    <row r="790" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H790" s="23"/>
+    </row>
+    <row r="791" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H791" s="23"/>
+    </row>
+    <row r="792" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H792" s="23"/>
+    </row>
+    <row r="793" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H793" s="23"/>
+    </row>
+    <row r="794" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H794" s="23"/>
+    </row>
+    <row r="795" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H795" s="23"/>
+    </row>
+    <row r="796" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H796" s="23"/>
+    </row>
+    <row r="797" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H797" s="23"/>
+    </row>
+    <row r="798" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H798" s="23"/>
+    </row>
+    <row r="799" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H799" s="23"/>
+    </row>
+    <row r="800" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H800" s="23"/>
+    </row>
+    <row r="801" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H801" s="23"/>
+    </row>
+    <row r="802" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H802" s="23"/>
+    </row>
+    <row r="803" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H803" s="23"/>
+    </row>
+    <row r="804" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H804" s="23"/>
+    </row>
+    <row r="805" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H805" s="23"/>
+    </row>
+    <row r="806" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H806" s="23"/>
+    </row>
+    <row r="807" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H807" s="23"/>
+    </row>
+    <row r="808" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H808" s="23"/>
+    </row>
+    <row r="809" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H809" s="23"/>
+    </row>
+    <row r="810" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H810" s="23"/>
+    </row>
+    <row r="811" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H811" s="23"/>
+    </row>
+    <row r="812" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H812" s="23"/>
+    </row>
+    <row r="813" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H813" s="23"/>
+    </row>
+    <row r="814" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H814" s="23"/>
+    </row>
+    <row r="815" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H815" s="23"/>
+    </row>
+    <row r="816" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H816" s="23"/>
+    </row>
+    <row r="817" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H817" s="23"/>
+    </row>
+    <row r="818" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H818" s="23"/>
+    </row>
+    <row r="819" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H819" s="23"/>
+    </row>
+    <row r="820" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H820" s="23"/>
+    </row>
+    <row r="821" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H821" s="23"/>
+    </row>
+    <row r="822" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H822" s="23"/>
+    </row>
+    <row r="823" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H823" s="23"/>
+    </row>
+    <row r="824" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H824" s="23"/>
+    </row>
+    <row r="825" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H825" s="23"/>
+    </row>
+    <row r="826" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H826" s="23"/>
+    </row>
+    <row r="827" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H827" s="23"/>
+    </row>
+    <row r="828" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H828" s="23"/>
+    </row>
+    <row r="829" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H829" s="23"/>
+    </row>
+    <row r="830" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H830" s="23"/>
+    </row>
+    <row r="831" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H831" s="23"/>
+    </row>
+    <row r="832" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H832" s="23"/>
+    </row>
+    <row r="833" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H833" s="23"/>
+    </row>
+    <row r="834" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H834" s="23"/>
+    </row>
+    <row r="835" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H835" s="23"/>
+    </row>
+    <row r="836" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H836" s="23"/>
+    </row>
+    <row r="837" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H837" s="23"/>
+    </row>
+    <row r="838" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H838" s="23"/>
+    </row>
+    <row r="839" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H839" s="23"/>
+    </row>
+    <row r="840" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H840" s="23"/>
+    </row>
+    <row r="841" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H841" s="23"/>
+    </row>
+    <row r="842" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H842" s="23"/>
+    </row>
+    <row r="843" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H843" s="23"/>
+    </row>
+    <row r="844" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H844" s="23"/>
+    </row>
+    <row r="845" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H845" s="23"/>
+    </row>
+    <row r="846" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H846" s="23"/>
+    </row>
+    <row r="847" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H847" s="23"/>
+    </row>
+    <row r="848" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H848" s="23"/>
+    </row>
+    <row r="849" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H849" s="23"/>
+    </row>
+    <row r="850" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H850" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{7999EE80-AE01-9B42-ADDC-D050936819E4}">
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Documents\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D9E4A4-A531-3D4A-9F79-2B64173465CD}">
   <dimension ref="A1:Z860"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A2" s="164" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="30">
+        <v>6628089</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134">
+        <v>0</v>
+      </c>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H106" s="23"/>
+    </row>
+    <row r="107" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H107" s="23"/>
+    </row>
+    <row r="108" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H108" s="23"/>
+    </row>
+    <row r="109" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H110" s="23"/>
+    </row>
+    <row r="111" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H115" s="23"/>
+    </row>
+    <row r="116" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H124" s="23"/>
+    </row>
+    <row r="125" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H142" s="23"/>
+    </row>
+    <row r="143" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H143" s="23"/>
+    </row>
+    <row r="144" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H144" s="23"/>
+    </row>
+    <row r="145" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H145" s="23"/>
+    </row>
+    <row r="146" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H146" s="23"/>
+    </row>
+    <row r="147" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H147" s="23"/>
+    </row>
+    <row r="148" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H148" s="23"/>
+    </row>
+    <row r="149" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H149" s="23"/>
+    </row>
+    <row r="150" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H150" s="23"/>
+    </row>
+    <row r="151" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H151" s="23"/>
+    </row>
+    <row r="152" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H152" s="23"/>
+    </row>
+    <row r="153" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H153" s="23"/>
+    </row>
+    <row r="154" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H155" s="23"/>
+    </row>
+    <row r="156" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H156" s="23"/>
+    </row>
+    <row r="157" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H157" s="23"/>
+    </row>
+    <row r="158" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H158" s="23"/>
+    </row>
+    <row r="159" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H159" s="23"/>
+    </row>
+    <row r="160" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H160" s="23"/>
+    </row>
+    <row r="161" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H161" s="23"/>
+    </row>
+    <row r="162" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H162" s="23"/>
+    </row>
+    <row r="163" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H163" s="23"/>
+    </row>
+    <row r="164" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H166" s="23"/>
+    </row>
+    <row r="167" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H167" s="23"/>
+    </row>
+    <row r="168" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H168" s="23"/>
+    </row>
+    <row r="169" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H169" s="23"/>
+    </row>
+    <row r="170" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H170" s="23"/>
+    </row>
+    <row r="171" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H171" s="23"/>
+    </row>
+    <row r="172" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H172" s="23"/>
+    </row>
+    <row r="173" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H173" s="23"/>
+    </row>
+    <row r="174" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H174" s="23"/>
+    </row>
+    <row r="175" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H175" s="23"/>
+    </row>
+    <row r="176" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H176" s="23"/>
+    </row>
+    <row r="177" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H177" s="23"/>
+    </row>
+    <row r="178" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H178" s="23"/>
+    </row>
+    <row r="179" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H180" s="23"/>
+    </row>
+    <row r="181" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H183" s="23"/>
+    </row>
+    <row r="184" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H186" s="23"/>
+    </row>
+    <row r="187" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H188" s="23"/>
+    </row>
+    <row r="189" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H189" s="23"/>
+    </row>
+    <row r="190" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H191" s="23"/>
+    </row>
+    <row r="192" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H192" s="23"/>
+    </row>
+    <row r="193" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H193" s="23"/>
+    </row>
+    <row r="194" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H195" s="23"/>
+    </row>
+    <row r="196" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H196" s="23"/>
+    </row>
+    <row r="197" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H198" s="23"/>
+    </row>
+    <row r="199" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H207" s="23"/>
+    </row>
+    <row r="208" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H208" s="23"/>
+    </row>
+    <row r="209" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H209" s="23"/>
+    </row>
+    <row r="210" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H210" s="23"/>
+    </row>
+    <row r="211" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H211" s="23"/>
+    </row>
+    <row r="212" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H212" s="23"/>
+    </row>
+    <row r="213" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H213" s="23"/>
+    </row>
+    <row r="214" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H214" s="23"/>
+    </row>
+    <row r="215" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H215" s="23"/>
+    </row>
+    <row r="216" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H216" s="23"/>
+    </row>
+    <row r="217" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H217" s="23"/>
+    </row>
+    <row r="218" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H218" s="23"/>
+    </row>
+    <row r="219" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H219" s="23"/>
+    </row>
+    <row r="220" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H220" s="23"/>
+    </row>
+    <row r="221" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H221" s="23"/>
+    </row>
+    <row r="222" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H222" s="23"/>
+    </row>
+    <row r="223" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H223" s="23"/>
+    </row>
+    <row r="224" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H224" s="23"/>
+    </row>
+    <row r="225" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H225" s="23"/>
+    </row>
+    <row r="226" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H226" s="23"/>
+    </row>
+    <row r="227" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H227" s="23"/>
+    </row>
+    <row r="228" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H228" s="23"/>
+    </row>
+    <row r="229" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H229" s="23"/>
+    </row>
+    <row r="230" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H230" s="23"/>
+    </row>
+    <row r="231" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H231" s="23"/>
+    </row>
+    <row r="232" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H232" s="23"/>
+    </row>
+    <row r="233" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H233" s="23"/>
+    </row>
+    <row r="234" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H234" s="23"/>
+    </row>
+    <row r="235" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H235" s="23"/>
+    </row>
+    <row r="236" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H236" s="23"/>
+    </row>
+    <row r="237" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H237" s="23"/>
+    </row>
+    <row r="238" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H238" s="23"/>
+    </row>
+    <row r="239" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H239" s="23"/>
+    </row>
+    <row r="240" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H240" s="23"/>
+    </row>
+    <row r="241" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H241" s="23"/>
+    </row>
+    <row r="242" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H242" s="23"/>
+    </row>
+    <row r="243" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H243" s="23"/>
+    </row>
+    <row r="244" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H244" s="23"/>
+    </row>
+    <row r="245" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H245" s="23"/>
+    </row>
+    <row r="246" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H246" s="23"/>
+    </row>
+    <row r="247" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H247" s="23"/>
+    </row>
+    <row r="248" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H248" s="23"/>
+    </row>
+    <row r="249" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H249" s="23"/>
+    </row>
+    <row r="250" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H250" s="23"/>
+    </row>
+    <row r="251" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H251" s="23"/>
+    </row>
+    <row r="252" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H252" s="23"/>
+    </row>
+    <row r="253" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H253" s="23"/>
+    </row>
+    <row r="254" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H254" s="23"/>
+    </row>
+    <row r="255" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H255" s="23"/>
+    </row>
+    <row r="256" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H256" s="23"/>
+    </row>
+    <row r="257" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H257" s="23"/>
+    </row>
+    <row r="258" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H258" s="23"/>
+    </row>
+    <row r="259" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H259" s="23"/>
+    </row>
+    <row r="260" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H260" s="23"/>
+    </row>
+    <row r="261" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H261" s="23"/>
+    </row>
+    <row r="262" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H262" s="23"/>
+    </row>
+    <row r="263" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H263" s="23"/>
+    </row>
+    <row r="264" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H264" s="23"/>
+    </row>
+    <row r="265" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H265" s="23"/>
+    </row>
+    <row r="266" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H266" s="23"/>
+    </row>
+    <row r="267" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H267" s="23"/>
+    </row>
+    <row r="268" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H268" s="23"/>
+    </row>
+    <row r="269" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H269" s="23"/>
+    </row>
+    <row r="270" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H270" s="23"/>
+    </row>
+    <row r="271" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H271" s="23"/>
+    </row>
+    <row r="272" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H272" s="23"/>
+    </row>
+    <row r="273" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H273" s="23"/>
+    </row>
+    <row r="274" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H274" s="23"/>
+    </row>
+    <row r="275" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H275" s="23"/>
+    </row>
+    <row r="276" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H276" s="23"/>
+    </row>
+    <row r="277" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H277" s="23"/>
+    </row>
+    <row r="278" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H278" s="23"/>
+    </row>
+    <row r="279" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H279" s="23"/>
+    </row>
+    <row r="280" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H280" s="23"/>
+    </row>
+    <row r="281" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H281" s="23"/>
+    </row>
+    <row r="282" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H282" s="23"/>
+    </row>
+    <row r="283" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H283" s="23"/>
+    </row>
+    <row r="284" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H284" s="23"/>
+    </row>
+    <row r="285" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H285" s="23"/>
+    </row>
+    <row r="286" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H286" s="23"/>
+    </row>
+    <row r="287" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H287" s="23"/>
+    </row>
+    <row r="288" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H288" s="23"/>
+    </row>
+    <row r="289" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H289" s="23"/>
+    </row>
+    <row r="290" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H290" s="23"/>
+    </row>
+    <row r="291" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H291" s="23"/>
+    </row>
+    <row r="292" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H292" s="23"/>
+    </row>
+    <row r="293" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H293" s="23"/>
+    </row>
+    <row r="294" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H294" s="23"/>
+    </row>
+    <row r="295" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H295" s="23"/>
+    </row>
+    <row r="296" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H296" s="23"/>
+    </row>
+    <row r="297" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H297" s="23"/>
+    </row>
+    <row r="298" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H298" s="23"/>
+    </row>
+    <row r="299" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H299" s="23"/>
+    </row>
+    <row r="300" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H300" s="23"/>
+    </row>
+    <row r="301" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H301" s="23"/>
+    </row>
+    <row r="302" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H302" s="23"/>
+    </row>
+    <row r="303" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H303" s="23"/>
+    </row>
+    <row r="304" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H304" s="23"/>
+    </row>
+    <row r="305" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H305" s="23"/>
+    </row>
+    <row r="306" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H306" s="23"/>
+    </row>
+    <row r="307" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H307" s="23"/>
+    </row>
+    <row r="308" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H308" s="23"/>
+    </row>
+    <row r="309" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H309" s="23"/>
+    </row>
+    <row r="310" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H310" s="23"/>
+    </row>
+    <row r="311" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H311" s="23"/>
+    